--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>840</v>
+        <v>1000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44307</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K3" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L3" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44266</v>
+        <v>44307</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M4" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44266</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L5" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M5" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44350</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M6" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>840</v>
+        <v>1100</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L7" t="n">
         <v>35000</v>
       </c>
-      <c r="L7" t="n">
-        <v>40000</v>
-      </c>
       <c r="M7" t="n">
-        <v>37500</v>
+        <v>34000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44210</v>
+        <v>44356</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L8" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="M8" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44210</v>
+        <v>44349</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L9" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>20500</v>
+        <v>29000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>820</v>
+        <v>1160</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44259</v>
+        <v>44349</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44259</v>
+        <v>44188</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44328</v>
+        <v>44280</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44328</v>
+        <v>44280</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K13" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L13" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>1100</v>
       </c>
       <c r="K14" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L14" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>27000</v>
+        <v>24500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1080</v>
+        <v>980</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K15" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L15" t="n">
         <v>31000</v>
       </c>
       <c r="M15" t="n">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>1220</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44252</v>
+        <v>44160</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K16" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L16" t="n">
         <v>17000</v>
       </c>
-      <c r="L16" t="n">
-        <v>18000</v>
-      </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44252</v>
+        <v>44286</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K17" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44322</v>
+        <v>44286</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L18" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M18" t="n">
-        <v>23000</v>
+        <v>26500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>920</v>
+        <v>1060</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44322</v>
+        <v>44266</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K19" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1040</v>
+        <v>760</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44293</v>
+        <v>44266</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44293</v>
+        <v>44202</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L21" t="n">
         <v>24000</v>
       </c>
       <c r="M21" t="n">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44335</v>
+        <v>44216</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K22" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M22" t="n">
-        <v>26500</v>
+        <v>21000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1060</v>
+        <v>840</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44335</v>
+        <v>44216</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K23" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L23" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M23" t="n">
-        <v>30500</v>
+        <v>24000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1220</v>
+        <v>960</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44167</v>
+        <v>44308</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>23000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>580</v>
+        <v>920</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44167</v>
+        <v>44308</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L25" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M25" t="n">
-        <v>21500</v>
+        <v>27000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>860</v>
+        <v>1080</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44279</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>760</v>
+        <v>980</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44279</v>
+        <v>44363</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K27" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L27" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="M27" t="n">
-        <v>25000</v>
+        <v>30500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44308</v>
+        <v>44189</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K28" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L28" t="n">
         <v>22000</v>
       </c>
-      <c r="L28" t="n">
-        <v>24000</v>
-      </c>
       <c r="M28" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44308</v>
+        <v>44189</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="L29" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M29" t="n">
-        <v>27000</v>
+        <v>37500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44356</v>
+        <v>44181</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>27000</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44280</v>
+        <v>44231</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
         <v>16000</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44280</v>
+        <v>44231</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L32" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M32" t="n">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44175</v>
+        <v>44203</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M33" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44384</v>
+        <v>44230</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K34" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>25500</v>
+        <v>19000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1020</v>
+        <v>760</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44363</v>
+        <v>44258</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K35" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>980</v>
+        <v>700</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44363</v>
+        <v>44258</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>30500</v>
+        <v>24000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1220</v>
+        <v>960</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>840</v>
+        <v>560</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M38" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44349</v>
+        <v>44328</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,29 +3165,29 @@
         </is>
       </c>
       <c r="J39" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>1000</v>
-      </c>
-      <c r="K39" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L39" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>1160</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44349</v>
+        <v>44328</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,13 +3240,13 @@
         <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L40" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M40" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44385</v>
+        <v>44343</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K41" t="n">
         <v>25000</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44258</v>
+        <v>44343</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K42" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M42" t="n">
-        <v>17500</v>
+        <v>32000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>700</v>
+        <v>1280</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,29 +3453,29 @@
         </is>
       </c>
       <c r="J43" t="n">
+        <v>600</v>
+      </c>
+      <c r="K43" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
         <v>700</v>
-      </c>
-      <c r="K43" t="n">
-        <v>23000</v>
-      </c>
-      <c r="L43" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M43" t="n">
-        <v>24000</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>960</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44237</v>
+        <v>44293</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K44" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L44" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M44" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>760</v>
+        <v>940</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44237</v>
+        <v>44195</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,17 +3597,17 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K45" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M45" t="n">
         <v>22000</v>
       </c>
-      <c r="L45" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M45" t="n">
-        <v>23000</v>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44273</v>
+        <v>44195</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K46" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L46" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M46" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44273</v>
+        <v>44209</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K47" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L47" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M47" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44377</v>
+        <v>44209</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3816,13 +3816,13 @@
         <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L48" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M48" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1020</v>
+        <v>860</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44321</v>
+        <v>44385</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="K49" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M49" t="n">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44321</v>
+        <v>44265</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K50" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L50" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M50" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1040</v>
+        <v>760</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44336</v>
+        <v>44265</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K51" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M51" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,29 +4101,29 @@
         </is>
       </c>
       <c r="J52" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K52" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
         <v>700</v>
-      </c>
-      <c r="K52" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L52" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M52" t="n">
-        <v>30500</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>1220</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K53" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L53" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M53" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K54" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L54" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44238</v>
+        <v>44259</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K55" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L55" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M55" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K56" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L56" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,17 +4461,17 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L57" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M57" t="n">
         <v>25000</v>
       </c>
-      <c r="M57" t="n">
-        <v>24000</v>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44209</v>
+        <v>44217</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K59" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L59" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M59" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44209</v>
+        <v>44384</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K60" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L60" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M60" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>860</v>
+        <v>1020</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="K61" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M61" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K62" t="n">
         <v>20000</v>
       </c>
       <c r="L62" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M62" t="n">
-        <v>22500</v>
+        <v>20500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K63" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L63" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M63" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44322</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4968,13 +4968,13 @@
         <v>400</v>
       </c>
       <c r="K64" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L64" t="n">
         <v>27000</v>
       </c>
-      <c r="L64" t="n">
-        <v>28000</v>
-      </c>
       <c r="M64" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44272</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K65" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L65" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M65" t="n">
-        <v>34000</v>
+        <v>18500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1360</v>
+        <v>740</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44315</v>
+        <v>44272</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,17 +5109,17 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M66" t="n">
         <v>23000</v>
       </c>
-      <c r="L66" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M66" t="n">
-        <v>24000</v>
-      </c>
       <c r="N66" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44251</v>
+        <v>44321</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5184,13 +5184,13 @@
         <v>1000</v>
       </c>
       <c r="K67" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L67" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M67" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44294</v>
+        <v>44321</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5256,13 +5256,13 @@
         <v>500</v>
       </c>
       <c r="K68" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L68" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M68" t="n">
-        <v>17500</v>
+        <v>26000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44294</v>
+        <v>44335</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K69" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L69" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M69" t="n">
-        <v>23000</v>
+        <v>26500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>920</v>
+        <v>1060</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44245</v>
+        <v>44335</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K70" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L70" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="M70" t="n">
-        <v>14000</v>
+        <v>30500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>560</v>
+        <v>1220</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44245</v>
+        <v>44210</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L71" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M71" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>840</v>
+        <v>740</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44202</v>
+        <v>44210</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K72" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L72" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M72" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>920</v>
+        <v>820</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44181</v>
+        <v>44301</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K73" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L73" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M73" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>540</v>
+        <v>840</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L74" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M74" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L75" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M75" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44161</v>
+        <v>44244</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5832,13 +5832,13 @@
         <v>1600</v>
       </c>
       <c r="K76" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L76" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M76" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>620</v>
+        <v>760</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44195</v>
+        <v>44237</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K77" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L77" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M77" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44195</v>
+        <v>44237</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K78" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L78" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M78" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1360</v>
+        <v>920</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K79" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L79" t="n">
         <v>20000</v>
       </c>
       <c r="M79" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,17 +6117,17 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K80" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L80" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M80" t="n">
         <v>23000</v>
       </c>
-      <c r="M80" t="n">
-        <v>22000</v>
-      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44188</v>
+        <v>44294</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="K81" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L81" t="n">
         <v>18000</v>
       </c>
-      <c r="L81" t="n">
-        <v>20000</v>
-      </c>
       <c r="M81" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44160</v>
+        <v>44294</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L82" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M82" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L83" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M83" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44301</v>
+        <v>44391</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K84" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L84" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M84" t="n">
-        <v>27000</v>
+        <v>29500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1080</v>
+        <v>1180</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K85" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L85" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M85" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K86" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L86" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M86" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44230</v>
+        <v>44161</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K87" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L87" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M87" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>760</v>
+        <v>620</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,17 +6693,17 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L88" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M88" t="n">
         <v>18000</v>
       </c>
-      <c r="M88" t="n">
-        <v>17000</v>
-      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K89" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L89" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M89" t="n">
-        <v>26500</v>
+        <v>12500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1060</v>
+        <v>500</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44217</v>
+        <v>44279</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K90" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L90" t="n">
         <v>20000</v>
       </c>
-      <c r="L90" t="n">
-        <v>22000</v>
-      </c>
       <c r="M90" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44244</v>
+        <v>44279</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,29 +6909,29 @@
         </is>
       </c>
       <c r="J91" t="n">
+        <v>240</v>
+      </c>
+      <c r="K91" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L91" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M91" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
         <v>1000</v>
-      </c>
-      <c r="K91" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L91" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M91" t="n">
-        <v>14000</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>560</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44244</v>
+        <v>44223</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K92" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L92" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M92" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44343</v>
+        <v>44223</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K93" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L93" t="n">
         <v>25000</v>
       </c>
-      <c r="L93" t="n">
-        <v>26000</v>
-      </c>
       <c r="M93" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="L94" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M94" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K95" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L95" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M95" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>840</v>
+        <v>580</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7272,13 +7272,13 @@
         <v>1100</v>
       </c>
       <c r="K96" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L96" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M96" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>960</v>
+        <v>860</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K97" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L97" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M97" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K98" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L98" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M98" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L3" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M3" t="n">
-        <v>22000</v>
+        <v>26500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>880</v>
+        <v>1060</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M4" t="n">
-        <v>27000</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1080</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44350</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44356</v>
+        <v>44259</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>27000</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1080</v>
+        <v>700</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44349</v>
+        <v>44259</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K9" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M9" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1160</v>
+        <v>960</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44349</v>
+        <v>44189</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K10" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1360</v>
+        <v>840</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3100</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M11" t="n">
-        <v>19000</v>
+        <v>37500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44280</v>
+        <v>44202</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44280</v>
+        <v>44384</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M13" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44336</v>
+        <v>44314</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
         <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L15" t="n">
         <v>30000</v>
       </c>
-      <c r="L15" t="n">
-        <v>31000</v>
-      </c>
       <c r="M15" t="n">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44160</v>
+        <v>44349</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>34000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>660</v>
+        <v>1360</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44286</v>
+        <v>44329</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>680</v>
+        <v>1080</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44286</v>
+        <v>44329</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L18" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M18" t="n">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1060</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44266</v>
+        <v>44258</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K19" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L19" t="n">
         <v>18000</v>
       </c>
-      <c r="L19" t="n">
-        <v>20000</v>
-      </c>
       <c r="M19" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44266</v>
+        <v>44258</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K20" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L20" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>880</v>
+        <v>960</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44202</v>
+        <v>44377</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L21" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M21" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K22" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L22" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K23" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L23" t="n">
         <v>25000</v>
       </c>
       <c r="M23" t="n">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44308</v>
+        <v>44224</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K24" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M24" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44308</v>
+        <v>44195</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K25" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L25" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M25" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44363</v>
+        <v>44195</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K26" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L26" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M26" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>980</v>
+        <v>1360</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44363</v>
+        <v>44188</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K27" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L27" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>30500</v>
+        <v>19000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1220</v>
+        <v>760</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44189</v>
+        <v>44230</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K28" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L28" t="n">
         <v>20000</v>
       </c>
-      <c r="L28" t="n">
-        <v>22000</v>
-      </c>
       <c r="M28" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>37500</v>
+        <v>18500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1500</v>
+        <v>740</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44231</v>
+        <v>44322</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K31" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M31" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44231</v>
+        <v>44322</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M32" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>900</v>
+        <v>1040</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44203</v>
+        <v>44293</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>840</v>
+        <v>700</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44230</v>
+        <v>44293</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M34" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>760</v>
+        <v>940</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,17 +2949,17 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K36" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M36" t="n">
         <v>23000</v>
       </c>
-      <c r="L36" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M36" t="n">
-        <v>24000</v>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44245</v>
+        <v>44385</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M37" t="n">
-        <v>14000</v>
+        <v>25500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44245</v>
+        <v>44391</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K38" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M38" t="n">
-        <v>21000</v>
+        <v>29500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>840</v>
+        <v>1180</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44328</v>
+        <v>44216</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K39" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L39" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M39" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44328</v>
+        <v>44216</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K40" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M40" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44343</v>
+        <v>44245</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>25500</v>
+        <v>14000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1020</v>
+        <v>560</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44343</v>
+        <v>44245</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K42" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M42" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1280</v>
+        <v>840</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44293</v>
+        <v>44321</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K43" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44293</v>
+        <v>44321</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L44" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M44" t="n">
-        <v>23500</v>
+        <v>26000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>940</v>
+        <v>1040</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44195</v>
+        <v>44300</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K45" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L45" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M45" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44195</v>
+        <v>44300</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L46" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M46" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44209</v>
+        <v>44223</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K47" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L47" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M47" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44209</v>
+        <v>44223</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K48" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L48" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>860</v>
+        <v>960</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44385</v>
+        <v>44161</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L49" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M49" t="n">
-        <v>25500</v>
+        <v>15500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1020</v>
+        <v>620</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K50" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M50" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>760</v>
+        <v>880</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L51" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M51" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4104,13 +4104,13 @@
         <v>1100</v>
       </c>
       <c r="K52" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L52" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M52" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K53" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M53" t="n">
-        <v>24000</v>
+        <v>30500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>960</v>
+        <v>1220</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44259</v>
+        <v>44328</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K54" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L54" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M54" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44259</v>
+        <v>44328</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K55" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L55" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M55" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K56" t="n">
         <v>18000</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K57" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L57" t="n">
         <v>24000</v>
       </c>
-      <c r="L57" t="n">
-        <v>26000</v>
-      </c>
       <c r="M57" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44224</v>
+        <v>44167</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K58" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L58" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>800</v>
+        <v>580</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L59" t="n">
         <v>22000</v>
       </c>
       <c r="M59" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44384</v>
+        <v>44210</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K60" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L60" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M60" t="n">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1020</v>
+        <v>740</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L61" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M61" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>520</v>
+        <v>820</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44168</v>
+        <v>44217</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,17 +4821,17 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K62" t="n">
         <v>20000</v>
       </c>
       <c r="L62" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M62" t="n">
         <v>21000</v>
       </c>
-      <c r="M62" t="n">
-        <v>20500</v>
-      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44322</v>
+        <v>44266</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K63" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L63" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M63" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44322</v>
+        <v>44266</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K64" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L64" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M64" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1040</v>
+        <v>880</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K65" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="L65" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M65" t="n">
-        <v>18500</v>
+        <v>27500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>740</v>
+        <v>1100</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K66" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L66" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M66" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44321</v>
+        <v>44265</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K67" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L67" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M67" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44321</v>
+        <v>44265</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K68" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L68" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M68" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1040</v>
+        <v>880</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44335</v>
+        <v>44343</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5328,13 +5328,13 @@
         <v>1000</v>
       </c>
       <c r="K69" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L69" t="n">
         <v>26000</v>
       </c>
-      <c r="L69" t="n">
-        <v>27000</v>
-      </c>
       <c r="M69" t="n">
-        <v>26500</v>
+        <v>25500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44335</v>
+        <v>44343</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K70" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L70" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M70" t="n">
-        <v>30500</v>
+        <v>32000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1220</v>
+        <v>1280</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44210</v>
+        <v>44280</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K71" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L71" t="n">
         <v>18000</v>
       </c>
-      <c r="L71" t="n">
-        <v>19000</v>
-      </c>
       <c r="M71" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44210</v>
+        <v>44280</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L72" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M72" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L73" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M73" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K74" t="n">
         <v>26000</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5760,13 +5760,13 @@
         <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L75" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M75" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L76" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M76" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44237</v>
+        <v>44251</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,17 +5901,17 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K77" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M77" t="n">
         <v>18000</v>
       </c>
-      <c r="L77" t="n">
-        <v>20000</v>
-      </c>
-      <c r="M77" t="n">
-        <v>19000</v>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44237</v>
+        <v>44252</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K78" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L78" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M78" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44273</v>
+        <v>44252</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K79" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L79" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M79" t="n">
-        <v>18500</v>
+        <v>24000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>740</v>
+        <v>960</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44273</v>
+        <v>44168</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="K80" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L80" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M80" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>920</v>
+        <v>520</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44294</v>
+        <v>44168</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K81" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L81" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M81" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>700</v>
+        <v>820</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44294</v>
+        <v>44279</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K82" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L82" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M82" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44315</v>
+        <v>44279</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,17 +6333,17 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K83" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L83" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M83" t="n">
         <v>25000</v>
       </c>
-      <c r="M83" t="n">
-        <v>24000</v>
-      </c>
       <c r="N83" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44391</v>
+        <v>44363</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K84" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L84" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M84" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1180</v>
+        <v>980</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44329</v>
+        <v>44363</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K85" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L85" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M85" t="n">
-        <v>27000</v>
+        <v>30500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1080</v>
+        <v>1220</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44329</v>
+        <v>44273</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K86" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L86" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M86" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1200</v>
+        <v>740</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44161</v>
+        <v>44273</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K87" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L87" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M87" t="n">
-        <v>15500</v>
+        <v>23000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>620</v>
+        <v>920</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44251</v>
+        <v>44286</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,17 +6693,17 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K88" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L88" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M88" t="n">
         <v>17000</v>
       </c>
-      <c r="L88" t="n">
-        <v>19000</v>
-      </c>
-      <c r="M88" t="n">
-        <v>18000</v>
-      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L89" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="M89" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>500</v>
+        <v>1060</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44279</v>
+        <v>44209</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6843,10 +6843,10 @@
         <v>18000</v>
       </c>
       <c r="L90" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M90" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44279</v>
+        <v>44209</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K91" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L91" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M91" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44223</v>
+        <v>44356</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L92" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M92" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44223</v>
+        <v>44160</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K93" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L93" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M93" t="n">
-        <v>24000</v>
+        <v>16500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>960</v>
+        <v>660</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44314</v>
+        <v>44175</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K94" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L94" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M94" t="n">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44167</v>
+        <v>44357</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L95" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M95" t="n">
-        <v>14500</v>
+        <v>25000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44167</v>
+        <v>44203</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K96" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L96" t="n">
         <v>22000</v>
       </c>
       <c r="M96" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44238</v>
+        <v>44244</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7344,13 +7344,13 @@
         <v>1000</v>
       </c>
       <c r="K97" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L97" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M97" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44238</v>
+        <v>44244</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K98" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L98" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M98" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44329</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44329</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L3" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="M3" t="n">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1060</v>
+        <v>1200</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44335</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>21000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>840</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44294</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>37500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44259</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,13 +792,13 @@
         <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44315</v>
+        <v>44259</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K7" t="n">
         <v>23000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44259</v>
+        <v>44181</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44259</v>
+        <v>44266</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44266</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,17 +1077,17 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L10" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M10" t="n">
         <v>22000</v>
       </c>
-      <c r="M10" t="n">
-        <v>21000</v>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44279</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K11" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>37500</v>
+        <v>19000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44202</v>
+        <v>44279</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K12" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L12" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M12" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44384</v>
+        <v>44251</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M13" t="n">
-        <v>25500</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1020</v>
+        <v>720</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44314</v>
+        <v>44237</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K14" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44349</v>
+        <v>44237</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L15" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M15" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44349</v>
+        <v>44160</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K16" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>34000</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1360</v>
+        <v>660</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44329</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K17" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1080</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44329</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K18" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L18" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M18" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>860</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44258</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K20" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44377</v>
+        <v>44238</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K21" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L21" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M21" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44231</v>
+        <v>44272</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44231</v>
+        <v>44272</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L23" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M23" t="n">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L24" t="n">
         <v>19000</v>
       </c>
-      <c r="L24" t="n">
-        <v>21000</v>
-      </c>
       <c r="M24" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44195</v>
+        <v>44210</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L25" t="n">
         <v>21000</v>
       </c>
-      <c r="L25" t="n">
-        <v>23000</v>
-      </c>
       <c r="M25" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44195</v>
+        <v>44175</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K26" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>34000</v>
+        <v>12500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K28" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44272</v>
+        <v>44245</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M29" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K30" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44322</v>
+        <v>44216</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K31" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L31" t="n">
         <v>22000</v>
       </c>
-      <c r="L31" t="n">
-        <v>24000</v>
-      </c>
       <c r="M31" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44322</v>
+        <v>44216</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K32" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L32" t="n">
         <v>25000</v>
       </c>
-      <c r="L32" t="n">
-        <v>27000</v>
-      </c>
       <c r="M32" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44293</v>
+        <v>44244</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44293</v>
+        <v>44244</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>23500</v>
+        <v>19000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>940</v>
+        <v>760</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44238</v>
+        <v>44336</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K35" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L35" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>760</v>
+        <v>980</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44336</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L36" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M36" t="n">
-        <v>23000</v>
+        <v>30500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>920</v>
+        <v>1220</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44385</v>
+        <v>44308</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L37" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M37" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44391</v>
+        <v>44308</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L38" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>29500</v>
+        <v>27000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1180</v>
+        <v>1080</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44216</v>
+        <v>44322</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K39" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L39" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M39" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44216</v>
+        <v>44322</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L40" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M40" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>960</v>
+        <v>1040</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44245</v>
+        <v>44265</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44245</v>
+        <v>44265</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,17 +3381,17 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K42" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L42" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M42" t="n">
         <v>22000</v>
       </c>
-      <c r="M42" t="n">
-        <v>21000</v>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44321</v>
+        <v>44224</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K43" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M43" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44321</v>
+        <v>44315</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L44" t="n">
         <v>25000</v>
       </c>
-      <c r="L44" t="n">
-        <v>27000</v>
-      </c>
       <c r="M44" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>600</v>
       </c>
       <c r="K45" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L45" t="n">
         <v>18000</v>
       </c>
-      <c r="L45" t="n">
-        <v>20000</v>
-      </c>
       <c r="M45" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K46" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L46" t="n">
         <v>24000</v>
       </c>
-      <c r="L46" t="n">
-        <v>26000</v>
-      </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>23500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K47" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L47" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M47" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K48" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M48" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44161</v>
+        <v>44195</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K49" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L49" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M49" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44307</v>
+        <v>44195</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3960,13 +3960,13 @@
         <v>700</v>
       </c>
       <c r="K50" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L50" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M50" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>880</v>
+        <v>1360</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44307</v>
+        <v>44209</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K51" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L51" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M51" t="n">
-        <v>27000</v>
+        <v>18500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1080</v>
+        <v>740</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44336</v>
+        <v>44209</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K52" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L52" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M52" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>980</v>
+        <v>860</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44336</v>
+        <v>44294</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,29 +4173,29 @@
         </is>
       </c>
       <c r="J53" t="n">
+        <v>500</v>
+      </c>
+      <c r="K53" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
         <v>700</v>
-      </c>
-      <c r="K53" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L53" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M53" t="n">
-        <v>30500</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>1220</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44328</v>
+        <v>44294</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K54" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L54" t="n">
         <v>24000</v>
       </c>
-      <c r="L54" t="n">
-        <v>26000</v>
-      </c>
       <c r="M54" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K55" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L55" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M55" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44237</v>
+        <v>44273</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K56" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L56" t="n">
         <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44237</v>
+        <v>44273</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K57" t="n">
         <v>22000</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44167</v>
+        <v>44203</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L58" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M58" t="n">
-        <v>14500</v>
+        <v>21000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>580</v>
+        <v>840</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="K59" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L59" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>860</v>
+        <v>520</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44210</v>
+        <v>44168</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K60" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L60" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M60" t="n">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44210</v>
+        <v>44161</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K61" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L61" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M61" t="n">
-        <v>20500</v>
+        <v>15500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>820</v>
+        <v>620</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44217</v>
+        <v>44280</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K62" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L62" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M62" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44266</v>
+        <v>44280</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K63" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L63" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M63" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44266</v>
+        <v>44391</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K64" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L64" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M64" t="n">
-        <v>22000</v>
+        <v>29500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>880</v>
+        <v>1180</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K65" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L65" t="n">
         <v>27000</v>
       </c>
-      <c r="L65" t="n">
-        <v>28000</v>
-      </c>
       <c r="M65" t="n">
-        <v>27500</v>
+        <v>26500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1100</v>
+        <v>1060</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K66" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L66" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M66" t="n">
-        <v>34000</v>
+        <v>30500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1360</v>
+        <v>1220</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44265</v>
+        <v>44231</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L67" t="n">
         <v>18000</v>
       </c>
-      <c r="L67" t="n">
-        <v>20000</v>
-      </c>
       <c r="M67" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44265</v>
+        <v>44231</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L68" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M68" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44343</v>
+        <v>44258</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K69" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L69" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M69" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44343</v>
+        <v>44258</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K70" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="L70" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M70" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44280</v>
+        <v>44252</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K71" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L71" t="n">
         <v>18000</v>
       </c>
       <c r="M71" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44280</v>
+        <v>44252</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,17 +5541,17 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K72" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L72" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M72" t="n">
         <v>24000</v>
       </c>
-      <c r="M72" t="n">
-        <v>23000</v>
-      </c>
       <c r="N72" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5616,13 +5616,13 @@
         <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L73" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M73" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5688,13 +5688,13 @@
         <v>500</v>
       </c>
       <c r="K74" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L74" t="n">
         <v>26000</v>
       </c>
-      <c r="L74" t="n">
-        <v>28000</v>
-      </c>
       <c r="M74" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44301</v>
+        <v>44349</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5760,13 +5760,13 @@
         <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L75" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M75" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>840</v>
+        <v>1160</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44301</v>
+        <v>44349</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K76" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="L76" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M76" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1080</v>
+        <v>1360</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44251</v>
+        <v>44350</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K77" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="L77" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="M77" t="n">
-        <v>18000</v>
+        <v>27500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>720</v>
+        <v>1100</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44252</v>
+        <v>44350</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K78" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L78" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M78" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44252</v>
+        <v>44385</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K79" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L79" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M79" t="n">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44168</v>
+        <v>44202</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="K80" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L80" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M80" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>520</v>
+        <v>920</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44168</v>
+        <v>44377</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K81" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L81" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M81" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>820</v>
+        <v>1020</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44279</v>
+        <v>44307</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L82" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M82" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>760</v>
+        <v>880</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44279</v>
+        <v>44307</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L83" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M83" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K84" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L84" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M84" t="n">
-        <v>24500</v>
+        <v>44000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>980</v>
+        <v>1760</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K85" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L85" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M85" t="n">
-        <v>30500</v>
+        <v>25500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1220</v>
+        <v>1020</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K86" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L86" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M86" t="n">
-        <v>18500</v>
+        <v>24500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>740</v>
+        <v>980</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K87" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L87" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M87" t="n">
-        <v>23000</v>
+        <v>30500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>920</v>
+        <v>1220</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44286</v>
+        <v>44301</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L88" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M88" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44286</v>
+        <v>44301</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6768,13 +6768,13 @@
         <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L89" t="n">
         <v>28000</v>
       </c>
       <c r="M89" t="n">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44209</v>
+        <v>44357</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K90" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L90" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="M90" t="n">
-        <v>18500</v>
+        <v>25000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>740</v>
+        <v>1000</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44209</v>
+        <v>44328</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K91" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L91" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M91" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44356</v>
+        <v>44328</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K92" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L92" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M92" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44160</v>
+        <v>44321</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K93" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L93" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M93" t="n">
-        <v>16500</v>
+        <v>24000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>660</v>
+        <v>960</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44175</v>
+        <v>44321</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K94" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L94" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="M94" t="n">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44357</v>
+        <v>44223</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K95" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L95" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M95" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44203</v>
+        <v>44223</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K96" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L96" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M96" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44244</v>
+        <v>44314</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K97" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L97" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M97" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,43 +7404,115 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K98" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L98" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M98" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>25</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>1600</v>
-      </c>
-      <c r="K98" t="n">
-        <v>18000</v>
-      </c>
-      <c r="L98" t="n">
-        <v>20000</v>
-      </c>
-      <c r="M98" t="n">
-        <v>19000</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>760</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>25</v>
-      </c>
-      <c r="R98" t="inlineStr">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>600</v>
+      </c>
+      <c r="K99" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M99" t="n">
+        <v>26500</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>1060</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>25</v>
+      </c>
+      <c r="R99" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>47000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>49000</v>
       </c>
       <c r="M59" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>520</v>
+        <v>1920</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K60" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L60" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M60" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K61" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L61" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M61" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K62" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L62" t="n">
         <v>16000</v>
       </c>
-      <c r="L62" t="n">
-        <v>18000</v>
-      </c>
       <c r="M62" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4896,13 +4896,13 @@
         <v>700</v>
       </c>
       <c r="K63" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L63" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M63" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>920</v>
+        <v>680</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K64" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L64" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M64" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K65" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L65" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M65" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1060</v>
+        <v>1180</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K66" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L66" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M66" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K67" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L67" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M67" t="n">
-        <v>17000</v>
+        <v>30500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>680</v>
+        <v>1220</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5256,13 +5256,13 @@
         <v>600</v>
       </c>
       <c r="K68" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L68" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M68" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K69" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L69" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M69" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5400,13 +5400,13 @@
         <v>700</v>
       </c>
       <c r="K70" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L70" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M70" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K71" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L71" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M71" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K72" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L72" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M72" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K73" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L73" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M73" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L74" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M74" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,29 +5757,29 @@
         </is>
       </c>
       <c r="J75" t="n">
+        <v>500</v>
+      </c>
+      <c r="K75" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M75" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
         <v>1000</v>
-      </c>
-      <c r="K75" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M75" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>1160</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K76" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L76" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M76" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5904,13 +5904,13 @@
         <v>400</v>
       </c>
       <c r="K77" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L77" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M77" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1100</v>
+        <v>1360</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L78" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M78" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K79" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L79" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M79" t="n">
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1020</v>
+        <v>1360</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K80" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L80" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M80" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44377</v>
+        <v>44202</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L81" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M81" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K82" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M82" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L83" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M83" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K84" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L84" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M84" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1760</v>
+        <v>1080</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K85" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L85" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M85" t="n">
-        <v>25500</v>
+        <v>44000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1020</v>
+        <v>1760</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K86" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L86" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M86" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L87" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M87" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K88" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L88" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M88" t="n">
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>840</v>
+        <v>1220</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K89" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L89" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M89" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K90" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L90" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M90" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K91" t="n">
         <v>24000</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L92" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M92" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K93" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L93" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M93" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K94" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L94" t="n">
         <v>25000</v>
       </c>
-      <c r="L94" t="n">
-        <v>27000</v>
-      </c>
       <c r="M94" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K95" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L95" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M95" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>840</v>
+        <v>1040</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K96" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L96" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M96" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K97" t="n">
         <v>23000</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K98" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L98" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M98" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7476,43 +7476,115 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K99" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M99" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>25</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
         <v>600</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K100" t="n">
         <v>25000</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L100" t="n">
         <v>28000</v>
       </c>
-      <c r="M99" t="n">
+      <c r="M100" t="n">
         <v>26500</v>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>1060</v>
       </c>
-      <c r="Q99" t="n">
-        <v>25</v>
-      </c>
-      <c r="R99" t="inlineStr">
+      <c r="Q100" t="n">
+        <v>25</v>
+      </c>
+      <c r="R100" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44336</v>
+        <v>44482</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M35" t="n">
-        <v>24500</v>
+        <v>44000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>980</v>
+        <v>1760</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L36" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L37" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M37" t="n">
-        <v>23000</v>
+        <v>30500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>920</v>
+        <v>1220</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K38" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M38" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L39" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K40" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M40" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M41" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K42" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L42" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M42" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3456,13 +3456,13 @@
         <v>700</v>
       </c>
       <c r="K43" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L43" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M43" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K44" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L44" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M44" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>600</v>
       </c>
       <c r="K45" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L45" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K46" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L46" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>940</v>
+        <v>700</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K47" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L47" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M47" t="n">
-        <v>25500</v>
+        <v>23500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K48" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M48" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K49" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="L49" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M49" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>880</v>
+        <v>1280</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K50" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L50" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M50" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1360</v>
+        <v>880</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L51" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M51" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K52" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L52" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M52" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K53" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L53" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M53" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K54" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L54" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K55" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M55" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44273</v>
+        <v>44356</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K56" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L56" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4464,13 +4464,13 @@
         <v>300</v>
       </c>
       <c r="K57" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L57" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M57" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44203</v>
+        <v>44273</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K58" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L58" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M58" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K59" t="n">
-        <v>47000</v>
+        <v>20000</v>
       </c>
       <c r="L59" t="n">
-        <v>49000</v>
+        <v>22000</v>
       </c>
       <c r="M59" t="n">
-        <v>48000</v>
+        <v>21000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1920</v>
+        <v>840</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K60" t="n">
-        <v>12000</v>
+        <v>47000</v>
       </c>
       <c r="L60" t="n">
-        <v>14000</v>
+        <v>49000</v>
       </c>
       <c r="M60" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>520</v>
+        <v>1920</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K61" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M61" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K62" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L62" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M62" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K63" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L63" t="n">
         <v>16000</v>
       </c>
-      <c r="L63" t="n">
-        <v>18000</v>
-      </c>
       <c r="M63" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4968,13 +4968,13 @@
         <v>700</v>
       </c>
       <c r="K64" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L64" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M64" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>920</v>
+        <v>680</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K65" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L65" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M65" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L66" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M66" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1060</v>
+        <v>1180</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K67" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L67" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M67" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K68" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L68" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M68" t="n">
-        <v>17000</v>
+        <v>30500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>680</v>
+        <v>1220</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5328,13 +5328,13 @@
         <v>600</v>
       </c>
       <c r="K69" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L69" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M69" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K70" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L70" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M70" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5472,13 +5472,13 @@
         <v>700</v>
       </c>
       <c r="K71" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L71" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M71" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L72" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M72" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K73" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L73" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M73" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K74" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L74" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M74" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K75" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L75" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M75" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,29 +5829,29 @@
         </is>
       </c>
       <c r="J76" t="n">
+        <v>500</v>
+      </c>
+      <c r="K76" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M76" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>1000</v>
-      </c>
-      <c r="K76" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L76" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M76" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>1160</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K77" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L77" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M77" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5976,13 +5976,13 @@
         <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L78" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M78" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1100</v>
+        <v>1360</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K79" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L79" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M79" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K80" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L80" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M80" t="n">
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1020</v>
+        <v>1360</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K81" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L81" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M81" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44377</v>
+        <v>44202</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L82" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M82" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K83" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L83" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M83" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K84" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L84" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M84" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L85" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M85" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1760</v>
+        <v>1080</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L86" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M86" t="n">
-        <v>25500</v>
+        <v>44000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1020</v>
+        <v>1760</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K87" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L87" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M87" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L88" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M88" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L89" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M89" t="n">
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>840</v>
+        <v>1220</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L90" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M90" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L91" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M91" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K92" t="n">
         <v>24000</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K93" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L93" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M93" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L94" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M94" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K95" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L95" t="n">
         <v>25000</v>
       </c>
-      <c r="L95" t="n">
-        <v>27000</v>
-      </c>
       <c r="M95" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K96" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L96" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M96" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>840</v>
+        <v>1040</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K97" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L97" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M97" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K98" t="n">
         <v>23000</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K99" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L99" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M99" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7548,43 +7548,115 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K100" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M100" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>25</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
         <v>600</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K101" t="n">
         <v>25000</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L101" t="n">
         <v>28000</v>
       </c>
-      <c r="M100" t="n">
+      <c r="M101" t="n">
         <v>26500</v>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
         <v>1060</v>
       </c>
-      <c r="Q100" t="n">
-        <v>25</v>
-      </c>
-      <c r="R100" t="inlineStr">
+      <c r="Q101" t="n">
+        <v>25</v>
+      </c>
+      <c r="R101" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K38" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L38" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M38" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L39" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M39" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L40" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L41" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M41" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L42" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M42" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K43" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L43" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M43" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,13 +3528,13 @@
         <v>700</v>
       </c>
       <c r="K44" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L44" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M44" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K45" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M45" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>600</v>
       </c>
       <c r="K46" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L46" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K47" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L47" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M47" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>940</v>
+        <v>700</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L48" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M48" t="n">
-        <v>25500</v>
+        <v>23500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K49" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M49" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K50" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="L50" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M50" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>880</v>
+        <v>1280</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L51" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M51" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1360</v>
+        <v>880</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K52" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L52" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M52" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K53" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L53" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M53" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K54" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L54" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M54" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K55" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L55" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M55" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K56" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M56" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44273</v>
+        <v>44356</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K57" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L57" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4536,13 +4536,13 @@
         <v>300</v>
       </c>
       <c r="K58" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L58" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44203</v>
+        <v>44273</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K59" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L59" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M59" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K60" t="n">
-        <v>47000</v>
+        <v>20000</v>
       </c>
       <c r="L60" t="n">
-        <v>49000</v>
+        <v>22000</v>
       </c>
       <c r="M60" t="n">
-        <v>48000</v>
+        <v>21000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1920</v>
+        <v>840</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>47000</v>
       </c>
       <c r="L61" t="n">
-        <v>14000</v>
+        <v>49000</v>
       </c>
       <c r="M61" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>520</v>
+        <v>1920</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K62" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L62" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M62" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K63" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L63" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M63" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K64" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L64" t="n">
         <v>16000</v>
       </c>
-      <c r="L64" t="n">
-        <v>18000</v>
-      </c>
       <c r="M64" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5040,13 +5040,13 @@
         <v>700</v>
       </c>
       <c r="K65" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L65" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M65" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>920</v>
+        <v>680</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K66" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L66" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M66" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K67" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L67" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M67" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1060</v>
+        <v>1180</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K68" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L68" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M68" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K69" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L69" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M69" t="n">
-        <v>17000</v>
+        <v>30500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>680</v>
+        <v>1220</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5400,13 +5400,13 @@
         <v>600</v>
       </c>
       <c r="K70" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L70" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M70" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L71" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M71" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5544,13 +5544,13 @@
         <v>700</v>
       </c>
       <c r="K72" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L72" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M72" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K73" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L73" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M73" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K74" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L74" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M74" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K75" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L75" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L76" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M76" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,29 +5901,29 @@
         </is>
       </c>
       <c r="J77" t="n">
+        <v>500</v>
+      </c>
+      <c r="K77" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M77" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
         <v>1000</v>
-      </c>
-      <c r="K77" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L77" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M77" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>1160</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K78" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L78" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M78" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6048,13 +6048,13 @@
         <v>400</v>
       </c>
       <c r="K79" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L79" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M79" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1100</v>
+        <v>1360</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K80" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L80" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M80" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K81" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L81" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M81" t="n">
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1020</v>
+        <v>1360</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K82" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M82" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44377</v>
+        <v>44202</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L83" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M83" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K84" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L84" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M84" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K85" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L85" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M85" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L86" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M86" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1760</v>
+        <v>1080</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K87" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L87" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M87" t="n">
-        <v>25500</v>
+        <v>44000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1020</v>
+        <v>1760</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K88" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L88" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M88" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K89" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L89" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M89" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K90" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L90" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M90" t="n">
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>840</v>
+        <v>1220</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K91" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L91" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M91" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L92" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M92" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K93" t="n">
         <v>24000</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K94" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L94" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M94" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K95" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L95" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M95" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K96" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L96" t="n">
         <v>25000</v>
       </c>
-      <c r="L96" t="n">
-        <v>27000</v>
-      </c>
       <c r="M96" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K97" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L97" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M97" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>840</v>
+        <v>1040</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K98" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L98" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M98" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K99" t="n">
         <v>23000</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K100" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L100" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M100" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7620,43 +7620,115 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K101" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M101" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>25</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
         <v>600</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K102" t="n">
         <v>25000</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L102" t="n">
         <v>28000</v>
       </c>
-      <c r="M101" t="n">
+      <c r="M102" t="n">
         <v>26500</v>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
         <v>1060</v>
       </c>
-      <c r="Q101" t="n">
-        <v>25</v>
-      </c>
-      <c r="R101" t="inlineStr">
+      <c r="Q102" t="n">
+        <v>25</v>
+      </c>
+      <c r="R102" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K67" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L67" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M67" t="n">
-        <v>29500</v>
+        <v>44000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1180</v>
+        <v>1760</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K68" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L68" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M68" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1060</v>
+        <v>1180</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K69" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L69" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M69" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K70" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L70" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M70" t="n">
-        <v>17000</v>
+        <v>30500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>680</v>
+        <v>1220</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5472,13 +5472,13 @@
         <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L71" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M71" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K72" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L72" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M72" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5616,13 +5616,13 @@
         <v>700</v>
       </c>
       <c r="K73" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L73" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M73" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K74" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L74" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M74" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K75" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L75" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M75" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K76" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L76" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M76" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L77" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M77" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,29 +5973,29 @@
         </is>
       </c>
       <c r="J78" t="n">
+        <v>500</v>
+      </c>
+      <c r="K78" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M78" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
         <v>1000</v>
-      </c>
-      <c r="K78" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L78" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M78" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>1160</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K79" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L79" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M79" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6120,13 +6120,13 @@
         <v>400</v>
       </c>
       <c r="K80" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L80" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M80" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1100</v>
+        <v>1360</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K81" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L81" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M81" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K82" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L82" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M82" t="n">
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1020</v>
+        <v>1360</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K83" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L83" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M83" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44377</v>
+        <v>44202</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K84" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L84" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M84" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K85" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L85" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M85" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K86" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L86" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M86" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K87" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L87" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M87" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1760</v>
+        <v>1080</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K88" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L88" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M88" t="n">
-        <v>25500</v>
+        <v>44000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1020</v>
+        <v>1760</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K89" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L89" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M89" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L90" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M90" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K91" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L91" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M91" t="n">
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>840</v>
+        <v>1220</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K92" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L92" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M92" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L93" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M93" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
         <v>24000</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K95" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L95" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M95" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L96" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M96" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K97" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L97" t="n">
         <v>25000</v>
       </c>
-      <c r="L97" t="n">
-        <v>27000</v>
-      </c>
       <c r="M97" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K98" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L98" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M98" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>840</v>
+        <v>1040</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K99" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L99" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M99" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K100" t="n">
         <v>23000</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K101" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L101" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M101" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7692,43 +7692,115 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K102" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L102" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M102" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>25</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
         <v>600</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K103" t="n">
         <v>25000</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L103" t="n">
         <v>28000</v>
       </c>
-      <c r="M102" t="n">
+      <c r="M103" t="n">
         <v>26500</v>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
         <v>1060</v>
       </c>
-      <c r="Q102" t="n">
-        <v>25</v>
-      </c>
-      <c r="R102" t="inlineStr">
+      <c r="Q103" t="n">
+        <v>25</v>
+      </c>
+      <c r="R103" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="M14" t="n">
-        <v>19000</v>
+        <v>41500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>760</v>
+        <v>1660</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K15" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44160</v>
+        <v>44237</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K18" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>860</v>
+        <v>580</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K19" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L19" t="n">
         <v>22000</v>
       </c>
       <c r="M19" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>1000</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M20" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K21" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44272</v>
+        <v>44238</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M22" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>740</v>
+        <v>920</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2016,13 +2016,13 @@
         <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L24" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M24" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>740</v>
+        <v>920</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L25" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M25" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M26" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>500</v>
+        <v>820</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3100</v>
+        <v>1800</v>
       </c>
       <c r="K27" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44245</v>
+        <v>44188</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K29" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L29" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>840</v>
+        <v>560</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M30" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K31" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L31" t="n">
         <v>20000</v>
       </c>
-      <c r="L31" t="n">
-        <v>22000</v>
-      </c>
       <c r="M31" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,13 +2664,13 @@
         <v>1600</v>
       </c>
       <c r="K32" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M32" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44244</v>
+        <v>44216</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K35" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L35" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44336</v>
+        <v>44482</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M36" t="n">
-        <v>24500</v>
+        <v>44000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>980</v>
+        <v>1760</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K37" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L37" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,17 +3096,17 @@
         <v>700</v>
       </c>
       <c r="K38" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="L38" t="n">
-        <v>45000</v>
+        <v>31000</v>
       </c>
       <c r="M38" t="n">
-        <v>44000</v>
+        <v>30500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1760</v>
+        <v>1220</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K39" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L39" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K40" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M40" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L41" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L42" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M42" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M43" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K44" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L44" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M44" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3600,13 +3600,13 @@
         <v>700</v>
       </c>
       <c r="K45" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L45" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M45" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K46" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M46" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>600</v>
       </c>
       <c r="K47" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K48" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L48" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M48" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>940</v>
+        <v>700</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L49" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M49" t="n">
-        <v>25500</v>
+        <v>23500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K50" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L50" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M50" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="L51" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M51" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>880</v>
+        <v>1280</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K52" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L52" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M52" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1360</v>
+        <v>880</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K53" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L53" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M53" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K54" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L54" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M54" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K55" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L55" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M55" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K56" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L56" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K57" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L57" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M57" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44273</v>
+        <v>44356</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K58" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L58" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4608,13 +4608,13 @@
         <v>300</v>
       </c>
       <c r="K59" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L59" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M59" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44203</v>
+        <v>44273</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L60" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M60" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K61" t="n">
-        <v>47000</v>
+        <v>20000</v>
       </c>
       <c r="L61" t="n">
-        <v>49000</v>
+        <v>22000</v>
       </c>
       <c r="M61" t="n">
-        <v>48000</v>
+        <v>21000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1920</v>
+        <v>840</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K62" t="n">
-        <v>12000</v>
+        <v>47000</v>
       </c>
       <c r="L62" t="n">
-        <v>14000</v>
+        <v>49000</v>
       </c>
       <c r="M62" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>520</v>
+        <v>1920</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K63" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L63" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M63" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K64" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L64" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M64" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K65" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L65" t="n">
         <v>16000</v>
       </c>
-      <c r="L65" t="n">
-        <v>18000</v>
-      </c>
       <c r="M65" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5112,13 +5112,13 @@
         <v>700</v>
       </c>
       <c r="K66" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L66" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M66" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>920</v>
+        <v>680</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K67" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="L67" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M67" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1760</v>
+        <v>920</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K68" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L68" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M68" t="n">
-        <v>29500</v>
+        <v>44000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1180</v>
+        <v>1760</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L69" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M69" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1060</v>
+        <v>1180</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K70" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L70" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M70" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K71" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L71" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M71" t="n">
-        <v>17000</v>
+        <v>30500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>680</v>
+        <v>1220</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5544,13 +5544,13 @@
         <v>600</v>
       </c>
       <c r="K72" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L72" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M72" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L73" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M73" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5688,13 +5688,13 @@
         <v>700</v>
       </c>
       <c r="K74" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L74" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M74" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L75" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K76" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L76" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M76" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K77" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L77" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M77" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K78" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L78" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M78" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,29 +6045,29 @@
         </is>
       </c>
       <c r="J79" t="n">
+        <v>500</v>
+      </c>
+      <c r="K79" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M79" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
         <v>1000</v>
-      </c>
-      <c r="K79" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L79" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M79" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>1160</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K80" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L80" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M80" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6192,13 +6192,13 @@
         <v>400</v>
       </c>
       <c r="K81" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L81" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M81" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1100</v>
+        <v>1360</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K82" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L82" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M82" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K83" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L83" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M83" t="n">
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1020</v>
+        <v>1360</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K84" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L84" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M84" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44377</v>
+        <v>44202</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K85" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L85" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M85" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L86" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M86" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K87" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L87" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M87" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K88" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L88" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M88" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1760</v>
+        <v>1080</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L89" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M89" t="n">
-        <v>25500</v>
+        <v>44000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1020</v>
+        <v>1760</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K90" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L90" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M90" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K91" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L91" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M91" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K92" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L92" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M92" t="n">
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>840</v>
+        <v>1220</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K93" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L93" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M93" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K94" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L94" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M94" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
         <v>24000</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K96" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L96" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M96" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L97" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M97" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L98" t="n">
         <v>25000</v>
       </c>
-      <c r="L98" t="n">
-        <v>27000</v>
-      </c>
       <c r="M98" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K99" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L99" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M99" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>840</v>
+        <v>1040</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K100" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L100" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M100" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
         <v>23000</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K102" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L102" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M102" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7764,43 +7764,115 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K103" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L103" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M103" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>25</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
         <v>600</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K104" t="n">
         <v>25000</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L104" t="n">
         <v>28000</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M104" t="n">
         <v>26500</v>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
         <v>1060</v>
       </c>
-      <c r="Q103" t="n">
-        <v>25</v>
-      </c>
-      <c r="R103" t="inlineStr">
+      <c r="Q104" t="n">
+        <v>25</v>
+      </c>
+      <c r="R104" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44272</v>
+        <v>44497</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M23" t="n">
-        <v>18500</v>
+        <v>37500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>740</v>
+        <v>1500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,13 +2088,13 @@
         <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K25" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L25" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M25" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>740</v>
+        <v>920</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M26" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M27" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>820</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>3100</v>
+        <v>1800</v>
       </c>
       <c r="K28" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44245</v>
+        <v>44188</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K30" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>840</v>
+        <v>560</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M31" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K32" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L32" t="n">
         <v>20000</v>
       </c>
-      <c r="L32" t="n">
-        <v>22000</v>
-      </c>
       <c r="M32" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,13 +2736,13 @@
         <v>1600</v>
       </c>
       <c r="K33" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M33" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44244</v>
+        <v>44216</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M34" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K35" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K36" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L36" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44336</v>
+        <v>44482</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M37" t="n">
-        <v>24500</v>
+        <v>44000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>980</v>
+        <v>1760</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K38" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L38" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,17 +3168,17 @@
         <v>700</v>
       </c>
       <c r="K39" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="L39" t="n">
-        <v>45000</v>
+        <v>31000</v>
       </c>
       <c r="M39" t="n">
-        <v>44000</v>
+        <v>30500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1760</v>
+        <v>1220</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K40" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L40" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M40" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L41" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M41" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L42" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M42" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L43" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M43" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L44" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M44" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K45" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L45" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M45" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3672,13 +3672,13 @@
         <v>700</v>
       </c>
       <c r="K46" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L46" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M46" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K47" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L47" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M47" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3816,13 +3816,13 @@
         <v>600</v>
       </c>
       <c r="K48" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L48" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K49" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L49" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M49" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>940</v>
+        <v>700</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K50" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L50" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M50" t="n">
-        <v>25500</v>
+        <v>23500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K51" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L51" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M51" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="L52" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M52" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>880</v>
+        <v>1280</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K53" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L53" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M53" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1360</v>
+        <v>880</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L54" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M54" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K55" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L55" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M55" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L56" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M56" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L57" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M57" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K58" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M58" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44273</v>
+        <v>44356</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L59" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M59" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4680,13 +4680,13 @@
         <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L60" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M60" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44203</v>
+        <v>44273</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K61" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L61" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M61" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K62" t="n">
-        <v>47000</v>
+        <v>20000</v>
       </c>
       <c r="L62" t="n">
-        <v>49000</v>
+        <v>22000</v>
       </c>
       <c r="M62" t="n">
-        <v>48000</v>
+        <v>21000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1920</v>
+        <v>840</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K63" t="n">
-        <v>12000</v>
+        <v>47000</v>
       </c>
       <c r="L63" t="n">
-        <v>14000</v>
+        <v>49000</v>
       </c>
       <c r="M63" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>520</v>
+        <v>1920</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K64" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L64" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M64" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K65" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L65" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M65" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K66" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L66" t="n">
         <v>16000</v>
       </c>
-      <c r="L66" t="n">
-        <v>18000</v>
-      </c>
       <c r="M66" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5184,13 +5184,13 @@
         <v>700</v>
       </c>
       <c r="K67" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L67" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M67" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>920</v>
+        <v>680</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K68" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="L68" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M68" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1760</v>
+        <v>920</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K69" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L69" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M69" t="n">
-        <v>29500</v>
+        <v>44000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1180</v>
+        <v>1760</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K70" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L70" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M70" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1060</v>
+        <v>1180</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K71" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L71" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M71" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K72" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L72" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M72" t="n">
-        <v>17000</v>
+        <v>30500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>680</v>
+        <v>1220</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5616,13 +5616,13 @@
         <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L73" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M73" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L74" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M74" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5760,13 +5760,13 @@
         <v>700</v>
       </c>
       <c r="K75" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L75" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M75" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K76" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L76" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M76" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K77" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L77" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M77" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K78" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L78" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M78" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K79" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L79" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M79" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,29 +6117,29 @@
         </is>
       </c>
       <c r="J80" t="n">
+        <v>500</v>
+      </c>
+      <c r="K80" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L80" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M80" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>1000</v>
-      </c>
-      <c r="K80" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L80" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M80" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>1160</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K81" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L81" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M81" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6264,13 +6264,13 @@
         <v>400</v>
       </c>
       <c r="K82" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L82" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M82" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1100</v>
+        <v>1360</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K83" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L83" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M83" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K84" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L84" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M84" t="n">
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1020</v>
+        <v>1360</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K85" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L85" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M85" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44377</v>
+        <v>44202</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K86" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L86" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M86" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K87" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L87" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M87" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K88" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L88" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M88" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L89" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M89" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1760</v>
+        <v>1080</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L90" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M90" t="n">
-        <v>25500</v>
+        <v>44000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1020</v>
+        <v>1760</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K91" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L91" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M91" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K92" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L92" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M92" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1220</v>
+        <v>980</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K93" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L93" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M93" t="n">
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>840</v>
+        <v>1220</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K94" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L94" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M94" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K95" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L95" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M95" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K96" t="n">
         <v>24000</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K97" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L97" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M97" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K98" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L98" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M98" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K99" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L99" t="n">
         <v>25000</v>
       </c>
-      <c r="L99" t="n">
-        <v>27000</v>
-      </c>
       <c r="M99" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K100" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L100" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M100" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>840</v>
+        <v>1040</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K101" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L101" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M101" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K102" t="n">
         <v>23000</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K103" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L103" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M103" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7836,43 +7836,115 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K104" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L104" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M104" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>25</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
         <v>600</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K105" t="n">
         <v>25000</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L105" t="n">
         <v>28000</v>
       </c>
-      <c r="M104" t="n">
+      <c r="M105" t="n">
         <v>26500</v>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
         <v>1060</v>
       </c>
-      <c r="Q104" t="n">
-        <v>25</v>
-      </c>
-      <c r="R104" t="inlineStr">
+      <c r="Q105" t="n">
+        <v>25</v>
+      </c>
+      <c r="R105" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44329</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L2" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M2" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44329</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K3" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M4" t="n">
-        <v>21000</v>
+        <v>37500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>840</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44349</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L5" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="n">
-        <v>37500</v>
+        <v>29000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>1160</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44259</v>
+        <v>44349</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44259</v>
+        <v>44230</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44181</v>
+        <v>44321</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M9" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K10" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44279</v>
+        <v>44265</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>760</v>
+        <v>880</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44279</v>
+        <v>44258</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44490</v>
+        <v>44203</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L14" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="M14" t="n">
-        <v>41500</v>
+        <v>21000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1660</v>
+        <v>840</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44237</v>
+        <v>44363</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>760</v>
+        <v>980</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44237</v>
+        <v>44363</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K16" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L16" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M16" t="n">
-        <v>23000</v>
+        <v>30500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>920</v>
+        <v>1220</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,17 +1581,17 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
         <v>16000</v>
       </c>
       <c r="L17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M17" t="n">
         <v>17000</v>
       </c>
-      <c r="M17" t="n">
-        <v>16500</v>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44231</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>22500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>900</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44391</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L19" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M19" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>860</v>
+        <v>1180</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44252</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>840</v>
+        <v>700</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44238</v>
+        <v>44252</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M21" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K22" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L22" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44497</v>
+        <v>44237</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K23" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L23" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="M23" t="n">
-        <v>37500</v>
+        <v>23000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1500</v>
+        <v>920</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44272</v>
+        <v>44223</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M24" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44272</v>
+        <v>44223</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,17 +2157,17 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K25" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M25" t="n">
         <v>24000</v>
       </c>
-      <c r="M25" t="n">
-        <v>23000</v>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K26" t="n">
         <v>18000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2304,13 +2304,13 @@
         <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L27" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M27" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44175</v>
+        <v>44322</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M28" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>500</v>
+        <v>920</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44188</v>
+        <v>44322</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M29" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44245</v>
+        <v>44489</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>43000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="M30" t="n">
-        <v>14000</v>
+        <v>44000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>560</v>
+        <v>1760</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44245</v>
+        <v>44300</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L31" t="n">
         <v>20000</v>
       </c>
-      <c r="L31" t="n">
-        <v>22000</v>
-      </c>
       <c r="M31" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44230</v>
+        <v>44300</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M32" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44216</v>
+        <v>44167</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K33" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>840</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44216</v>
+        <v>44167</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L34" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M34" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>960</v>
+        <v>860</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44244</v>
+        <v>44224</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M35" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44244</v>
+        <v>44483</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M36" t="n">
-        <v>19000</v>
+        <v>44000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>760</v>
+        <v>1760</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44482</v>
+        <v>44259</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3024,17 +3024,17 @@
         <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>43000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>44000</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1760</v>
+        <v>700</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44336</v>
+        <v>44259</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K38" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L38" t="n">
         <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44336</v>
+        <v>44251</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K39" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L39" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="M39" t="n">
-        <v>30500</v>
+        <v>18000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1220</v>
+        <v>720</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44483</v>
+        <v>44468</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
         <v>43000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44308</v>
+        <v>44245</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K41" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44308</v>
+        <v>44245</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K42" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M42" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44322</v>
+        <v>44210</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L43" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M43" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44322</v>
+        <v>44210</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3528,13 +3528,13 @@
         <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L44" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M44" t="n">
-        <v>26000</v>
+        <v>20500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1040</v>
+        <v>820</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K45" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L45" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M45" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>760</v>
+        <v>620</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44265</v>
+        <v>44336</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K46" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L46" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44224</v>
+        <v>44336</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3744,13 +3744,13 @@
         <v>700</v>
       </c>
       <c r="K47" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="L47" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M47" t="n">
-        <v>20000</v>
+        <v>30500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44315</v>
+        <v>44266</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K48" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M48" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44293</v>
+        <v>44266</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K49" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L49" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M49" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44293</v>
+        <v>44238</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K50" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L50" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M50" t="n">
-        <v>23500</v>
+        <v>19000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>940</v>
+        <v>760</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44343</v>
+        <v>44238</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L51" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M51" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44343</v>
+        <v>44202</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K52" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="L52" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="M52" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44195</v>
+        <v>44377</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K53" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L53" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M53" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44195</v>
+        <v>44335</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K54" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L54" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M54" t="n">
-        <v>34000</v>
+        <v>26500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1360</v>
+        <v>1060</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44209</v>
+        <v>44335</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L55" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="M55" t="n">
-        <v>18500</v>
+        <v>30500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>740</v>
+        <v>1220</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44209</v>
+        <v>44188</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="K56" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L56" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>21500</v>
+        <v>19000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>860</v>
+        <v>760</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44294</v>
+        <v>44160</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K57" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L57" t="n">
         <v>17000</v>
       </c>
-      <c r="L57" t="n">
-        <v>18000</v>
-      </c>
       <c r="M57" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44294</v>
+        <v>44216</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K58" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L58" t="n">
         <v>22000</v>
       </c>
-      <c r="L58" t="n">
-        <v>24000</v>
-      </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44356</v>
+        <v>44216</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K59" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L59" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M59" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44273</v>
+        <v>44189</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K60" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L60" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M60" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44273</v>
+        <v>44189</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K61" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L61" t="n">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="M61" t="n">
-        <v>23000</v>
+        <v>37500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>920</v>
+        <v>1500</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44203</v>
+        <v>44314</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K62" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L62" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M62" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44469</v>
+        <v>44350</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4896,17 +4896,17 @@
         <v>400</v>
       </c>
       <c r="K63" t="n">
-        <v>47000</v>
+        <v>27000</v>
       </c>
       <c r="L63" t="n">
-        <v>49000</v>
+        <v>28000</v>
       </c>
       <c r="M63" t="n">
-        <v>48000</v>
+        <v>27500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1920</v>
+        <v>1100</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44168</v>
+        <v>44350</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2400</v>
+        <v>340</v>
       </c>
       <c r="K64" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L64" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M64" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>520</v>
+        <v>1360</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44168</v>
+        <v>44272</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K65" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L65" t="n">
         <v>20000</v>
       </c>
-      <c r="L65" t="n">
-        <v>21000</v>
-      </c>
       <c r="M65" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44161</v>
+        <v>44272</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L66" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M66" t="n">
-        <v>15500</v>
+        <v>23000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>620</v>
+        <v>920</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K67" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L67" t="n">
         <v>18000</v>
       </c>
       <c r="M67" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
         <v>22000</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44489</v>
+        <v>44385</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K69" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="L69" t="n">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="M69" t="n">
-        <v>44000</v>
+        <v>25500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1760</v>
+        <v>1020</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44391</v>
+        <v>44308</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K70" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L70" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M70" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44335</v>
+        <v>44308</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,17 +5469,17 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
         <v>26000</v>
       </c>
       <c r="L71" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M71" t="n">
         <v>27000</v>
       </c>
-      <c r="M71" t="n">
-        <v>26500</v>
-      </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44335</v>
+        <v>44315</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K72" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L72" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M72" t="n">
-        <v>30500</v>
+        <v>24000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1220</v>
+        <v>960</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44231</v>
+        <v>44490</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K73" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L73" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="M73" t="n">
-        <v>17000</v>
+        <v>41500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>680</v>
+        <v>1660</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44231</v>
+        <v>44357</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,17 +5685,17 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K74" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L74" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M74" t="n">
         <v>25000</v>
       </c>
-      <c r="M74" t="n">
-        <v>22500</v>
-      </c>
       <c r="N74" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44258</v>
+        <v>44329</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K75" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L75" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M75" t="n">
-        <v>17500</v>
+        <v>27000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>700</v>
+        <v>1080</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44258</v>
+        <v>44329</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K76" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L76" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M76" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44252</v>
+        <v>44279</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5904,13 +5904,13 @@
         <v>1100</v>
       </c>
       <c r="K77" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L77" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M77" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44252</v>
+        <v>44279</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,17 +5973,17 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1600</v>
+        <v>240</v>
       </c>
       <c r="K78" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L78" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M78" t="n">
         <v>25000</v>
       </c>
-      <c r="M78" t="n">
-        <v>24000</v>
-      </c>
       <c r="N78" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44300</v>
+        <v>44280</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K79" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L79" t="n">
         <v>18000</v>
       </c>
-      <c r="L79" t="n">
-        <v>20000</v>
-      </c>
       <c r="M79" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44300</v>
+        <v>44280</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K80" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L80" t="n">
         <v>24000</v>
       </c>
-      <c r="L80" t="n">
-        <v>26000</v>
-      </c>
       <c r="M80" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44349</v>
+        <v>44482</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K81" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="L81" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M81" t="n">
-        <v>29000</v>
+        <v>44000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1160</v>
+        <v>1760</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44349</v>
+        <v>44293</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L82" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M82" t="n">
-        <v>34000</v>
+        <v>17500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1360</v>
+        <v>700</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44350</v>
+        <v>44293</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K83" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L83" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M83" t="n">
-        <v>27500</v>
+        <v>23500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1100</v>
+        <v>940</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44350</v>
+        <v>44356</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="K84" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L84" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M84" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K85" t="n">
-        <v>25000</v>
+        <v>47000</v>
       </c>
       <c r="L85" t="n">
-        <v>26000</v>
+        <v>49000</v>
       </c>
       <c r="M85" t="n">
-        <v>25500</v>
+        <v>48000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1020</v>
+        <v>1920</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44202</v>
+        <v>44384</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K86" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L86" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M86" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44377</v>
+        <v>44343</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
         <v>25000</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44307</v>
+        <v>44343</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K88" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="L88" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M88" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>880</v>
+        <v>1280</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44307</v>
+        <v>44168</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="K89" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="L89" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M89" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1080</v>
+        <v>520</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44468</v>
+        <v>44168</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K90" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L90" t="n">
-        <v>45000</v>
+        <v>21000</v>
       </c>
       <c r="M90" t="n">
-        <v>44000</v>
+        <v>20500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1760</v>
+        <v>820</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="K91" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L91" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="M91" t="n">
-        <v>25500</v>
+        <v>12500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1020</v>
+        <v>500</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44363</v>
+        <v>44286</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K92" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L92" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M92" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44363</v>
+        <v>44286</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L93" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M93" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K94" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L94" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M94" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K95" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L95" t="n">
         <v>26000</v>
       </c>
-      <c r="L95" t="n">
-        <v>28000</v>
-      </c>
       <c r="M95" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44357</v>
+        <v>44328</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L96" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="M96" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K97" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L97" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M97" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K98" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L98" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M98" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44321</v>
+        <v>44217</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7488,13 +7488,13 @@
         <v>1000</v>
       </c>
       <c r="K99" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L99" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M99" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44321</v>
+        <v>44244</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L100" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1040</v>
+        <v>560</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K101" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L101" t="n">
         <v>20000</v>
       </c>
-      <c r="L101" t="n">
-        <v>22000</v>
-      </c>
       <c r="M101" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44223</v>
+        <v>44307</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K102" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L102" t="n">
         <v>23000</v>
       </c>
-      <c r="L102" t="n">
-        <v>25000</v>
-      </c>
       <c r="M102" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44314</v>
+        <v>44307</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L103" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M103" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K104" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L104" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M104" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L105" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M105" t="n">
-        <v>26500</v>
+        <v>23000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1060</v>
+        <v>920</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44230</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M7" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>760</v>
+        <v>1320</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44321</v>
+        <v>44503</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="L8" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M8" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>960</v>
+        <v>1240</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44321</v>
+        <v>44503</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L9" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="M9" t="n">
-        <v>26000</v>
+        <v>41000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1040</v>
+        <v>1640</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44265</v>
+        <v>44321</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K11" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>880</v>
+        <v>960</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44258</v>
+        <v>44321</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>26000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44258</v>
+        <v>44265</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44203</v>
+        <v>44265</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,17 +1365,17 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K14" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L14" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M14" t="n">
         <v>22000</v>
       </c>
-      <c r="M14" t="n">
-        <v>21000</v>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44363</v>
+        <v>44258</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>980</v>
+        <v>700</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44363</v>
+        <v>44258</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>700</v>
       </c>
       <c r="K16" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>30500</v>
+        <v>24000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1220</v>
+        <v>960</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44231</v>
+        <v>44363</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K18" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
         <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44391</v>
+        <v>44363</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K19" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L19" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M19" t="n">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1180</v>
+        <v>1220</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44252</v>
+        <v>44231</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L20" t="n">
         <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44252</v>
+        <v>44231</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L21" t="n">
         <v>25000</v>
       </c>
       <c r="M21" t="n">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44237</v>
+        <v>44391</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M22" t="n">
-        <v>19000</v>
+        <v>29500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>760</v>
+        <v>1180</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44237</v>
+        <v>44252</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K23" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44223</v>
+        <v>44252</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K24" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M24" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44223</v>
+        <v>44237</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K25" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L25" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44209</v>
+        <v>44237</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L26" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M26" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>740</v>
+        <v>920</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44209</v>
+        <v>44223</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K27" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L27" t="n">
         <v>22000</v>
       </c>
       <c r="M27" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44322</v>
+        <v>44223</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,14 +2376,14 @@
         <v>1100</v>
       </c>
       <c r="K28" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M28" t="n">
         <v>24000</v>
       </c>
-      <c r="M28" t="n">
-        <v>23000</v>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44322</v>
+        <v>44209</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K29" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L29" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="M29" t="n">
-        <v>26000</v>
+        <v>18500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1040</v>
+        <v>740</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44489</v>
+        <v>44209</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>43000</v>
+        <v>21000</v>
       </c>
       <c r="L30" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="M30" t="n">
-        <v>44000</v>
+        <v>21500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1760</v>
+        <v>860</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K31" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M31" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,17 +2661,17 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M32" t="n">
         <v>26000</v>
       </c>
-      <c r="M32" t="n">
-        <v>25000</v>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44167</v>
+        <v>44489</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>44000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>580</v>
+        <v>1760</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44167</v>
+        <v>44300</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>21500</v>
+        <v>19000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>860</v>
+        <v>760</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44224</v>
+        <v>44300</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L35" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M35" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44483</v>
+        <v>44167</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K36" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>44000</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1760</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44259</v>
+        <v>44167</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44259</v>
+        <v>44224</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,13 +3096,13 @@
         <v>700</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M38" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44251</v>
+        <v>44483</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K39" t="n">
-        <v>17000</v>
+        <v>43000</v>
       </c>
       <c r="L39" t="n">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="M39" t="n">
-        <v>18000</v>
+        <v>44000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>720</v>
+        <v>1760</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44468</v>
+        <v>44259</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K40" t="n">
-        <v>43000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>44000</v>
+        <v>17500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1760</v>
+        <v>700</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44245</v>
+        <v>44259</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,13 +3312,13 @@
         <v>700</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K42" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L42" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M42" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44210</v>
+        <v>44468</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L43" t="n">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="M43" t="n">
-        <v>18500</v>
+        <v>44000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>740</v>
+        <v>1760</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44210</v>
+        <v>44245</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K44" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L44" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>20500</v>
+        <v>14000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>820</v>
+        <v>560</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44161</v>
+        <v>44245</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K45" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L45" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M45" t="n">
-        <v>15500</v>
+        <v>21000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>620</v>
+        <v>840</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44336</v>
+        <v>44210</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M46" t="n">
-        <v>24500</v>
+        <v>18500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>980</v>
+        <v>740</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44336</v>
+        <v>44210</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L47" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M47" t="n">
-        <v>30500</v>
+        <v>20500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1220</v>
+        <v>820</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44266</v>
+        <v>44161</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K48" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L48" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M48" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>760</v>
+        <v>620</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44266</v>
+        <v>44336</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K49" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L49" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44238</v>
+        <v>44336</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K50" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M50" t="n">
-        <v>19000</v>
+        <v>30500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>760</v>
+        <v>1220</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,13 +4032,13 @@
         <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L51" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M51" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K52" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M52" t="n">
         <v>22000</v>
       </c>
-      <c r="L52" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M52" t="n">
-        <v>23000</v>
-      </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44377</v>
+        <v>44238</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K53" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L53" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M53" t="n">
-        <v>25500</v>
+        <v>19000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1020</v>
+        <v>760</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44335</v>
+        <v>44238</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K54" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L54" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M54" t="n">
-        <v>26500</v>
+        <v>23000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1060</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44335</v>
+        <v>44202</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K55" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L55" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M55" t="n">
-        <v>30500</v>
+        <v>23000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1220</v>
+        <v>920</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44188</v>
+        <v>44377</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L56" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M56" t="n">
-        <v>19000</v>
+        <v>25500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>760</v>
+        <v>1020</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K57" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="L57" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M57" t="n">
-        <v>16500</v>
+        <v>26500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>660</v>
+        <v>1060</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44216</v>
+        <v>44335</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K58" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L58" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M58" t="n">
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>840</v>
+        <v>1220</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44216</v>
+        <v>44188</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="K59" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L59" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M59" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44189</v>
+        <v>44160</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K60" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L60" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M60" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>840</v>
+        <v>660</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K61" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L61" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M61" t="n">
-        <v>37500</v>
+        <v>21000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1500</v>
+        <v>840</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44314</v>
+        <v>44216</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K62" t="n">
         <v>23000</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44350</v>
+        <v>44189</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K63" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M63" t="n">
-        <v>27500</v>
+        <v>21000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1100</v>
+        <v>840</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44189</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L64" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M64" t="n">
-        <v>34000</v>
+        <v>37500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44272</v>
+        <v>44314</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K65" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L65" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M65" t="n">
-        <v>18500</v>
+        <v>24000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>740</v>
+        <v>960</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K66" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L66" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M66" t="n">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>920</v>
+        <v>1100</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44294</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K67" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L67" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M67" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44294</v>
+        <v>44272</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K68" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L68" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M68" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L69" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M69" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44308</v>
+        <v>44294</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K70" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L70" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M70" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44308</v>
+        <v>44294</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L71" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M71" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44315</v>
+        <v>44385</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K72" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L72" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M72" t="n">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44490</v>
+        <v>44308</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="L73" t="n">
-        <v>43000</v>
+        <v>24000</v>
       </c>
       <c r="M73" t="n">
-        <v>41500</v>
+        <v>23000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1660</v>
+        <v>920</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K74" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L74" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M74" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44329</v>
+        <v>44315</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K75" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L75" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44329</v>
+        <v>44490</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K76" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="L76" t="n">
-        <v>31000</v>
+        <v>43000</v>
       </c>
       <c r="M76" t="n">
-        <v>30000</v>
+        <v>41500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1200</v>
+        <v>1660</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K77" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L77" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M77" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44279</v>
+        <v>44329</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="K78" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L78" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M78" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44280</v>
+        <v>44329</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K79" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L79" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M79" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K80" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L80" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M80" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44482</v>
+        <v>44279</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K81" t="n">
-        <v>43000</v>
+        <v>24000</v>
       </c>
       <c r="L81" t="n">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="M81" t="n">
-        <v>44000</v>
+        <v>25000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1760</v>
+        <v>1000</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44293</v>
+        <v>44280</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L82" t="n">
         <v>18000</v>
       </c>
       <c r="M82" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44293</v>
+        <v>44280</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L83" t="n">
         <v>24000</v>
       </c>
       <c r="M83" t="n">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44356</v>
+        <v>44482</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K84" t="n">
-        <v>26000</v>
+        <v>43000</v>
       </c>
       <c r="L84" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M84" t="n">
-        <v>27000</v>
+        <v>44000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1080</v>
+        <v>1760</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44469</v>
+        <v>44293</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="L85" t="n">
-        <v>49000</v>
+        <v>18000</v>
       </c>
       <c r="M85" t="n">
-        <v>48000</v>
+        <v>17500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1920</v>
+        <v>700</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44384</v>
+        <v>44293</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K86" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L86" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="M86" t="n">
-        <v>25500</v>
+        <v>23500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44343</v>
+        <v>44356</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K87" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L87" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M87" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44343</v>
+        <v>44469</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K88" t="n">
-        <v>31000</v>
+        <v>47000</v>
       </c>
       <c r="L88" t="n">
-        <v>33000</v>
+        <v>49000</v>
       </c>
       <c r="M88" t="n">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1280</v>
+        <v>1920</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="K89" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L89" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M89" t="n">
-        <v>13000</v>
+        <v>25500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>520</v>
+        <v>1020</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L90" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M90" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>820</v>
+        <v>1020</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="L91" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="M91" t="n">
-        <v>12500</v>
+        <v>32000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>500</v>
+        <v>1280</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="K92" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L92" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M92" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K93" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L93" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M93" t="n">
-        <v>26500</v>
+        <v>20500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1060</v>
+        <v>820</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,29 +7125,29 @@
         </is>
       </c>
       <c r="J94" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K94" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M94" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
         <v>500</v>
-      </c>
-      <c r="K94" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L94" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M94" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>540</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44328</v>
+        <v>44286</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K95" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L95" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M95" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44328</v>
+        <v>44286</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K96" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L96" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M96" t="n">
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1200</v>
+        <v>1060</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K97" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L97" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M97" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K98" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L98" t="n">
         <v>26000</v>
       </c>
-      <c r="L98" t="n">
-        <v>28000</v>
-      </c>
       <c r="M98" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44217</v>
+        <v>44328</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K99" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L99" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M99" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7560,13 +7560,13 @@
         <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L100" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M100" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K101" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L101" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M101" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,17 +7701,17 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K102" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L102" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M102" t="n">
         <v>21000</v>
       </c>
-      <c r="L102" t="n">
-        <v>23000</v>
-      </c>
-      <c r="M102" t="n">
-        <v>22000</v>
-      </c>
       <c r="N102" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L103" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M103" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K104" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L104" t="n">
         <v>20000</v>
       </c>
       <c r="M104" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,58 +7893,274 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>700</v>
+      </c>
+      <c r="K105" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M105" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>880</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>25</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>600</v>
+      </c>
+      <c r="K106" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L106" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M106" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>25</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
         <v>44273</v>
       </c>
-      <c r="E105" t="n">
-        <v>4</v>
-      </c>
-      <c r="F105" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>300</v>
+      </c>
+      <c r="K107" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M107" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>25</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
         <v>300</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K108" t="n">
         <v>22000</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L108" t="n">
         <v>24000</v>
       </c>
-      <c r="M105" t="n">
+      <c r="M108" t="n">
         <v>23000</v>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
         <v>920</v>
       </c>
-      <c r="Q105" t="n">
-        <v>25</v>
-      </c>
-      <c r="R105" t="inlineStr">
+      <c r="Q108" t="n">
+        <v>25</v>
+      </c>
+      <c r="R108" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K89" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L89" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M89" t="n">
-        <v>25500</v>
+        <v>34500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1020</v>
+        <v>1380</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44343</v>
+        <v>44504</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="K90" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L90" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="M90" t="n">
-        <v>25500</v>
+        <v>41000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1020</v>
+        <v>1640</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K91" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L91" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M91" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K92" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L92" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M92" t="n">
-        <v>13000</v>
+        <v>25500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>520</v>
+        <v>1020</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L93" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="M93" t="n">
-        <v>20500</v>
+        <v>32000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>820</v>
+        <v>1280</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,17 +7125,17 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K94" t="n">
         <v>12000</v>
       </c>
       <c r="L94" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M94" t="n">
         <v>13000</v>
       </c>
-      <c r="M94" t="n">
-        <v>12500</v>
-      </c>
       <c r="N94" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K95" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L95" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M95" t="n">
-        <v>17000</v>
+        <v>20500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K96" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L96" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M96" t="n">
-        <v>26500</v>
+        <v>12500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1060</v>
+        <v>500</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K97" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L97" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M97" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>540</v>
+        <v>680</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44328</v>
+        <v>44286</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K98" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L98" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M98" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K99" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="L99" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="M99" t="n">
-        <v>30000</v>
+        <v>13500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,29 +7557,29 @@
         </is>
       </c>
       <c r="J100" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K100" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M100" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>1000</v>
-      </c>
-      <c r="K100" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L100" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M100" t="n">
-        <v>21000</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>840</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L101" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M101" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L103" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M103" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K104" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L104" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M104" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K105" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L105" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M105" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>880</v>
+        <v>560</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K106" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L106" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M106" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1080</v>
+        <v>760</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K107" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L107" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M107" t="n">
-        <v>18500</v>
+        <v>22000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,58 +8109,202 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>600</v>
+      </c>
+      <c r="K108" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L108" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M108" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>25</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
         <v>44273</v>
       </c>
-      <c r="E108" t="n">
-        <v>4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>300</v>
+      </c>
+      <c r="K109" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L109" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M109" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>25</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J108" t="n">
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
         <v>300</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K110" t="n">
         <v>22000</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L110" t="n">
         <v>24000</v>
       </c>
-      <c r="M108" t="n">
+      <c r="M110" t="n">
         <v>23000</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
         <v>920</v>
       </c>
-      <c r="Q108" t="n">
-        <v>25</v>
-      </c>
-      <c r="R108" t="inlineStr">
+      <c r="Q110" t="n">
+        <v>25</v>
+      </c>
+      <c r="R110" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5976,13 +5976,13 @@
         <v>1100</v>
       </c>
       <c r="K78" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L78" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M78" t="n">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L79" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M79" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44279</v>
+        <v>44329</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L80" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M80" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>760</v>
+        <v>1200</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="K81" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L81" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M81" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K82" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L82" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M82" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6336,13 +6336,13 @@
         <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L83" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M83" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>920</v>
+        <v>680</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44482</v>
+        <v>44280</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K84" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="L84" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M84" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1760</v>
+        <v>920</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6480,17 +6480,17 @@
         <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>17000</v>
+        <v>43000</v>
       </c>
       <c r="L85" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M85" t="n">
-        <v>17500</v>
+        <v>44000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>700</v>
+        <v>1760</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L86" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M86" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>940</v>
+        <v>700</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6624,13 +6624,13 @@
         <v>1100</v>
       </c>
       <c r="K87" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L87" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M87" t="n">
-        <v>27000</v>
+        <v>23500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1080</v>
+        <v>940</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K88" t="n">
-        <v>47000</v>
+        <v>26000</v>
       </c>
       <c r="L88" t="n">
-        <v>49000</v>
+        <v>28000</v>
       </c>
       <c r="M88" t="n">
-        <v>48000</v>
+        <v>27000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1920</v>
+        <v>1080</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
-        <v>34000</v>
+        <v>47000</v>
       </c>
       <c r="L89" t="n">
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="M89" t="n">
-        <v>34500</v>
+        <v>48000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1380</v>
+        <v>1920</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L90" t="n">
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="M90" t="n">
-        <v>41000</v>
+        <v>34500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1640</v>
+        <v>1380</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K91" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L91" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="M91" t="n">
-        <v>25500</v>
+        <v>41000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1020</v>
+        <v>1640</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K92" t="n">
         <v>25000</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K93" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L93" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M93" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="K94" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="L94" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M94" t="n">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>520</v>
+        <v>1280</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K95" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L95" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M95" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K96" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L96" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M96" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>500</v>
+        <v>820</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K97" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L97" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M97" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K98" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L98" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M98" t="n">
-        <v>26500</v>
+        <v>17000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1060</v>
+        <v>680</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K99" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L99" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M99" t="n">
-        <v>13500</v>
+        <v>26500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>540</v>
+        <v>1060</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K100" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L100" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="M100" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L101" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M101" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K102" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L102" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M102" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L103" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M103" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K104" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L104" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M104" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7920,13 +7920,13 @@
         <v>1000</v>
       </c>
       <c r="K105" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L105" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M105" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K106" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L106" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M106" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K107" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L107" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M107" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K108" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L108" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M108" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L109" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M109" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8280,31 +8280,103 @@
         <v>300</v>
       </c>
       <c r="K110" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L110" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M110" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>25</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>300</v>
+      </c>
+      <c r="K111" t="n">
         <v>22000</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L111" t="n">
         <v>24000</v>
       </c>
-      <c r="M110" t="n">
+      <c r="M111" t="n">
         <v>23000</v>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
         <v>920</v>
       </c>
-      <c r="Q110" t="n">
-        <v>25</v>
-      </c>
-      <c r="R110" t="inlineStr">
+      <c r="Q111" t="n">
+        <v>25</v>
+      </c>
+      <c r="R111" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L2" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>880</v>
+        <v>680</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="n">
-        <v>34000</v>
+        <v>22500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1360</v>
+        <v>900</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44497</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>37500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44349</v>
+        <v>44294</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L5" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M5" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44349</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L6" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1360</v>
+        <v>840</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44503</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K7" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1320</v>
+        <v>960</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="L8" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M8" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1240</v>
+        <v>1320</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="L9" t="n">
-        <v>42000</v>
+        <v>31000</v>
       </c>
       <c r="M9" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1640</v>
+        <v>1240</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44230</v>
+        <v>44503</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M10" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>760</v>
+        <v>1640</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44321</v>
+        <v>44490</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M11" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44321</v>
+        <v>44258</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>26000</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1040</v>
+        <v>700</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44265</v>
+        <v>44258</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44265</v>
+        <v>44343</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K14" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L14" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M14" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44258</v>
+        <v>44343</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>32000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>700</v>
+        <v>1280</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44258</v>
+        <v>44160</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>24000</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>960</v>
+        <v>660</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44203</v>
+        <v>44385</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L17" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M17" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44363</v>
+        <v>44280</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K18" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44363</v>
+        <v>44280</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>700</v>
       </c>
       <c r="K19" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L19" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M19" t="n">
-        <v>30500</v>
+        <v>23000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1220</v>
+        <v>920</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44231</v>
+        <v>44377</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M20" t="n">
-        <v>17000</v>
+        <v>25500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>680</v>
+        <v>1020</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44231</v>
+        <v>44188</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>3100</v>
       </c>
       <c r="K21" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L21" t="n">
         <v>20000</v>
       </c>
-      <c r="L21" t="n">
-        <v>25000</v>
-      </c>
       <c r="M21" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>900</v>
+        <v>760</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44391</v>
+        <v>44314</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K22" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L22" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="n">
-        <v>29500</v>
+        <v>24000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1180</v>
+        <v>960</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44252</v>
+        <v>44230</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M25" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>760</v>
+        <v>880</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44237</v>
+        <v>44224</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K26" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L26" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44223</v>
+        <v>44286</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="K27" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L27" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44223</v>
+        <v>44286</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K28" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M28" t="n">
-        <v>24000</v>
+        <v>26500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>960</v>
+        <v>1060</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44209</v>
+        <v>44335</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K29" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L29" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M29" t="n">
-        <v>18500</v>
+        <v>26500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>740</v>
+        <v>1060</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44209</v>
+        <v>44335</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K30" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L30" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M30" t="n">
-        <v>21500</v>
+        <v>30500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>860</v>
+        <v>1220</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44322</v>
+        <v>44489</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L31" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M31" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44322</v>
+        <v>44497</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K32" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L32" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M32" t="n">
-        <v>26000</v>
+        <v>37500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1040</v>
+        <v>1500</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44489</v>
+        <v>44482</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
         <v>43000</v>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44300</v>
+        <v>44273</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
         <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44300</v>
+        <v>44273</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K35" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L35" t="n">
         <v>24000</v>
       </c>
-      <c r="L35" t="n">
-        <v>26000</v>
-      </c>
       <c r="M35" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44167</v>
+        <v>44328</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>25000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44167</v>
+        <v>44328</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L37" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M37" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44224</v>
+        <v>44175</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K38" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44483</v>
+        <v>44168</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="K39" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="L39" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M39" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1760</v>
+        <v>520</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44259</v>
+        <v>44168</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M40" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>700</v>
+        <v>820</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44259</v>
+        <v>44203</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M41" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44251</v>
+        <v>44483</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K42" t="n">
-        <v>17000</v>
+        <v>43000</v>
       </c>
       <c r="L42" t="n">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="M42" t="n">
-        <v>18000</v>
+        <v>44000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>720</v>
+        <v>1760</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44468</v>
+        <v>44217</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K43" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L43" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="M43" t="n">
-        <v>44000</v>
+        <v>21000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1760</v>
+        <v>840</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44245</v>
+        <v>44357</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M44" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K45" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>840</v>
+        <v>560</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44210</v>
+        <v>44244</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,17 +3669,17 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K46" t="n">
         <v>18000</v>
       </c>
       <c r="L46" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M46" t="n">
         <v>19000</v>
       </c>
-      <c r="M46" t="n">
-        <v>18500</v>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44210</v>
+        <v>44202</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K47" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L47" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M47" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44161</v>
+        <v>44252</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K48" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M48" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K49" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L49" t="n">
         <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44336</v>
+        <v>44167</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K50" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L50" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>30500</v>
+        <v>14500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1220</v>
+        <v>580</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44266</v>
+        <v>44167</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L51" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L52" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M52" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44238</v>
+        <v>44293</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K53" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L53" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M53" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>760</v>
+        <v>940</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44238</v>
+        <v>44308</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K54" t="n">
         <v>22000</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44202</v>
+        <v>44308</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K55" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L55" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M55" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44377</v>
+        <v>44321</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K56" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L56" t="n">
         <v>25000</v>
       </c>
-      <c r="L56" t="n">
-        <v>26000</v>
-      </c>
       <c r="M56" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L57" t="n">
         <v>27000</v>
       </c>
       <c r="M57" t="n">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K58" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L58" t="n">
         <v>30000</v>
       </c>
-      <c r="L58" t="n">
-        <v>31000</v>
-      </c>
       <c r="M58" t="n">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44188</v>
+        <v>44349</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="K59" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L59" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M59" t="n">
-        <v>19000</v>
+        <v>34000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>760</v>
+        <v>1360</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44160</v>
+        <v>44189</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="K60" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L60" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M60" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44216</v>
+        <v>44189</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K61" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L61" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M61" t="n">
-        <v>21000</v>
+        <v>37500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>840</v>
+        <v>1500</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44216</v>
+        <v>44265</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K62" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L62" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M62" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44189</v>
+        <v>44265</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,17 +4893,17 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K63" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L63" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M63" t="n">
         <v>22000</v>
       </c>
-      <c r="M63" t="n">
-        <v>21000</v>
-      </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44189</v>
+        <v>44300</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4968,13 +4968,13 @@
         <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L64" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M64" t="n">
-        <v>37500</v>
+        <v>19000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,17 +5037,17 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K65" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L65" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M65" t="n">
         <v>25000</v>
       </c>
-      <c r="M65" t="n">
-        <v>24000</v>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44209</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K66" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L66" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M66" t="n">
-        <v>27500</v>
+        <v>18500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1100</v>
+        <v>740</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44350</v>
+        <v>44209</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L67" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M67" t="n">
-        <v>34000</v>
+        <v>21500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1360</v>
+        <v>860</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44272</v>
+        <v>44237</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K68" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L68" t="n">
         <v>20000</v>
       </c>
       <c r="M68" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44272</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K69" t="n">
         <v>22000</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44294</v>
+        <v>44356</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K70" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L70" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M70" t="n">
-        <v>17500</v>
+        <v>27000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>700</v>
+        <v>1080</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44294</v>
+        <v>44469</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K71" t="n">
-        <v>22000</v>
+        <v>47000</v>
       </c>
       <c r="L71" t="n">
-        <v>24000</v>
+        <v>49000</v>
       </c>
       <c r="M71" t="n">
-        <v>23000</v>
+        <v>48000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>920</v>
+        <v>1920</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44385</v>
+        <v>44245</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L72" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M72" t="n">
-        <v>25500</v>
+        <v>14000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1020</v>
+        <v>560</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44308</v>
+        <v>44245</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K73" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L73" t="n">
         <v>22000</v>
       </c>
-      <c r="L73" t="n">
-        <v>24000</v>
-      </c>
       <c r="M73" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44308</v>
+        <v>44259</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L74" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M74" t="n">
-        <v>27000</v>
+        <v>17500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1080</v>
+        <v>700</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44315</v>
+        <v>44259</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
         <v>23000</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44490</v>
+        <v>44216</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K76" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L76" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="M76" t="n">
-        <v>41500</v>
+        <v>21000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1660</v>
+        <v>840</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44357</v>
+        <v>44216</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,17 +5901,17 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K77" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M77" t="n">
         <v>24000</v>
       </c>
-      <c r="L77" t="n">
-        <v>26000</v>
-      </c>
-      <c r="M77" t="n">
-        <v>25000</v>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44510</v>
+        <v>44363</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K78" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L78" t="n">
         <v>25000</v>
       </c>
-      <c r="L78" t="n">
-        <v>30000</v>
-      </c>
       <c r="M78" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1100</v>
+        <v>980</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44329</v>
+        <v>44363</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K79" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L79" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M79" t="n">
-        <v>27000</v>
+        <v>30500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1080</v>
+        <v>1220</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K80" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L80" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M80" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1200</v>
+        <v>980</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44279</v>
+        <v>44336</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L81" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M81" t="n">
-        <v>19000</v>
+        <v>30500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>760</v>
+        <v>1220</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44279</v>
+        <v>44195</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K82" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L82" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M82" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44280</v>
+        <v>44195</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6336,13 +6336,13 @@
         <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="L83" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M83" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44280</v>
+        <v>44210</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K84" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L84" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M84" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44482</v>
+        <v>44210</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K85" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L85" t="n">
-        <v>45000</v>
+        <v>21000</v>
       </c>
       <c r="M85" t="n">
-        <v>44000</v>
+        <v>20500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1760</v>
+        <v>820</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K86" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L86" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M86" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K87" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L87" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M87" t="n">
-        <v>23500</v>
+        <v>27000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>940</v>
+        <v>1080</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44356</v>
+        <v>44279</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6696,13 +6696,13 @@
         <v>1100</v>
       </c>
       <c r="K88" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L88" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M88" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1080</v>
+        <v>760</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44469</v>
+        <v>44279</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K89" t="n">
-        <v>47000</v>
+        <v>24000</v>
       </c>
       <c r="L89" t="n">
-        <v>49000</v>
+        <v>26000</v>
       </c>
       <c r="M89" t="n">
-        <v>48000</v>
+        <v>25000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1920</v>
+        <v>1000</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K92" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L92" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M92" t="n">
-        <v>25500</v>
+        <v>27500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1020</v>
+        <v>1100</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="K93" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L93" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M93" t="n">
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1020</v>
+        <v>1360</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K94" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L94" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M94" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44168</v>
+        <v>44329</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="K95" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="L95" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M95" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>520</v>
+        <v>1080</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44168</v>
+        <v>44329</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K96" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L96" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M96" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>820</v>
+        <v>1200</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44175</v>
+        <v>44272</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="K97" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L97" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M97" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K98" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L98" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M98" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44286</v>
+        <v>44315</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7488,13 +7488,13 @@
         <v>600</v>
       </c>
       <c r="K99" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L99" t="n">
         <v>25000</v>
       </c>
-      <c r="L99" t="n">
-        <v>28000</v>
-      </c>
       <c r="M99" t="n">
-        <v>26500</v>
+        <v>24000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1060</v>
+        <v>960</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44181</v>
+        <v>44322</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K100" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L100" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M100" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,17 +7629,17 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L101" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M101" t="n">
         <v>26000</v>
       </c>
-      <c r="M101" t="n">
-        <v>25000</v>
-      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44328</v>
+        <v>44510</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K102" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L102" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M102" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44301</v>
+        <v>44161</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K103" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L103" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M103" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>840</v>
+        <v>620</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44301</v>
+        <v>44468</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K104" t="n">
-        <v>26000</v>
+        <v>43000</v>
       </c>
       <c r="L104" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M104" t="n">
-        <v>27000</v>
+        <v>44000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1080</v>
+        <v>1760</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44217</v>
+        <v>44517</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L105" t="n">
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="M105" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>840</v>
+        <v>1640</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44244</v>
+        <v>44517</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K106" t="n">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="L106" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M106" t="n">
-        <v>14000</v>
+        <v>39000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>560</v>
+        <v>1560</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44244</v>
+        <v>44517</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L107" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="M107" t="n">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>760</v>
+        <v>1800</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44307</v>
+        <v>44238</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K108" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L108" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M108" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44307</v>
+        <v>44238</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K109" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L109" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M109" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44273</v>
+        <v>44391</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8280,13 +8280,13 @@
         <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="L110" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M110" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>740</v>
+        <v>1180</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44273</v>
+        <v>44251</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,43 +8340,259 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K111" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L111" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M111" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>25</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>500</v>
+      </c>
+      <c r="K112" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L112" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M112" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>25</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>700</v>
+      </c>
+      <c r="K113" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L113" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M113" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>880</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>25</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>300</v>
-      </c>
-      <c r="K111" t="n">
-        <v>22000</v>
-      </c>
-      <c r="L111" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M111" t="n">
-        <v>23000</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>920</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>25</v>
-      </c>
-      <c r="R111" t="inlineStr">
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>600</v>
+      </c>
+      <c r="K114" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L114" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M114" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>25</v>
+      </c>
+      <c r="R114" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44210</v>
+        <v>44524</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K84" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L84" t="n">
         <v>18000</v>
       </c>
-      <c r="L84" t="n">
-        <v>19000</v>
-      </c>
       <c r="M84" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44210</v>
+        <v>44524</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K85" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L85" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="M85" t="n">
-        <v>20500</v>
+        <v>37500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>820</v>
+        <v>1500</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K86" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L86" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M86" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>840</v>
+        <v>740</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K87" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L87" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M87" t="n">
-        <v>27000</v>
+        <v>20500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1080</v>
+        <v>820</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L88" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M88" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L89" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M89" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K90" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L90" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M90" t="n">
-        <v>34500</v>
+        <v>19000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1380</v>
+        <v>760</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K91" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L91" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="M91" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1640</v>
+        <v>1000</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K92" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L92" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M92" t="n">
-        <v>27500</v>
+        <v>34500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1100</v>
+        <v>1380</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K93" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L93" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M93" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1360</v>
+        <v>1640</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L94" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M94" t="n">
-        <v>25500</v>
+        <v>27500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1020</v>
+        <v>1100</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44329</v>
+        <v>44350</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K95" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="L95" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M95" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1080</v>
+        <v>1360</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K96" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L96" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M96" t="n">
-        <v>30000</v>
+        <v>25500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K97" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L97" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M97" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K98" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L98" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M98" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44315</v>
+        <v>44272</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K99" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L99" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M99" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>960</v>
+        <v>740</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44322</v>
+        <v>44272</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K100" t="n">
         <v>22000</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K101" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L101" t="n">
         <v>25000</v>
       </c>
-      <c r="L101" t="n">
-        <v>27000</v>
-      </c>
       <c r="M101" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7704,13 +7704,13 @@
         <v>1100</v>
       </c>
       <c r="K102" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L102" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M102" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44161</v>
+        <v>44322</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L103" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M103" t="n">
-        <v>15500</v>
+        <v>26000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>620</v>
+        <v>1040</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K104" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="L104" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M104" t="n">
-        <v>44000</v>
+        <v>27500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1760</v>
+        <v>1100</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K105" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L105" t="n">
-        <v>42000</v>
+        <v>16000</v>
       </c>
       <c r="M105" t="n">
-        <v>41000</v>
+        <v>15500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1640</v>
+        <v>620</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K106" t="n">
-        <v>38000</v>
+        <v>43000</v>
       </c>
       <c r="L106" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M106" t="n">
-        <v>39000</v>
+        <v>44000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1560</v>
+        <v>1760</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8064,17 +8064,17 @@
         <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L107" t="n">
-        <v>47000</v>
+        <v>42000</v>
       </c>
       <c r="M107" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K108" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L108" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M108" t="n">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K109" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L109" t="n">
-        <v>24000</v>
+        <v>47000</v>
       </c>
       <c r="M109" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>920</v>
+        <v>1800</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K110" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L110" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M110" t="n">
-        <v>29500</v>
+        <v>19000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1180</v>
+        <v>760</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44251</v>
+        <v>44238</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K111" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L111" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M111" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44181</v>
+        <v>44391</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K112" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L112" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M112" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>540</v>
+        <v>1180</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K113" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L113" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="M113" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,58 +8541,202 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>500</v>
+      </c>
+      <c r="K114" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L114" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M114" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>25</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
         <v>44307</v>
       </c>
-      <c r="E114" t="n">
-        <v>4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>700</v>
+      </c>
+      <c r="K115" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L115" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M115" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>880</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>25</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
         <v>600</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K116" t="n">
         <v>26000</v>
       </c>
-      <c r="L114" t="n">
+      <c r="L116" t="n">
         <v>28000</v>
       </c>
-      <c r="M114" t="n">
+      <c r="M116" t="n">
         <v>27000</v>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
         <v>1080</v>
       </c>
-      <c r="Q114" t="n">
-        <v>25</v>
-      </c>
-      <c r="R114" t="inlineStr">
+      <c r="Q116" t="n">
+        <v>25</v>
+      </c>
+      <c r="R116" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L24" t="n">
         <v>18000</v>
       </c>
-      <c r="L24" t="n">
-        <v>20000</v>
-      </c>
       <c r="M24" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K25" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L25" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M25" t="n">
-        <v>22000</v>
+        <v>37500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>880</v>
+        <v>1500</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44224</v>
+        <v>44266</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,17 +2229,17 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K26" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M26" t="n">
         <v>19000</v>
       </c>
-      <c r="L26" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M26" t="n">
-        <v>20000</v>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44286</v>
+        <v>44266</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M27" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44286</v>
+        <v>44224</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K28" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M28" t="n">
-        <v>26500</v>
+        <v>20000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44335</v>
+        <v>44286</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K29" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>26500</v>
+        <v>17000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1060</v>
+        <v>680</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44335</v>
+        <v>44286</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M30" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44489</v>
+        <v>44335</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K31" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L31" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="M31" t="n">
-        <v>44000</v>
+        <v>26500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1760</v>
+        <v>1060</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44497</v>
+        <v>44335</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K32" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L32" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M32" t="n">
-        <v>37500</v>
+        <v>30500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1500</v>
+        <v>1220</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
         <v>43000</v>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44273</v>
+        <v>44497</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M34" t="n">
-        <v>18500</v>
+        <v>37500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>740</v>
+        <v>1500</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L35" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M35" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44328</v>
+        <v>44273</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K36" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44328</v>
+        <v>44273</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K37" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L37" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M37" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44175</v>
+        <v>44328</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K38" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L38" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="M38" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44168</v>
+        <v>44328</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>29000</v>
       </c>
       <c r="L39" t="n">
-        <v>14000</v>
+        <v>31000</v>
       </c>
       <c r="M39" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>520</v>
+        <v>1200</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K40" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L40" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>820</v>
+        <v>500</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="K41" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M41" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>840</v>
+        <v>520</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44483</v>
+        <v>44168</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K42" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>45000</v>
+        <v>21000</v>
       </c>
       <c r="M42" t="n">
-        <v>44000</v>
+        <v>20500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1760</v>
+        <v>820</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
         <v>20000</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44357</v>
+        <v>44483</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K44" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L44" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M44" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>1000</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M45" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K46" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L46" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M46" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K47" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44252</v>
+        <v>44244</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K48" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L48" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M48" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,17 +3885,17 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K49" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M49" t="n">
         <v>23000</v>
       </c>
-      <c r="L49" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M49" t="n">
-        <v>24000</v>
-      </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44167</v>
+        <v>44252</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K50" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L50" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M50" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44167</v>
+        <v>44252</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K51" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L51" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>860</v>
+        <v>960</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44293</v>
+        <v>44167</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K52" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M52" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44293</v>
+        <v>44167</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4176,13 +4176,13 @@
         <v>1100</v>
       </c>
       <c r="K53" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L53" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M53" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>940</v>
+        <v>860</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44308</v>
+        <v>44293</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4248,13 +4248,13 @@
         <v>600</v>
       </c>
       <c r="K54" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L54" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>700</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44308</v>
+        <v>44293</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K55" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M55" t="n">
-        <v>27000</v>
+        <v>23500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1080</v>
+        <v>940</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44321</v>
+        <v>44308</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,17 +4389,17 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K56" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M56" t="n">
         <v>23000</v>
       </c>
-      <c r="L56" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M56" t="n">
-        <v>24000</v>
-      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44321</v>
+        <v>44308</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4464,14 +4464,14 @@
         <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L57" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M57" t="n">
         <v>27000</v>
       </c>
-      <c r="M57" t="n">
-        <v>26000</v>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44349</v>
+        <v>44321</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4536,13 +4536,13 @@
         <v>1000</v>
       </c>
       <c r="K58" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L58" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M58" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1160</v>
+        <v>960</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44349</v>
+        <v>44321</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K59" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L59" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M59" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1360</v>
+        <v>1040</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44189</v>
+        <v>44349</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K60" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>840</v>
+        <v>1160</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44189</v>
+        <v>44349</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L61" t="n">
         <v>35000</v>
       </c>
-      <c r="L61" t="n">
-        <v>40000</v>
-      </c>
       <c r="M61" t="n">
-        <v>37500</v>
+        <v>34000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K62" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L62" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M62" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K63" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L63" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M63" t="n">
-        <v>22000</v>
+        <v>37500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>880</v>
+        <v>1500</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44300</v>
+        <v>44265</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K64" t="n">
         <v>18000</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44300</v>
+        <v>44265</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K65" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L65" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M65" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44209</v>
+        <v>44300</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,17 +5109,17 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
         <v>18000</v>
       </c>
       <c r="L66" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M66" t="n">
         <v>19000</v>
       </c>
-      <c r="M66" t="n">
-        <v>18500</v>
-      </c>
       <c r="N66" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44209</v>
+        <v>44300</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K67" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L67" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M67" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K68" t="n">
         <v>18000</v>
       </c>
       <c r="L68" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M68" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K69" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L69" t="n">
         <v>22000</v>
       </c>
-      <c r="L69" t="n">
-        <v>24000</v>
-      </c>
       <c r="M69" t="n">
-        <v>23000</v>
+        <v>21500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44356</v>
+        <v>44237</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K70" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L70" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M70" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1080</v>
+        <v>760</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K71" t="n">
-        <v>47000</v>
+        <v>22000</v>
       </c>
       <c r="L71" t="n">
-        <v>49000</v>
+        <v>24000</v>
       </c>
       <c r="M71" t="n">
-        <v>48000</v>
+        <v>23000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1920</v>
+        <v>920</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44245</v>
+        <v>44356</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K72" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L72" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M72" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44245</v>
+        <v>44469</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K73" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="L73" t="n">
-        <v>22000</v>
+        <v>49000</v>
       </c>
       <c r="M73" t="n">
-        <v>21000</v>
+        <v>48000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>840</v>
+        <v>1920</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44259</v>
+        <v>44245</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K74" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M74" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44259</v>
+        <v>44245</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K75" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L75" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M75" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L76" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M76" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>840</v>
+        <v>700</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K77" t="n">
         <v>23000</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44363</v>
+        <v>44216</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K78" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L78" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M78" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>980</v>
+        <v>840</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44363</v>
+        <v>44216</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K79" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L79" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M79" t="n">
-        <v>30500</v>
+        <v>24000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1220</v>
+        <v>960</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K80" t="n">
         <v>24000</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44195</v>
+        <v>44336</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K82" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L82" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M82" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44195</v>
+        <v>44336</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6336,13 +6336,13 @@
         <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L83" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M83" t="n">
-        <v>34000</v>
+        <v>30500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1360</v>
+        <v>1220</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K84" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L84" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M84" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K85" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L85" t="n">
         <v>35000</v>
       </c>
-      <c r="L85" t="n">
-        <v>40000</v>
-      </c>
       <c r="M85" t="n">
-        <v>37500</v>
+        <v>34000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44210</v>
+        <v>44524</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K86" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L86" t="n">
         <v>18000</v>
       </c>
-      <c r="L86" t="n">
-        <v>19000</v>
-      </c>
       <c r="M86" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44210</v>
+        <v>44524</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K87" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L87" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="M87" t="n">
-        <v>20500</v>
+        <v>37500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>820</v>
+        <v>1500</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K88" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L88" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M88" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>840</v>
+        <v>740</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L89" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M89" t="n">
-        <v>27000</v>
+        <v>20500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1080</v>
+        <v>820</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L90" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M90" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L91" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M91" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L92" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M92" t="n">
-        <v>34500</v>
+        <v>19000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1380</v>
+        <v>760</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K93" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L93" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="M93" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1640</v>
+        <v>1000</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K94" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L94" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M94" t="n">
-        <v>27500</v>
+        <v>34500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1100</v>
+        <v>1380</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K95" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L95" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M95" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1360</v>
+        <v>1640</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L96" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M96" t="n">
-        <v>25500</v>
+        <v>27500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1020</v>
+        <v>1100</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44329</v>
+        <v>44350</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K97" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="L97" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M97" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1080</v>
+        <v>1360</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K98" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L98" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M98" t="n">
-        <v>30000</v>
+        <v>25500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K99" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L99" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M99" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K100" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L100" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M100" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44315</v>
+        <v>44272</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K101" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L101" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M101" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>960</v>
+        <v>740</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44322</v>
+        <v>44272</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K102" t="n">
         <v>22000</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L103" t="n">
         <v>25000</v>
       </c>
-      <c r="L103" t="n">
-        <v>27000</v>
-      </c>
       <c r="M103" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7848,13 +7848,13 @@
         <v>1100</v>
       </c>
       <c r="K104" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L104" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M104" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44161</v>
+        <v>44322</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L105" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M105" t="n">
-        <v>15500</v>
+        <v>26000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>620</v>
+        <v>1040</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K106" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="L106" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M106" t="n">
-        <v>44000</v>
+        <v>27500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1760</v>
+        <v>1100</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K107" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L107" t="n">
-        <v>42000</v>
+        <v>16000</v>
       </c>
       <c r="M107" t="n">
-        <v>41000</v>
+        <v>15500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1640</v>
+        <v>620</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K108" t="n">
-        <v>38000</v>
+        <v>43000</v>
       </c>
       <c r="L108" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M108" t="n">
-        <v>39000</v>
+        <v>44000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1560</v>
+        <v>1760</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8208,17 +8208,17 @@
         <v>400</v>
       </c>
       <c r="K109" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L109" t="n">
-        <v>47000</v>
+        <v>42000</v>
       </c>
       <c r="M109" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K110" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L110" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M110" t="n">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K111" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L111" t="n">
-        <v>24000</v>
+        <v>47000</v>
       </c>
       <c r="M111" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>920</v>
+        <v>1800</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K112" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L112" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M112" t="n">
-        <v>29500</v>
+        <v>19000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1180</v>
+        <v>760</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44251</v>
+        <v>44238</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K113" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L113" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M113" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44181</v>
+        <v>44391</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M114" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>540</v>
+        <v>1180</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K115" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L115" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="M115" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,58 +8685,202 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>500</v>
+      </c>
+      <c r="K116" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L116" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M116" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>25</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
         <v>44307</v>
       </c>
-      <c r="E116" t="n">
-        <v>4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="E117" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>700</v>
+      </c>
+      <c r="K117" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L117" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M117" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>880</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>25</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
         <v>600</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K118" t="n">
         <v>26000</v>
       </c>
-      <c r="L116" t="n">
+      <c r="L118" t="n">
         <v>28000</v>
       </c>
-      <c r="M116" t="n">
+      <c r="M118" t="n">
         <v>27000</v>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
         <v>1080</v>
       </c>
-      <c r="Q116" t="n">
-        <v>25</v>
-      </c>
-      <c r="R116" t="inlineStr">
+      <c r="Q118" t="n">
+        <v>25</v>
+      </c>
+      <c r="R118" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44251</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M3" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44294</v>
+        <v>44161</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K5" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>23000</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>920</v>
+        <v>620</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M6" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>840</v>
+        <v>740</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>960</v>
+        <v>860</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44503</v>
+        <v>44391</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L8" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>33000</v>
+        <v>29500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1320</v>
+        <v>1180</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="L9" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>31000</v>
+        <v>34500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1240</v>
+        <v>1380</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K10" t="n">
         <v>40000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44490</v>
+        <v>44301</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K11" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L11" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>41500</v>
+        <v>21000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1660</v>
+        <v>840</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44258</v>
+        <v>44301</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>27000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>700</v>
+        <v>1080</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44258</v>
+        <v>44279</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44343</v>
+        <v>44279</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="K14" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L14" t="n">
         <v>26000</v>
       </c>
       <c r="M14" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L15" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M15" t="n">
-        <v>32000</v>
+        <v>25500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1280</v>
+        <v>1020</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44160</v>
+        <v>44343</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>32000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>660</v>
+        <v>1280</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44385</v>
+        <v>44356</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K17" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L17" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M17" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
         <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
         <v>22000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44175</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>25500</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1020</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44188</v>
+        <v>44223</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M21" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K22" t="n">
         <v>23000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44230</v>
+        <v>44238</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K23" t="n">
         <v>18000</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44525</v>
+        <v>44238</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M24" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44525</v>
+        <v>44468</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="L25" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M25" t="n">
-        <v>37500</v>
+        <v>44000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1500</v>
+        <v>1760</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44266</v>
+        <v>44329</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M26" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44266</v>
+        <v>44329</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2304,13 +2304,13 @@
         <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L27" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M27" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44224</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,17 +2373,17 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K28" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M28" t="n">
         <v>19000</v>
       </c>
-      <c r="L28" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M28" t="n">
-        <v>20000</v>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44286</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M29" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44286</v>
+        <v>44482</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,17 +2520,17 @@
         <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L30" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M30" t="n">
-        <v>26500</v>
+        <v>44000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1060</v>
+        <v>1760</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44335</v>
+        <v>44483</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K31" t="n">
-        <v>26000</v>
+        <v>43000</v>
       </c>
       <c r="L31" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M31" t="n">
-        <v>26500</v>
+        <v>44000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1060</v>
+        <v>1760</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44335</v>
+        <v>44524</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K32" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>30500</v>
+        <v>17000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1220</v>
+        <v>680</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44489</v>
+        <v>44524</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K33" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="M33" t="n">
-        <v>44000</v>
+        <v>37500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1760</v>
+        <v>1500</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44497</v>
+        <v>44385</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L34" t="n">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="M34" t="n">
-        <v>37500</v>
+        <v>25500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1500</v>
+        <v>1020</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44482</v>
+        <v>44258</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K35" t="n">
-        <v>43000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>44000</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1760</v>
+        <v>700</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44273</v>
+        <v>44258</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>18500</v>
+        <v>24000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>740</v>
+        <v>960</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44273</v>
+        <v>44349</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K37" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L37" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M37" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44328</v>
+        <v>44349</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L38" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1360</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44328</v>
+        <v>44321</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K39" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M39" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44175</v>
+        <v>44321</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="M40" t="n">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44168</v>
+        <v>44202</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M41" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>520</v>
+        <v>920</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44168</v>
+        <v>44517</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L42" t="n">
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="M42" t="n">
-        <v>20500</v>
+        <v>41000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>820</v>
+        <v>1640</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44203</v>
+        <v>44517</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="L43" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M43" t="n">
-        <v>21000</v>
+        <v>39000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>840</v>
+        <v>1560</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44483</v>
+        <v>44517</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
         <v>43000</v>
       </c>
       <c r="L44" t="n">
+        <v>47000</v>
+      </c>
+      <c r="M44" t="n">
         <v>45000</v>
       </c>
-      <c r="M44" t="n">
-        <v>44000</v>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1760</v>
+        <v>1800</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44265</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K45" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L45" t="n">
         <v>20000</v>
       </c>
-      <c r="L45" t="n">
-        <v>22000</v>
-      </c>
       <c r="M45" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44357</v>
+        <v>44265</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K46" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L46" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44244</v>
+        <v>44328</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,29 +3741,29 @@
         </is>
       </c>
       <c r="J47" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K47" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
         <v>1000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L47" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" t="n">
-        <v>14000</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>560</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44244</v>
+        <v>44328</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L48" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M48" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>760</v>
+        <v>1200</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44202</v>
+        <v>44195</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,17 +3885,17 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K49" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M49" t="n">
         <v>22000</v>
       </c>
-      <c r="L49" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M49" t="n">
-        <v>23000</v>
-      </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44252</v>
+        <v>44195</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K50" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L50" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M50" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44252</v>
+        <v>44216</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4032,13 +4032,13 @@
         <v>1600</v>
       </c>
       <c r="K51" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44167</v>
+        <v>44216</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K52" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L52" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M52" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>580</v>
+        <v>960</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K53" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L53" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M53" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44293</v>
+        <v>44272</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K54" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L54" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M54" t="n">
-        <v>17500</v>
+        <v>23000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>700</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44293</v>
+        <v>44308</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K55" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L55" t="n">
         <v>24000</v>
       </c>
       <c r="M55" t="n">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K56" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L56" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44308</v>
+        <v>44293</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K57" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L57" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M57" t="n">
-        <v>27000</v>
+        <v>17500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1080</v>
+        <v>700</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44321</v>
+        <v>44293</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K58" t="n">
         <v>23000</v>
       </c>
       <c r="L58" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M58" t="n">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44321</v>
+        <v>44336</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L59" t="n">
         <v>25000</v>
       </c>
-      <c r="L59" t="n">
-        <v>27000</v>
-      </c>
       <c r="M59" t="n">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1040</v>
+        <v>980</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44349</v>
+        <v>44336</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K60" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M60" t="n">
-        <v>29000</v>
+        <v>30500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1160</v>
+        <v>1220</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K61" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L61" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M61" t="n">
-        <v>34000</v>
+        <v>17500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1360</v>
+        <v>700</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44189</v>
+        <v>44252</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K62" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L62" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M62" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44189</v>
+        <v>44510</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K63" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L63" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M63" t="n">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44265</v>
+        <v>44245</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K64" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M64" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44265</v>
+        <v>44245</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,17 +5037,17 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K65" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M65" t="n">
         <v>21000</v>
       </c>
-      <c r="L65" t="n">
-        <v>23000</v>
-      </c>
-      <c r="M65" t="n">
-        <v>22000</v>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44300</v>
+        <v>44363</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K66" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L66" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M66" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>760</v>
+        <v>980</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44300</v>
+        <v>44363</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K67" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L67" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="M67" t="n">
-        <v>25000</v>
+        <v>30500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44209</v>
+        <v>44503</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K68" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L68" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="M68" t="n">
-        <v>18500</v>
+        <v>33000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>740</v>
+        <v>1320</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44209</v>
+        <v>44503</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K69" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="L69" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M69" t="n">
-        <v>21500</v>
+        <v>31000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>860</v>
+        <v>1240</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44237</v>
+        <v>44503</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K70" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L70" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M70" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>760</v>
+        <v>1640</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44237</v>
+        <v>44188</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="K71" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L71" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M71" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44356</v>
+        <v>44237</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K72" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L72" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M72" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1080</v>
+        <v>760</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K73" t="n">
-        <v>47000</v>
+        <v>22000</v>
       </c>
       <c r="L73" t="n">
-        <v>49000</v>
+        <v>24000</v>
       </c>
       <c r="M73" t="n">
-        <v>48000</v>
+        <v>23000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1920</v>
+        <v>920</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44245</v>
+        <v>44384</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K74" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L74" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M74" t="n">
-        <v>14000</v>
+        <v>25500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44245</v>
+        <v>44210</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K75" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L75" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M75" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>840</v>
+        <v>740</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44259</v>
+        <v>44210</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K76" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L76" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M76" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>700</v>
+        <v>820</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44259</v>
+        <v>44315</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
         <v>23000</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44216</v>
+        <v>44168</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K78" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L78" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M78" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>840</v>
+        <v>520</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44216</v>
+        <v>44168</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K79" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L79" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M79" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>960</v>
+        <v>820</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44363</v>
+        <v>44322</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K80" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L80" t="n">
         <v>24000</v>
       </c>
-      <c r="L80" t="n">
-        <v>25000</v>
-      </c>
       <c r="M80" t="n">
-        <v>24500</v>
+        <v>23000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>980</v>
+        <v>920</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44363</v>
+        <v>44322</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K81" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L81" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M81" t="n">
-        <v>30500</v>
+        <v>26000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1220</v>
+        <v>1040</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44336</v>
+        <v>44231</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L82" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M82" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44336</v>
+        <v>44231</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L83" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M83" t="n">
-        <v>30500</v>
+        <v>22500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1220</v>
+        <v>900</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44195</v>
+        <v>44357</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6408,13 +6408,13 @@
         <v>800</v>
       </c>
       <c r="K84" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L84" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M84" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44195</v>
+        <v>44489</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K85" t="n">
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="L85" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M85" t="n">
-        <v>34000</v>
+        <v>44000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1360</v>
+        <v>1760</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44524</v>
+        <v>44244</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="K86" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L86" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M86" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44524</v>
+        <v>44244</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>240</v>
+        <v>1600</v>
       </c>
       <c r="K87" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L87" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M87" t="n">
-        <v>37500</v>
+        <v>19000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44210</v>
+        <v>44259</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K88" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L88" t="n">
         <v>18000</v>
       </c>
-      <c r="L88" t="n">
-        <v>19000</v>
-      </c>
       <c r="M88" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44210</v>
+        <v>44259</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L89" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M89" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>820</v>
+        <v>960</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44301</v>
+        <v>44377</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L90" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M90" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44301</v>
+        <v>44280</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K91" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="L91" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M91" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1080</v>
+        <v>680</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K92" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L92" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M92" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44279</v>
+        <v>44300</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L93" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M93" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44504</v>
+        <v>44300</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,29 +7125,29 @@
         </is>
       </c>
       <c r="J94" t="n">
+        <v>500</v>
+      </c>
+      <c r="K94" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M94" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
         <v>1000</v>
-      </c>
-      <c r="K94" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L94" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M94" t="n">
-        <v>34500</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>1380</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44504</v>
+        <v>44497</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="K95" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L95" t="n">
         <v>40000</v>
       </c>
-      <c r="L95" t="n">
-        <v>42000</v>
-      </c>
       <c r="M95" t="n">
-        <v>41000</v>
+        <v>37500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1640</v>
+        <v>1500</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44350</v>
+        <v>44525</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K96" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L96" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M96" t="n">
-        <v>27500</v>
+        <v>17000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1100</v>
+        <v>680</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44350</v>
+        <v>44525</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K97" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L97" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M97" t="n">
-        <v>34000</v>
+        <v>37500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44384</v>
+        <v>44286</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="K98" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L98" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M98" t="n">
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1020</v>
+        <v>680</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44329</v>
+        <v>44286</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K99" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L99" t="n">
         <v>28000</v>
       </c>
       <c r="M99" t="n">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44329</v>
+        <v>44307</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K100" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L100" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="M100" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44272</v>
+        <v>44307</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K101" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L101" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M101" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44272</v>
+        <v>44469</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K102" t="n">
-        <v>22000</v>
+        <v>47000</v>
       </c>
       <c r="L102" t="n">
-        <v>24000</v>
+        <v>49000</v>
       </c>
       <c r="M102" t="n">
-        <v>23000</v>
+        <v>48000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>920</v>
+        <v>1920</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44315</v>
+        <v>44230</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K103" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L103" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M103" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44322</v>
+        <v>44160</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K104" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L104" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M104" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>920</v>
+        <v>660</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44322</v>
+        <v>44273</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L105" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M105" t="n">
-        <v>26000</v>
+        <v>18500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1040</v>
+        <v>740</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44510</v>
+        <v>44273</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K106" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L106" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M106" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44161</v>
+        <v>44350</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L107" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="M107" t="n">
-        <v>15500</v>
+        <v>27500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>620</v>
+        <v>1100</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44468</v>
+        <v>44350</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K108" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="L108" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M108" t="n">
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1760</v>
+        <v>1360</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44517</v>
+        <v>44167</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K109" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="L109" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M109" t="n">
-        <v>41000</v>
+        <v>14500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1640</v>
+        <v>580</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44517</v>
+        <v>44167</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K110" t="n">
-        <v>38000</v>
+        <v>21000</v>
       </c>
       <c r="L110" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M110" t="n">
-        <v>39000</v>
+        <v>21500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1560</v>
+        <v>860</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44517</v>
+        <v>44181</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>43000</v>
+        <v>13000</v>
       </c>
       <c r="L111" t="n">
-        <v>47000</v>
+        <v>14000</v>
       </c>
       <c r="M111" t="n">
-        <v>45000</v>
+        <v>13500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1800</v>
+        <v>540</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44238</v>
+        <v>44189</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K112" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L112" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M112" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44238</v>
+        <v>44189</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K113" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L113" t="n">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="M113" t="n">
-        <v>23000</v>
+        <v>37500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>920</v>
+        <v>1500</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44391</v>
+        <v>44335</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K114" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L114" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M114" t="n">
-        <v>29500</v>
+        <v>26500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1180</v>
+        <v>1060</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44251</v>
+        <v>44335</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K115" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L115" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="M115" t="n">
-        <v>18000</v>
+        <v>30500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>720</v>
+        <v>1220</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44181</v>
+        <v>44314</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K116" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L116" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M116" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44307</v>
+        <v>44224</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8784,13 +8784,13 @@
         <v>700</v>
       </c>
       <c r="K117" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L117" t="n">
         <v>21000</v>
       </c>
-      <c r="L117" t="n">
-        <v>23000</v>
-      </c>
       <c r="M117" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44307</v>
+        <v>44490</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K118" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="L118" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="M118" t="n">
-        <v>27000</v>
+        <v>41500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1080</v>
+        <v>1660</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44301</v>
+        <v>44532</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K11" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44301</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,17 +1221,17 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M12" t="n">
         <v>26000</v>
       </c>
-      <c r="L12" t="n">
-        <v>28000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>27000</v>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M13" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L14" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M14" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44343</v>
+        <v>44279</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K15" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>25500</v>
+        <v>19000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1020</v>
+        <v>760</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44343</v>
+        <v>44279</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K16" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="L16" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M16" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44356</v>
+        <v>44343</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L17" t="n">
         <v>26000</v>
       </c>
-      <c r="L17" t="n">
-        <v>28000</v>
-      </c>
       <c r="M17" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44294</v>
+        <v>44343</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>32000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>700</v>
+        <v>1280</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44294</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K19" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L19" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M19" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44175</v>
+        <v>44294</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44223</v>
+        <v>44294</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L21" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M21" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K22" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44238</v>
+        <v>44223</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M23" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44238</v>
+        <v>44223</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,17 +2085,17 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K24" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L24" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M24" t="n">
         <v>24000</v>
       </c>
-      <c r="M24" t="n">
-        <v>23000</v>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44468</v>
+        <v>44238</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K25" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L25" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44329</v>
+        <v>44238</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K26" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L26" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M26" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44329</v>
+        <v>44468</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L27" t="n">
-        <v>31000</v>
+        <v>45000</v>
       </c>
       <c r="M27" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1200</v>
+        <v>1760</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44329</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K28" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M28" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44329</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2448,13 +2448,13 @@
         <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L29" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M29" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44482</v>
+        <v>44266</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K30" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44483</v>
+        <v>44266</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>43000</v>
+        <v>21000</v>
       </c>
       <c r="L31" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="M31" t="n">
-        <v>44000</v>
+        <v>22000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44524</v>
+        <v>44482</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M32" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>680</v>
+        <v>1760</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44524</v>
+        <v>44483</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K33" t="n">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="L33" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M33" t="n">
-        <v>37500</v>
+        <v>44000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1500</v>
+        <v>1760</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44385</v>
+        <v>44524</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K34" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L34" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1020</v>
+        <v>680</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44258</v>
+        <v>44524</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>37500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K36" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M36" t="n">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>29000</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K38" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L38" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44321</v>
+        <v>44349</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>1000</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M39" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>960</v>
+        <v>1160</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44321</v>
+        <v>44349</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M40" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1040</v>
+        <v>1360</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44202</v>
+        <v>44321</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,17 +3309,17 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K41" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L41" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M41" t="n">
         <v>24000</v>
       </c>
-      <c r="M41" t="n">
-        <v>23000</v>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44517</v>
+        <v>44321</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L42" t="n">
-        <v>42000</v>
+        <v>27000</v>
       </c>
       <c r="M42" t="n">
-        <v>41000</v>
+        <v>26000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1640</v>
+        <v>1040</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44517</v>
+        <v>44202</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K43" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="L43" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="M43" t="n">
-        <v>39000</v>
+        <v>23000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1560</v>
+        <v>920</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,17 +3528,17 @@
         <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L44" t="n">
-        <v>47000</v>
+        <v>42000</v>
       </c>
       <c r="M44" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44265</v>
+        <v>44517</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K45" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L45" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M45" t="n">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44265</v>
+        <v>44517</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>21000</v>
+        <v>43000</v>
       </c>
       <c r="L46" t="n">
-        <v>23000</v>
+        <v>47000</v>
       </c>
       <c r="M46" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>880</v>
+        <v>1800</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44328</v>
+        <v>44265</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K47" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L47" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M47" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44328</v>
+        <v>44265</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K48" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L48" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="M48" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44195</v>
+        <v>44328</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K49" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L49" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M49" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44195</v>
+        <v>44328</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L50" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M50" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,17 +4029,17 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L51" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M51" t="n">
         <v>22000</v>
       </c>
-      <c r="M51" t="n">
-        <v>21000</v>
-      </c>
       <c r="N51" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K52" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L52" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M52" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>960</v>
+        <v>1360</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44272</v>
+        <v>44216</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K53" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L53" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M53" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44272</v>
+        <v>44216</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,17 +4245,17 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K54" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L54" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M54" t="n">
         <v>24000</v>
       </c>
-      <c r="M54" t="n">
-        <v>23000</v>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K55" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L55" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M55" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K56" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M56" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44293</v>
+        <v>44308</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4464,13 +4464,13 @@
         <v>600</v>
       </c>
       <c r="K57" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L57" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M57" t="n">
-        <v>17500</v>
+        <v>23000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>700</v>
+        <v>920</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44293</v>
+        <v>44308</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L58" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>23500</v>
+        <v>27000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>940</v>
+        <v>1080</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44336</v>
+        <v>44293</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K59" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L59" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M59" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>980</v>
+        <v>700</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44336</v>
+        <v>44293</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K60" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L60" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M60" t="n">
-        <v>30500</v>
+        <v>23500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1220</v>
+        <v>940</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4752,13 +4752,13 @@
         <v>1100</v>
       </c>
       <c r="K61" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L61" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M61" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K62" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L62" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M62" t="n">
-        <v>24000</v>
+        <v>30500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>960</v>
+        <v>1220</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44510</v>
+        <v>44252</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4896,13 +4896,13 @@
         <v>1100</v>
       </c>
       <c r="K63" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L63" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M63" t="n">
-        <v>27500</v>
+        <v>17500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L64" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M64" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44245</v>
+        <v>44510</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K65" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L65" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M65" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>840</v>
+        <v>1100</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44363</v>
+        <v>44245</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K66" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L66" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M66" t="n">
-        <v>24500</v>
+        <v>14000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>980</v>
+        <v>560</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44363</v>
+        <v>44245</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K67" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L67" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M67" t="n">
-        <v>30500</v>
+        <v>21000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1220</v>
+        <v>840</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44503</v>
+        <v>44363</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K68" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L68" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M68" t="n">
-        <v>33000</v>
+        <v>24500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1320</v>
+        <v>980</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44503</v>
+        <v>44363</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K69" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L69" t="n">
         <v>31000</v>
       </c>
       <c r="M69" t="n">
-        <v>31000</v>
+        <v>30500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1240</v>
+        <v>1220</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K70" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L70" t="n">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="M70" t="n">
-        <v>41000</v>
+        <v>33000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1640</v>
+        <v>1320</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44188</v>
+        <v>44503</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L71" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M71" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>760</v>
+        <v>1240</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44237</v>
+        <v>44503</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K72" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L72" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M72" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>760</v>
+        <v>1640</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44237</v>
+        <v>44188</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="K73" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L73" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M73" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44384</v>
+        <v>44237</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K74" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L74" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M74" t="n">
-        <v>25500</v>
+        <v>19000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1020</v>
+        <v>760</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K75" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L75" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M75" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>740</v>
+        <v>920</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44210</v>
+        <v>44384</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K76" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L76" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M76" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>820</v>
+        <v>1020</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44315</v>
+        <v>44210</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K77" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L77" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M77" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>960</v>
+        <v>740</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L78" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M78" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>520</v>
+        <v>820</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44168</v>
+        <v>44315</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K79" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L79" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M79" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>820</v>
+        <v>960</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="K80" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L80" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M80" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>920</v>
+        <v>520</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K81" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L81" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M81" t="n">
-        <v>26000</v>
+        <v>20500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1040</v>
+        <v>820</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44231</v>
+        <v>44322</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K82" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L82" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M82" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44231</v>
+        <v>44322</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K83" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L83" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M83" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>900</v>
+        <v>1040</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44357</v>
+        <v>44231</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K84" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L84" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M84" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44489</v>
+        <v>44231</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L85" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M85" t="n">
-        <v>44000</v>
+        <v>22500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1760</v>
+        <v>900</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,29 +6549,29 @@
         </is>
       </c>
       <c r="J86" t="n">
+        <v>800</v>
+      </c>
+      <c r="K86" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L86" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M86" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
         <v>1000</v>
-      </c>
-      <c r="K86" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L86" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M86" t="n">
-        <v>14000</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>560</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44244</v>
+        <v>44489</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K87" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L87" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M87" t="n">
-        <v>19000</v>
+        <v>44000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>760</v>
+        <v>1760</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44259</v>
+        <v>44244</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L88" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M88" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44259</v>
+        <v>44244</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K89" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L89" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M89" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44377</v>
+        <v>44259</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K90" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L90" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M90" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44280</v>
+        <v>44259</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6912,13 +6912,13 @@
         <v>700</v>
       </c>
       <c r="K91" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L91" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M91" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44280</v>
+        <v>44377</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K92" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L92" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M92" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44300</v>
+        <v>44280</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K93" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L93" t="n">
         <v>18000</v>
       </c>
-      <c r="L93" t="n">
-        <v>20000</v>
-      </c>
       <c r="M93" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44300</v>
+        <v>44280</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K94" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L94" t="n">
         <v>24000</v>
       </c>
-      <c r="L94" t="n">
-        <v>26000</v>
-      </c>
       <c r="M94" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44497</v>
+        <v>44300</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K95" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L95" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M95" t="n">
-        <v>37500</v>
+        <v>19000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44525</v>
+        <v>44300</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7272,13 +7272,13 @@
         <v>500</v>
       </c>
       <c r="K96" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L96" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M96" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44525</v>
+        <v>44497</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K97" t="n">
         <v>35000</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44286</v>
+        <v>44525</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K98" t="n">
         <v>16000</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44286</v>
+        <v>44525</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K99" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L99" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M99" t="n">
-        <v>26500</v>
+        <v>37500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44307</v>
+        <v>44286</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K100" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L100" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M100" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>880</v>
+        <v>680</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44307</v>
+        <v>44286</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7632,13 +7632,13 @@
         <v>600</v>
       </c>
       <c r="K101" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L101" t="n">
         <v>28000</v>
       </c>
       <c r="M101" t="n">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44469</v>
+        <v>44307</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K102" t="n">
-        <v>47000</v>
+        <v>21000</v>
       </c>
       <c r="L102" t="n">
-        <v>49000</v>
+        <v>23000</v>
       </c>
       <c r="M102" t="n">
-        <v>48000</v>
+        <v>22000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1920</v>
+        <v>880</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44230</v>
+        <v>44307</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L103" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M103" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44160</v>
+        <v>44469</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K104" t="n">
-        <v>16000</v>
+        <v>47000</v>
       </c>
       <c r="L104" t="n">
-        <v>17000</v>
+        <v>49000</v>
       </c>
       <c r="M104" t="n">
-        <v>16500</v>
+        <v>48000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>660</v>
+        <v>1920</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44273</v>
+        <v>44230</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K105" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L105" t="n">
         <v>20000</v>
       </c>
       <c r="M105" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44273</v>
+        <v>44160</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K106" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L106" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M106" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>920</v>
+        <v>660</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="L107" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M107" t="n">
-        <v>27500</v>
+        <v>18500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1100</v>
+        <v>740</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L108" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M108" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1360</v>
+        <v>920</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44167</v>
+        <v>44350</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K109" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L109" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M109" t="n">
-        <v>14500</v>
+        <v>27500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44167</v>
+        <v>44350</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K110" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L110" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M110" t="n">
-        <v>21500</v>
+        <v>34000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>860</v>
+        <v>1360</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44181</v>
+        <v>44167</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L111" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M111" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44189</v>
+        <v>44167</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K112" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L112" t="n">
         <v>22000</v>
       </c>
       <c r="M112" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K113" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="L113" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="M113" t="n">
-        <v>37500</v>
+        <v>13500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1500</v>
+        <v>540</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44335</v>
+        <v>44189</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K114" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L114" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M114" t="n">
-        <v>26500</v>
+        <v>21000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1060</v>
+        <v>840</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44335</v>
+        <v>44189</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L115" t="n">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="M115" t="n">
-        <v>30500</v>
+        <v>37500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1220</v>
+        <v>1500</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K116" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L116" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M116" t="n">
-        <v>24000</v>
+        <v>26500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>960</v>
+        <v>1060</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44224</v>
+        <v>44335</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K117" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="L117" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M117" t="n">
-        <v>20000</v>
+        <v>30500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,58 +8829,202 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>800</v>
+      </c>
+      <c r="K118" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L118" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M118" t="n">
+        <v>24000</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>960</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>25</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>700</v>
+      </c>
+      <c r="K119" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L119" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M119" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>25</v>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
         <v>44490</v>
       </c>
-      <c r="E118" t="n">
-        <v>4</v>
-      </c>
-      <c r="F118" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Magnum</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
         <v>700</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K120" t="n">
         <v>40000</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L120" t="n">
         <v>43000</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M120" t="n">
         <v>41500</v>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
         <v>1660</v>
       </c>
-      <c r="Q118" t="n">
-        <v>25</v>
-      </c>
-      <c r="R118" t="inlineStr">
+      <c r="Q120" t="n">
+        <v>25</v>
+      </c>
+      <c r="R120" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44335</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M2" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>840</v>
+        <v>1060</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44251</v>
+        <v>44335</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L3" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>720</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>1000</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>21000</v>
+        <v>34500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>840</v>
+        <v>1380</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44161</v>
+        <v>44504</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1600</v>
+        <v>360</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>42000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>41000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>620</v>
+        <v>1640</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44209</v>
+        <v>44307</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L6" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M6" t="n">
-        <v>18500</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44209</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M7" t="n">
-        <v>21500</v>
+        <v>27000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>860</v>
+        <v>1080</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44391</v>
+        <v>44217</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>29500</v>
+        <v>21000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1180</v>
+        <v>840</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44504</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>34500</v>
+        <v>21000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1380</v>
+        <v>840</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44504</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="L10" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="M10" t="n">
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1640</v>
+        <v>1080</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44532</v>
+        <v>44230</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44532</v>
+        <v>44314</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L12" t="n">
         <v>25000</v>
       </c>
-      <c r="L12" t="n">
-        <v>27000</v>
-      </c>
       <c r="M12" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44301</v>
+        <v>44503</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L13" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M13" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44301</v>
+        <v>44503</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="L14" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M14" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1080</v>
+        <v>1240</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44279</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M15" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>760</v>
+        <v>1640</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44279</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L16" t="n">
         <v>26000</v>
       </c>
       <c r="M16" t="n">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K18" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="L18" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="M18" t="n">
-        <v>32000</v>
+        <v>23500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1280</v>
+        <v>940</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44497</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K19" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="L19" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M19" t="n">
-        <v>27000</v>
+        <v>37500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44294</v>
+        <v>44223</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44294</v>
+        <v>44223</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,17 +1869,17 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K21" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M21" t="n">
         <v>24000</v>
       </c>
-      <c r="M21" t="n">
-        <v>23000</v>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44175</v>
+        <v>44356</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>27000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K23" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>840</v>
+        <v>560</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K24" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44238</v>
+        <v>44202</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K25" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M25" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44238</v>
+        <v>44336</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K26" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L26" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>920</v>
+        <v>980</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44468</v>
+        <v>44336</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K27" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="L27" t="n">
-        <v>45000</v>
+        <v>31000</v>
       </c>
       <c r="M27" t="n">
-        <v>44000</v>
+        <v>30500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1760</v>
+        <v>1220</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44329</v>
+        <v>44343</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K28" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L28" t="n">
         <v>26000</v>
       </c>
-      <c r="L28" t="n">
-        <v>28000</v>
-      </c>
       <c r="M28" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44329</v>
+        <v>44343</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="L29" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44266</v>
+        <v>44245</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44266</v>
+        <v>44245</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,17 +2589,17 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K31" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M31" t="n">
         <v>21000</v>
       </c>
-      <c r="L31" t="n">
-        <v>23000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>22000</v>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44482</v>
+        <v>44524</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K32" t="n">
-        <v>43000</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>44000</v>
+        <v>17000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1760</v>
+        <v>680</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44483</v>
+        <v>44524</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K33" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="M33" t="n">
-        <v>44000</v>
+        <v>37500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1760</v>
+        <v>1500</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44524</v>
+        <v>44216</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M34" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44524</v>
+        <v>44216</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>240</v>
+        <v>1600</v>
       </c>
       <c r="K35" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L35" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>37500</v>
+        <v>24000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44385</v>
+        <v>44189</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L36" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M36" t="n">
-        <v>25500</v>
+        <v>21000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1020</v>
+        <v>840</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44258</v>
+        <v>44189</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>37500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44258</v>
+        <v>44363</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L38" t="n">
         <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L39" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M39" t="n">
-        <v>29000</v>
+        <v>30500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1160</v>
+        <v>1220</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44349</v>
+        <v>44517</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3240,17 +3240,17 @@
         <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L40" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M40" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1360</v>
+        <v>1640</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M41" t="n">
-        <v>24000</v>
+        <v>39000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>960</v>
+        <v>1560</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L42" t="n">
-        <v>27000</v>
+        <v>47000</v>
       </c>
       <c r="M42" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1040</v>
+        <v>1800</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44202</v>
+        <v>44300</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L43" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M43" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44517</v>
+        <v>44300</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L44" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="M44" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1640</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44517</v>
+        <v>44203</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>500</v>
       </c>
       <c r="K45" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="L45" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M45" t="n">
-        <v>39000</v>
+        <v>21000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1560</v>
+        <v>840</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44517</v>
+        <v>44384</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>47000</v>
+        <v>26000</v>
       </c>
       <c r="M46" t="n">
-        <v>45000</v>
+        <v>25500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1800</v>
+        <v>1020</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L47" t="n">
         <v>18000</v>
       </c>
-      <c r="L47" t="n">
-        <v>20000</v>
-      </c>
       <c r="M47" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,17 +3813,17 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K48" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L48" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M48" t="n">
         <v>23000</v>
       </c>
-      <c r="M48" t="n">
-        <v>22000</v>
-      </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44328</v>
+        <v>44315</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,17 +3885,17 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K49" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M49" t="n">
         <v>24000</v>
       </c>
-      <c r="L49" t="n">
-        <v>26000</v>
-      </c>
-      <c r="M49" t="n">
-        <v>25000</v>
-      </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44328</v>
+        <v>44483</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K50" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L50" t="n">
-        <v>31000</v>
+        <v>45000</v>
       </c>
       <c r="M50" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1200</v>
+        <v>1760</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44195</v>
+        <v>44237</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K51" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L51" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M51" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44195</v>
+        <v>44237</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K52" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L52" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M52" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1360</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44216</v>
+        <v>44252</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K53" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L53" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M53" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>840</v>
+        <v>700</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44216</v>
+        <v>44252</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44272</v>
+        <v>44349</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K55" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>18500</v>
+        <v>29000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>740</v>
+        <v>1160</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44272</v>
+        <v>44349</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L56" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44308</v>
+        <v>44181</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L57" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>23000</v>
+        <v>13500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44308</v>
+        <v>44482</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K58" t="n">
-        <v>26000</v>
+        <v>43000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M58" t="n">
-        <v>27000</v>
+        <v>44000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1080</v>
+        <v>1760</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44293</v>
+        <v>44273</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K59" t="n">
         <v>17000</v>
       </c>
       <c r="L59" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M59" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44293</v>
+        <v>44273</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L60" t="n">
         <v>24000</v>
       </c>
       <c r="M60" t="n">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44336</v>
+        <v>44469</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>24000</v>
+        <v>47000</v>
       </c>
       <c r="L61" t="n">
-        <v>25000</v>
+        <v>49000</v>
       </c>
       <c r="M61" t="n">
-        <v>24500</v>
+        <v>48000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>980</v>
+        <v>1920</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44336</v>
+        <v>44265</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K62" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L62" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M62" t="n">
-        <v>30500</v>
+        <v>19000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1220</v>
+        <v>760</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44252</v>
+        <v>44265</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K63" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L63" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M63" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K64" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L64" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M64" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44510</v>
+        <v>44280</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K65" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L65" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M65" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44245</v>
+        <v>44209</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K66" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L66" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M66" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>560</v>
+        <v>740</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44245</v>
+        <v>44209</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L67" t="n">
         <v>22000</v>
       </c>
       <c r="M67" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44363</v>
+        <v>44525</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K68" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L68" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M68" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44363</v>
+        <v>44525</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L69" t="n">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="M69" t="n">
-        <v>30500</v>
+        <v>37500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1220</v>
+        <v>1500</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44503</v>
+        <v>44266</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K70" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L70" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M70" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1320</v>
+        <v>760</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44503</v>
+        <v>44266</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>500</v>
       </c>
       <c r="K71" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="L71" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="M71" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1240</v>
+        <v>880</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44503</v>
+        <v>44468</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5544,17 +5544,17 @@
         <v>400</v>
       </c>
       <c r="K72" t="n">
-        <v>40000</v>
+        <v>43000</v>
       </c>
       <c r="L72" t="n">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="M72" t="n">
-        <v>41000</v>
+        <v>44000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1640</v>
+        <v>1760</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44188</v>
+        <v>44532</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="K73" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M73" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44237</v>
+        <v>44532</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K74" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L74" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M74" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44237</v>
+        <v>44489</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K75" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L75" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M75" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44384</v>
+        <v>44210</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K76" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L76" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M76" t="n">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1020</v>
+        <v>740</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K77" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L77" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M77" t="n">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44210</v>
+        <v>44168</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="K78" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L78" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M78" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44315</v>
+        <v>44168</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K79" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L79" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M79" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>960</v>
+        <v>820</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K80" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L80" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M80" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K81" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L81" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M81" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44322</v>
+        <v>44161</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K82" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L82" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M82" t="n">
-        <v>23000</v>
+        <v>15500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>920</v>
+        <v>620</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,17 +6333,17 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K83" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L83" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M83" t="n">
         <v>25000</v>
       </c>
-      <c r="L83" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M83" t="n">
-        <v>26000</v>
-      </c>
       <c r="N83" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K84" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L84" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M84" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K85" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L85" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M85" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44357</v>
+        <v>44231</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L86" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M86" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44489</v>
+        <v>44231</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K87" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L87" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M87" t="n">
-        <v>44000</v>
+        <v>22500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1760</v>
+        <v>900</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44244</v>
+        <v>44490</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K88" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="L88" t="n">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="M88" t="n">
-        <v>14000</v>
+        <v>41500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>560</v>
+        <v>1660</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44244</v>
+        <v>44259</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L89" t="n">
         <v>18000</v>
       </c>
-      <c r="L89" t="n">
-        <v>20000</v>
-      </c>
       <c r="M89" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K90" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L90" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M90" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44259</v>
+        <v>44251</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K91" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L91" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M91" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="K92" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L92" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M92" t="n">
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1020</v>
+        <v>680</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44280</v>
+        <v>44286</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L93" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M93" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>680</v>
+        <v>1060</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K94" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L94" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M94" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44300</v>
+        <v>44279</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K95" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L95" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M95" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K96" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L96" t="n">
         <v>24000</v>
       </c>
-      <c r="L96" t="n">
-        <v>26000</v>
-      </c>
       <c r="M96" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44497</v>
+        <v>44322</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L97" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="M97" t="n">
-        <v>37500</v>
+        <v>26000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1500</v>
+        <v>1040</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44525</v>
+        <v>44391</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K98" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L98" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M98" t="n">
-        <v>17000</v>
+        <v>29500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>680</v>
+        <v>1180</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44525</v>
+        <v>44510</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K99" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L99" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M99" t="n">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44286</v>
+        <v>44321</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L100" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M100" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44286</v>
+        <v>44321</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K101" t="n">
         <v>25000</v>
       </c>
       <c r="L101" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M101" t="n">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44307</v>
+        <v>44385</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K102" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L102" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M102" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7776,13 +7776,13 @@
         <v>600</v>
       </c>
       <c r="K103" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L103" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M103" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44469</v>
+        <v>44308</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K104" t="n">
-        <v>47000</v>
+        <v>26000</v>
       </c>
       <c r="L104" t="n">
-        <v>49000</v>
+        <v>28000</v>
       </c>
       <c r="M104" t="n">
-        <v>48000</v>
+        <v>27000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1920</v>
+        <v>1080</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44230</v>
+        <v>44350</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L105" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M105" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44160</v>
+        <v>44350</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1500</v>
+        <v>340</v>
       </c>
       <c r="K106" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="L106" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M106" t="n">
-        <v>16500</v>
+        <v>34000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>660</v>
+        <v>1360</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44273</v>
+        <v>44238</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K107" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L107" t="n">
         <v>20000</v>
       </c>
       <c r="M107" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44273</v>
+        <v>44238</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K108" t="n">
         <v>22000</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44350</v>
+        <v>44175</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K109" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L109" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M109" t="n">
-        <v>27500</v>
+        <v>12500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44350</v>
+        <v>44188</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>340</v>
+        <v>3100</v>
       </c>
       <c r="K110" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L110" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M110" t="n">
-        <v>34000</v>
+        <v>19000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1360</v>
+        <v>760</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44167</v>
+        <v>44258</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K111" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L111" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M111" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44167</v>
+        <v>44258</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K112" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L112" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M112" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>860</v>
+        <v>960</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44181</v>
+        <v>44224</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K113" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L113" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M113" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44189</v>
+        <v>44329</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K114" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L114" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M114" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44189</v>
+        <v>44329</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K115" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L115" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M115" t="n">
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44335</v>
+        <v>44195</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K116" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L116" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M116" t="n">
-        <v>26500</v>
+        <v>22000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1060</v>
+        <v>880</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44335</v>
+        <v>44195</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K117" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L117" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M117" t="n">
-        <v>30500</v>
+        <v>34000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1220</v>
+        <v>1360</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8856,14 +8856,14 @@
         <v>800</v>
       </c>
       <c r="K118" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L118" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M118" t="n">
         <v>25000</v>
       </c>
-      <c r="M118" t="n">
-        <v>24000</v>
-      </c>
       <c r="N118" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44224</v>
+        <v>44272</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K119" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L119" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M119" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K120" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="L120" t="n">
-        <v>43000</v>
+        <v>24000</v>
       </c>
       <c r="M120" t="n">
-        <v>41500</v>
+        <v>23000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1660</v>
+        <v>920</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44314</v>
+        <v>44545</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>24000</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44503</v>
+        <v>44545</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L13" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1320</v>
+        <v>920</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44503</v>
+        <v>44314</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1240</v>
+        <v>960</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L15" t="n">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="M15" t="n">
-        <v>41000</v>
+        <v>33000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1640</v>
+        <v>1320</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44503</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L16" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="M16" t="n">
-        <v>25500</v>
+        <v>31000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1020</v>
+        <v>1240</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44293</v>
+        <v>44503</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>41000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>700</v>
+        <v>1640</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44293</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L18" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M18" t="n">
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>940</v>
+        <v>1020</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44497</v>
+        <v>44293</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>37500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44223</v>
+        <v>44293</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K20" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M20" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>840</v>
+        <v>940</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L21" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M21" t="n">
-        <v>24000</v>
+        <v>37500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44356</v>
+        <v>44223</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K22" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M22" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44244</v>
+        <v>44223</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M23" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44244</v>
+        <v>44356</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M24" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K25" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44336</v>
+        <v>44244</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K26" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>980</v>
+        <v>760</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44336</v>
+        <v>44202</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,13 +2304,13 @@
         <v>700</v>
       </c>
       <c r="K27" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L27" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M27" t="n">
-        <v>30500</v>
+        <v>23000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1220</v>
+        <v>920</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K28" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L28" t="n">
         <v>25000</v>
       </c>
-      <c r="L28" t="n">
-        <v>26000</v>
-      </c>
       <c r="M28" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L29" t="n">
         <v>31000</v>
       </c>
-      <c r="L29" t="n">
-        <v>33000</v>
-      </c>
       <c r="M29" t="n">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1280</v>
+        <v>1220</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M30" t="n">
-        <v>14000</v>
+        <v>25500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L31" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M31" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>840</v>
+        <v>1280</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K32" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L33" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M33" t="n">
-        <v>37500</v>
+        <v>21000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1500</v>
+        <v>840</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44216</v>
+        <v>44524</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="K34" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L34" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44216</v>
+        <v>44524</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1600</v>
+        <v>240</v>
       </c>
       <c r="K35" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M35" t="n">
-        <v>24000</v>
+        <v>37500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K36" t="n">
         <v>20000</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K37" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L37" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>37500</v>
+        <v>24000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44363</v>
+        <v>44189</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K38" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M38" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>980</v>
+        <v>840</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44363</v>
+        <v>44189</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L39" t="n">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="M39" t="n">
-        <v>30500</v>
+        <v>37500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1220</v>
+        <v>1500</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44517</v>
+        <v>44363</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K40" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L40" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M40" t="n">
-        <v>41000</v>
+        <v>24500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1640</v>
+        <v>980</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44517</v>
+        <v>44363</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K41" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L41" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M41" t="n">
-        <v>39000</v>
+        <v>30500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1560</v>
+        <v>1220</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3384,17 +3384,17 @@
         <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L42" t="n">
-        <v>47000</v>
+        <v>42000</v>
       </c>
       <c r="M42" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L43" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M43" t="n">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L44" t="n">
-        <v>26000</v>
+        <v>47000</v>
       </c>
       <c r="M44" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44203</v>
+        <v>44300</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K45" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L45" t="n">
         <v>20000</v>
       </c>
-      <c r="L45" t="n">
-        <v>22000</v>
-      </c>
       <c r="M45" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44384</v>
+        <v>44300</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L46" t="n">
         <v>26000</v>
       </c>
       <c r="M46" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44294</v>
+        <v>44203</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M47" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44294</v>
+        <v>44384</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M48" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K49" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M49" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44483</v>
+        <v>44294</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K50" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="L50" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M50" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1760</v>
+        <v>920</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44237</v>
+        <v>44315</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L51" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44237</v>
+        <v>44483</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K52" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L52" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M52" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K53" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L53" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M53" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4248,14 +4248,14 @@
         <v>1600</v>
       </c>
       <c r="K54" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M54" t="n">
         <v>23000</v>
       </c>
-      <c r="L54" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M54" t="n">
-        <v>24000</v>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L55" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M55" t="n">
-        <v>29000</v>
+        <v>17500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K56" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L56" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M56" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M57" t="n">
-        <v>13500</v>
+        <v>29000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>540</v>
+        <v>1160</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44482</v>
+        <v>44349</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="L58" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M58" t="n">
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1760</v>
+        <v>1360</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44273</v>
+        <v>44181</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K59" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L59" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>740</v>
+        <v>540</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K60" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L60" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M60" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K61" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="L61" t="n">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="M61" t="n">
-        <v>48000</v>
+        <v>18500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1920</v>
+        <v>740</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K62" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L62" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M62" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K63" t="n">
-        <v>21000</v>
+        <v>47000</v>
       </c>
       <c r="L63" t="n">
-        <v>23000</v>
+        <v>49000</v>
       </c>
       <c r="M63" t="n">
-        <v>22000</v>
+        <v>48000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>880</v>
+        <v>1920</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K64" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L64" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M64" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5040,14 +5040,14 @@
         <v>700</v>
       </c>
       <c r="K65" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M65" t="n">
         <v>22000</v>
       </c>
-      <c r="L65" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M65" t="n">
-        <v>23000</v>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K66" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L66" t="n">
         <v>18000</v>
       </c>
-      <c r="L66" t="n">
-        <v>19000</v>
-      </c>
       <c r="M66" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K67" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L67" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M67" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K68" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L68" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M68" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K69" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L69" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M69" t="n">
-        <v>37500</v>
+        <v>21500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1500</v>
+        <v>860</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K70" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L70" t="n">
         <v>18000</v>
       </c>
-      <c r="L70" t="n">
-        <v>20000</v>
-      </c>
       <c r="M70" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K71" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L71" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M71" t="n">
-        <v>22000</v>
+        <v>37500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>880</v>
+        <v>1500</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44468</v>
+        <v>44266</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K72" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L72" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M72" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44532</v>
+        <v>44266</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K73" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L73" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M73" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,20 +5685,20 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K74" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L74" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M74" t="n">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1040</v>
+        <v>1760</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L75" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="M75" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1760</v>
+        <v>600</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5832,13 +5832,13 @@
         <v>500</v>
       </c>
       <c r="K76" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L76" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M76" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>740</v>
+        <v>1040</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K77" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L77" t="n">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="M77" t="n">
-        <v>20500</v>
+        <v>44000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>820</v>
+        <v>1760</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L78" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M78" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>520</v>
+        <v>740</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K79" t="n">
         <v>20000</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K80" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L80" t="n">
         <v>14000</v>
       </c>
-      <c r="L80" t="n">
-        <v>15000</v>
-      </c>
       <c r="M80" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K81" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L81" t="n">
         <v>21000</v>
       </c>
-      <c r="L81" t="n">
-        <v>22000</v>
-      </c>
       <c r="M81" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K82" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L82" t="n">
         <v>15000</v>
       </c>
-      <c r="L82" t="n">
-        <v>16000</v>
-      </c>
       <c r="M82" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6336,13 +6336,13 @@
         <v>1100</v>
       </c>
       <c r="K83" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L83" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M83" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K84" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L84" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M84" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K85" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L85" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M85" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L86" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M86" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K87" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L87" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M87" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K88" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L88" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M88" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6768,13 +6768,13 @@
         <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L89" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M89" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6840,13 +6840,13 @@
         <v>700</v>
       </c>
       <c r="K90" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L90" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M90" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
         <v>17000</v>
       </c>
       <c r="L91" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M91" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K92" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L92" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M92" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K93" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L93" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M93" t="n">
-        <v>26500</v>
+        <v>18000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1060</v>
+        <v>720</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K94" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L94" t="n">
         <v>18000</v>
       </c>
-      <c r="L94" t="n">
-        <v>20000</v>
-      </c>
       <c r="M94" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K95" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L95" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M95" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7272,13 +7272,13 @@
         <v>1100</v>
       </c>
       <c r="K96" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L96" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M96" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,17 +7341,17 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K97" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L97" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M97" t="n">
         <v>25000</v>
       </c>
-      <c r="L97" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M97" t="n">
-        <v>26000</v>
-      </c>
       <c r="N97" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K98" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L98" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M98" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K99" t="n">
         <v>25000</v>
       </c>
       <c r="L99" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M99" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K100" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L100" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M100" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
         <v>25000</v>
       </c>
       <c r="L101" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M101" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K102" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L102" t="n">
         <v>25000</v>
       </c>
-      <c r="L102" t="n">
-        <v>26000</v>
-      </c>
       <c r="M102" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K103" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L103" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M103" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K104" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L104" t="n">
         <v>26000</v>
       </c>
-      <c r="L104" t="n">
-        <v>28000</v>
-      </c>
       <c r="M104" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K105" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L105" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M105" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K106" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L106" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M106" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L107" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M107" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K108" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L108" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M108" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K109" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L109" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M109" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K110" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L110" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M110" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K111" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L111" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M111" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K112" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L112" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M112" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8496,13 +8496,13 @@
         <v>700</v>
       </c>
       <c r="K113" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L113" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M113" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K114" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L114" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M114" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K115" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L115" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M115" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K116" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L116" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M116" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K117" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L117" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M117" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8856,13 +8856,13 @@
         <v>800</v>
       </c>
       <c r="K118" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L118" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M118" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K119" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L119" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M119" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,58 +8973,202 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>800</v>
+      </c>
+      <c r="K120" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L120" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M120" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>25</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E120" t="n">
-        <v>4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>300</v>
+      </c>
+      <c r="K121" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L121" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M121" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>25</v>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
         <v>300</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K122" t="n">
         <v>22000</v>
       </c>
-      <c r="L120" t="n">
+      <c r="L122" t="n">
         <v>24000</v>
       </c>
-      <c r="M120" t="n">
+      <c r="M122" t="n">
         <v>23000</v>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P120" t="n">
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
         <v>920</v>
       </c>
-      <c r="Q120" t="n">
-        <v>25</v>
-      </c>
-      <c r="R120" t="inlineStr">
+      <c r="Q122" t="n">
+        <v>25</v>
+      </c>
+      <c r="R122" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L53" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>760</v>
+        <v>540</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K54" t="n">
         <v>22000</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K55" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L55" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M55" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4392,14 +4392,14 @@
         <v>1600</v>
       </c>
       <c r="K56" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M56" t="n">
         <v>23000</v>
       </c>
-      <c r="L56" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M56" t="n">
-        <v>24000</v>
-      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K57" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L57" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M57" t="n">
-        <v>29000</v>
+        <v>17500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K58" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L58" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M58" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K59" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>13500</v>
+        <v>29000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>540</v>
+        <v>1160</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44482</v>
+        <v>44349</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K60" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="L60" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M60" t="n">
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1760</v>
+        <v>1360</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44273</v>
+        <v>44181</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K61" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L61" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M61" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>740</v>
+        <v>540</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K62" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L62" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M62" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K63" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="L63" t="n">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="M63" t="n">
-        <v>48000</v>
+        <v>18500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1920</v>
+        <v>740</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K64" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L64" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M64" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K65" t="n">
-        <v>21000</v>
+        <v>47000</v>
       </c>
       <c r="L65" t="n">
-        <v>23000</v>
+        <v>49000</v>
       </c>
       <c r="M65" t="n">
-        <v>22000</v>
+        <v>48000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>880</v>
+        <v>1920</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K66" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L66" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M66" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5184,14 +5184,14 @@
         <v>700</v>
       </c>
       <c r="K67" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M67" t="n">
         <v>22000</v>
       </c>
-      <c r="L67" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M67" t="n">
-        <v>23000</v>
-      </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K68" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L68" t="n">
         <v>18000</v>
       </c>
-      <c r="L68" t="n">
-        <v>19000</v>
-      </c>
       <c r="M68" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K69" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L69" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M69" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K70" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L70" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M70" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K71" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L71" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M71" t="n">
-        <v>37500</v>
+        <v>21500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1500</v>
+        <v>860</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K72" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L72" t="n">
         <v>18000</v>
       </c>
-      <c r="L72" t="n">
-        <v>20000</v>
-      </c>
       <c r="M72" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K73" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L73" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M73" t="n">
-        <v>22000</v>
+        <v>37500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>880</v>
+        <v>1500</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44468</v>
+        <v>44266</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,20 +5685,20 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K74" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L74" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M74" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44532</v>
+        <v>44266</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K75" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L75" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M75" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K76" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L76" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M76" t="n">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1040</v>
+        <v>1760</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K77" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L77" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="M77" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1760</v>
+        <v>600</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5976,13 +5976,13 @@
         <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L78" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M78" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>740</v>
+        <v>1040</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K79" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L79" t="n">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="M79" t="n">
-        <v>20500</v>
+        <v>44000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>820</v>
+        <v>1760</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L80" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M80" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>520</v>
+        <v>740</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K81" t="n">
         <v>20000</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K82" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L82" t="n">
         <v>14000</v>
       </c>
-      <c r="L82" t="n">
-        <v>15000</v>
-      </c>
       <c r="M82" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K83" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L83" t="n">
         <v>21000</v>
       </c>
-      <c r="L83" t="n">
-        <v>22000</v>
-      </c>
       <c r="M83" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K84" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L84" t="n">
         <v>15000</v>
       </c>
-      <c r="L84" t="n">
-        <v>16000</v>
-      </c>
       <c r="M84" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6480,13 +6480,13 @@
         <v>1100</v>
       </c>
       <c r="K85" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L85" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M85" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K86" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M86" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K87" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L87" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M87" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K88" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L88" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M88" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K89" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L89" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M89" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K90" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L90" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M90" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6912,13 +6912,13 @@
         <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L91" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M91" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6984,13 +6984,13 @@
         <v>700</v>
       </c>
       <c r="K92" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L92" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M92" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
         <v>17000</v>
       </c>
       <c r="L93" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M93" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K94" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L94" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M94" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K95" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L95" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M95" t="n">
-        <v>26500</v>
+        <v>18000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1060</v>
+        <v>720</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K96" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L96" t="n">
         <v>18000</v>
       </c>
-      <c r="L96" t="n">
-        <v>20000</v>
-      </c>
       <c r="M96" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K97" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L97" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M97" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7416,13 +7416,13 @@
         <v>1100</v>
       </c>
       <c r="K98" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L98" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M98" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,17 +7485,17 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K99" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M99" t="n">
         <v>25000</v>
       </c>
-      <c r="L99" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M99" t="n">
-        <v>26000</v>
-      </c>
       <c r="N99" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K100" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L100" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M100" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
         <v>25000</v>
       </c>
       <c r="L101" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M101" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K102" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L102" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M102" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K103" t="n">
         <v>25000</v>
       </c>
       <c r="L103" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M103" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K104" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L104" t="n">
         <v>25000</v>
       </c>
-      <c r="L104" t="n">
-        <v>26000</v>
-      </c>
       <c r="M104" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K105" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L105" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M105" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K106" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L106" t="n">
         <v>26000</v>
       </c>
-      <c r="L106" t="n">
-        <v>28000</v>
-      </c>
       <c r="M106" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K107" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L107" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M107" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K108" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L108" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M108" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K109" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L109" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M109" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K110" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L110" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M110" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K111" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L111" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M111" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K112" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L112" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M112" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K113" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L113" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M113" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K114" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L114" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M114" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8640,13 +8640,13 @@
         <v>700</v>
       </c>
       <c r="K115" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L115" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M115" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K116" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L116" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M116" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K117" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L117" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M117" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K118" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L118" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M118" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K119" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L119" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M119" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -9000,13 +9000,13 @@
         <v>800</v>
       </c>
       <c r="K120" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L120" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M120" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K121" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L121" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M121" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,58 +9117,202 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>800</v>
+      </c>
+      <c r="K122" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L122" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M122" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>25</v>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E122" t="n">
-        <v>4</v>
-      </c>
-      <c r="F122" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="E123" t="n">
+        <v>4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>300</v>
+      </c>
+      <c r="K123" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L123" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M123" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>25</v>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
         <v>300</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K124" t="n">
         <v>22000</v>
       </c>
-      <c r="L122" t="n">
+      <c r="L124" t="n">
         <v>24000</v>
       </c>
-      <c r="M122" t="n">
+      <c r="M124" t="n">
         <v>23000</v>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P122" t="n">
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
         <v>920</v>
       </c>
-      <c r="Q122" t="n">
-        <v>25</v>
-      </c>
-      <c r="R122" t="inlineStr">
+      <c r="Q124" t="n">
+        <v>25</v>
+      </c>
+      <c r="R124" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44545</v>
+        <v>44552</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44545</v>
+        <v>44552</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44314</v>
+        <v>44545</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>24000</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44545</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1440,13 +1440,13 @@
         <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L15" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="M15" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1320</v>
+        <v>920</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44503</v>
+        <v>44314</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K16" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1240</v>
+        <v>960</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L17" t="n">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="M17" t="n">
-        <v>41000</v>
+        <v>33000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1640</v>
+        <v>1320</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44503</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L18" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="M18" t="n">
-        <v>25500</v>
+        <v>31000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1020</v>
+        <v>1240</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44293</v>
+        <v>44503</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>41000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>700</v>
+        <v>1640</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44293</v>
+        <v>44377</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M20" t="n">
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>940</v>
+        <v>1020</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44497</v>
+        <v>44293</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K21" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>37500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44223</v>
+        <v>44293</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K22" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L22" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M22" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>840</v>
+        <v>940</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K23" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M23" t="n">
-        <v>24000</v>
+        <v>37500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44356</v>
+        <v>44223</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K24" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L24" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M24" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44244</v>
+        <v>44223</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M25" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44244</v>
+        <v>44356</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M26" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>760</v>
+        <v>1080</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K27" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44336</v>
+        <v>44244</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K28" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L28" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>980</v>
+        <v>760</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44336</v>
+        <v>44202</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,13 +2448,13 @@
         <v>700</v>
       </c>
       <c r="K29" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L29" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M29" t="n">
-        <v>30500</v>
+        <v>23000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1220</v>
+        <v>920</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K30" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L30" t="n">
         <v>25000</v>
       </c>
-      <c r="L30" t="n">
-        <v>26000</v>
-      </c>
       <c r="M30" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K31" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L31" t="n">
         <v>31000</v>
       </c>
-      <c r="L31" t="n">
-        <v>33000</v>
-      </c>
       <c r="M31" t="n">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1280</v>
+        <v>1220</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M32" t="n">
-        <v>14000</v>
+        <v>25500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L33" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M33" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>840</v>
+        <v>1280</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K34" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K35" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L35" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M35" t="n">
-        <v>37500</v>
+        <v>21000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1500</v>
+        <v>840</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44216</v>
+        <v>44524</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="K36" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L36" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44216</v>
+        <v>44524</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1600</v>
+        <v>240</v>
       </c>
       <c r="K37" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M37" t="n">
-        <v>24000</v>
+        <v>37500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K38" t="n">
         <v>20000</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K39" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M39" t="n">
-        <v>37500</v>
+        <v>24000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44363</v>
+        <v>44189</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K40" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L40" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M40" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>980</v>
+        <v>840</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44363</v>
+        <v>44189</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L41" t="n">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="M41" t="n">
-        <v>30500</v>
+        <v>37500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1220</v>
+        <v>1500</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44517</v>
+        <v>44363</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K42" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L42" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>41000</v>
+        <v>24500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1640</v>
+        <v>980</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44517</v>
+        <v>44363</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K43" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L43" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M43" t="n">
-        <v>39000</v>
+        <v>30500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1560</v>
+        <v>1220</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,17 +3528,17 @@
         <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L44" t="n">
-        <v>47000</v>
+        <v>42000</v>
       </c>
       <c r="M44" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K45" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L45" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M45" t="n">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L46" t="n">
-        <v>26000</v>
+        <v>47000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44203</v>
+        <v>44300</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K47" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L47" t="n">
         <v>20000</v>
       </c>
-      <c r="L47" t="n">
-        <v>22000</v>
-      </c>
       <c r="M47" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44384</v>
+        <v>44300</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L48" t="n">
         <v>26000</v>
       </c>
       <c r="M48" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44294</v>
+        <v>44203</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3888,13 +3888,13 @@
         <v>500</v>
       </c>
       <c r="K49" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L49" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M49" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44294</v>
+        <v>44384</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K50" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L50" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M50" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K51" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M51" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44483</v>
+        <v>44294</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="L52" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M52" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1760</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44546</v>
+        <v>44315</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4176,13 +4176,13 @@
         <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M53" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44546</v>
+        <v>44483</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L54" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M54" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K55" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L55" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M55" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>760</v>
+        <v>540</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
         <v>22000</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K57" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L57" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M57" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4536,14 +4536,14 @@
         <v>1600</v>
       </c>
       <c r="K58" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M58" t="n">
         <v>23000</v>
       </c>
-      <c r="L58" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M58" t="n">
-        <v>24000</v>
-      </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M59" t="n">
-        <v>29000</v>
+        <v>17500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K60" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L60" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M60" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K61" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>13500</v>
+        <v>29000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>540</v>
+        <v>1160</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44482</v>
+        <v>44349</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K62" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="L62" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M62" t="n">
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1760</v>
+        <v>1360</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44273</v>
+        <v>44181</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K63" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L63" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M63" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>740</v>
+        <v>540</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L64" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M64" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K65" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="L65" t="n">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="M65" t="n">
-        <v>48000</v>
+        <v>18500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1920</v>
+        <v>740</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L66" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M66" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>21000</v>
+        <v>47000</v>
       </c>
       <c r="L67" t="n">
-        <v>23000</v>
+        <v>49000</v>
       </c>
       <c r="M67" t="n">
-        <v>22000</v>
+        <v>48000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>880</v>
+        <v>1920</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K68" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L68" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M68" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5328,14 +5328,14 @@
         <v>700</v>
       </c>
       <c r="K69" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M69" t="n">
         <v>22000</v>
       </c>
-      <c r="L69" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M69" t="n">
-        <v>23000</v>
-      </c>
       <c r="N69" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K70" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L70" t="n">
         <v>18000</v>
       </c>
-      <c r="L70" t="n">
-        <v>19000</v>
-      </c>
       <c r="M70" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K71" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L71" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M71" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K72" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L72" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M72" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K73" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L73" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M73" t="n">
-        <v>37500</v>
+        <v>21500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1500</v>
+        <v>860</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K74" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L74" t="n">
         <v>18000</v>
       </c>
-      <c r="L74" t="n">
-        <v>20000</v>
-      </c>
       <c r="M74" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K75" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L75" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M75" t="n">
-        <v>22000</v>
+        <v>37500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>880</v>
+        <v>1500</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44468</v>
+        <v>44266</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K76" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L76" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M76" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44532</v>
+        <v>44266</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K77" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L77" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M77" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L78" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M78" t="n">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1040</v>
+        <v>1760</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K79" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L79" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="M79" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1760</v>
+        <v>600</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6120,13 +6120,13 @@
         <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L80" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M80" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>740</v>
+        <v>1040</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K81" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L81" t="n">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="M81" t="n">
-        <v>20500</v>
+        <v>44000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>820</v>
+        <v>1760</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K82" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L82" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M82" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>520</v>
+        <v>740</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K83" t="n">
         <v>20000</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K84" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L84" t="n">
         <v>14000</v>
       </c>
-      <c r="L84" t="n">
-        <v>15000</v>
-      </c>
       <c r="M84" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K85" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L85" t="n">
         <v>21000</v>
       </c>
-      <c r="L85" t="n">
-        <v>22000</v>
-      </c>
       <c r="M85" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K86" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L86" t="n">
         <v>15000</v>
       </c>
-      <c r="L86" t="n">
-        <v>16000</v>
-      </c>
       <c r="M86" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6624,13 +6624,13 @@
         <v>1100</v>
       </c>
       <c r="K87" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L87" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M87" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K88" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L88" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M88" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K89" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L89" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M89" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L90" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M90" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K91" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L91" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M91" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L92" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M92" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7056,13 +7056,13 @@
         <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L93" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M93" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7128,13 +7128,13 @@
         <v>700</v>
       </c>
       <c r="K94" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L94" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M94" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K95" t="n">
         <v>17000</v>
       </c>
       <c r="L95" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M95" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K96" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L96" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M96" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K97" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L97" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M97" t="n">
-        <v>26500</v>
+        <v>18000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1060</v>
+        <v>720</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K98" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L98" t="n">
         <v>18000</v>
       </c>
-      <c r="L98" t="n">
-        <v>20000</v>
-      </c>
       <c r="M98" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K99" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L99" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M99" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7560,13 +7560,13 @@
         <v>1100</v>
       </c>
       <c r="K100" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L100" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M100" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,17 +7629,17 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K101" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M101" t="n">
         <v>25000</v>
       </c>
-      <c r="L101" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M101" t="n">
-        <v>26000</v>
-      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K102" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L102" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M102" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
         <v>25000</v>
       </c>
       <c r="L103" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M103" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K104" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L104" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M104" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K105" t="n">
         <v>25000</v>
       </c>
       <c r="L105" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M105" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K106" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L106" t="n">
         <v>25000</v>
       </c>
-      <c r="L106" t="n">
-        <v>26000</v>
-      </c>
       <c r="M106" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K107" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L107" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M107" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K108" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L108" t="n">
         <v>26000</v>
       </c>
-      <c r="L108" t="n">
-        <v>28000</v>
-      </c>
       <c r="M108" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L109" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M109" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K110" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L110" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M110" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K111" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L111" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M111" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K112" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L112" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M112" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K113" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L113" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M113" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K114" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L114" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M114" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K115" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L115" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M115" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K116" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L116" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M116" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8784,13 +8784,13 @@
         <v>700</v>
       </c>
       <c r="K117" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L117" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M117" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K118" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L118" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M118" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K119" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L119" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M119" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K120" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L120" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M120" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K121" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L121" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M121" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9144,13 +9144,13 @@
         <v>800</v>
       </c>
       <c r="K122" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L122" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M122" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K123" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L123" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M123" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,58 +9261,202 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>800</v>
+      </c>
+      <c r="K124" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M124" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>25</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E124" t="n">
-        <v>4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="E125" t="n">
+        <v>4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>300</v>
+      </c>
+      <c r="K125" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L125" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M125" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>25</v>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
         <v>300</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K126" t="n">
         <v>22000</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L126" t="n">
         <v>24000</v>
       </c>
-      <c r="M124" t="n">
+      <c r="M126" t="n">
         <v>23000</v>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P124" t="n">
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
         <v>920</v>
       </c>
-      <c r="Q124" t="n">
-        <v>25</v>
-      </c>
-      <c r="R124" t="inlineStr">
+      <c r="Q126" t="n">
+        <v>25</v>
+      </c>
+      <c r="R126" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="K86" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M86" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1100</v>
+        <v>520</v>
       </c>
       <c r="K87" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L87" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M87" t="n">
-        <v>21500</v>
+        <v>31000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>860</v>
+        <v>1240</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K88" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L88" t="n">
         <v>15000</v>
       </c>
-      <c r="L88" t="n">
-        <v>16000</v>
-      </c>
       <c r="M88" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6768,13 +6768,13 @@
         <v>1100</v>
       </c>
       <c r="K89" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L89" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M89" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K90" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L90" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M90" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K91" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L91" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M91" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K92" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L92" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M92" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K93" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L93" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M93" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K94" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L94" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M94" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7200,13 +7200,13 @@
         <v>600</v>
       </c>
       <c r="K95" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L95" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M95" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7272,13 +7272,13 @@
         <v>700</v>
       </c>
       <c r="K96" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L96" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M96" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K97" t="n">
         <v>17000</v>
       </c>
       <c r="L97" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M97" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K98" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L98" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M98" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K99" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L99" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M99" t="n">
-        <v>26500</v>
+        <v>18000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1060</v>
+        <v>720</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K100" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L100" t="n">
         <v>18000</v>
       </c>
-      <c r="L100" t="n">
-        <v>20000</v>
-      </c>
       <c r="M100" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K101" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L101" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M101" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7704,13 +7704,13 @@
         <v>1100</v>
       </c>
       <c r="K102" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L102" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M102" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,17 +7773,17 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K103" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L103" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M103" t="n">
         <v>25000</v>
       </c>
-      <c r="L103" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M103" t="n">
-        <v>26000</v>
-      </c>
       <c r="N103" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K104" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L104" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M104" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
         <v>25000</v>
       </c>
       <c r="L105" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M105" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K106" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L106" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M106" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K107" t="n">
         <v>25000</v>
       </c>
       <c r="L107" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M107" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K108" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L108" t="n">
         <v>25000</v>
       </c>
-      <c r="L108" t="n">
-        <v>26000</v>
-      </c>
       <c r="M108" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K109" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L109" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M109" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K110" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L110" t="n">
         <v>26000</v>
       </c>
-      <c r="L110" t="n">
-        <v>28000</v>
-      </c>
       <c r="M110" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K111" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L111" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M111" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K112" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L112" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M112" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K113" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L113" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M113" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K114" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L114" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M114" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K115" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L115" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M115" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K116" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L116" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M116" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K117" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L117" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M117" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K118" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L118" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M118" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8928,13 +8928,13 @@
         <v>700</v>
       </c>
       <c r="K119" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L119" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M119" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K120" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L120" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M120" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K121" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L121" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M121" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K122" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L122" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M122" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L123" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M123" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9288,13 +9288,13 @@
         <v>800</v>
       </c>
       <c r="K124" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L124" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M124" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K125" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L125" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M125" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,58 +9405,202 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>800</v>
+      </c>
+      <c r="K126" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L126" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M126" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>25</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E126" t="n">
-        <v>4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="E127" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>300</v>
+      </c>
+      <c r="K127" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L127" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M127" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>25</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
         <v>300</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K128" t="n">
         <v>22000</v>
       </c>
-      <c r="L126" t="n">
+      <c r="L128" t="n">
         <v>24000</v>
       </c>
-      <c r="M126" t="n">
+      <c r="M128" t="n">
         <v>23000</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P126" t="n">
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
         <v>920</v>
       </c>
-      <c r="Q126" t="n">
-        <v>25</v>
-      </c>
-      <c r="R126" t="inlineStr">
+      <c r="Q128" t="n">
+        <v>25</v>
+      </c>
+      <c r="R128" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1300</v>
+        <v>640</v>
       </c>
       <c r="K100" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L100" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M100" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K101" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L101" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M101" t="n">
-        <v>26500</v>
+        <v>29000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1060</v>
+        <v>1160</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K102" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L102" t="n">
         <v>18000</v>
       </c>
-      <c r="L102" t="n">
-        <v>20000</v>
-      </c>
       <c r="M102" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L103" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M103" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7848,13 +7848,13 @@
         <v>1100</v>
       </c>
       <c r="K104" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L104" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M104" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,17 +7917,17 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K105" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M105" t="n">
         <v>25000</v>
       </c>
-      <c r="L105" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M105" t="n">
-        <v>26000</v>
-      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K106" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L106" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M106" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
         <v>25000</v>
       </c>
       <c r="L107" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M107" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L108" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M108" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K109" t="n">
         <v>25000</v>
       </c>
       <c r="L109" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M109" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K110" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L110" t="n">
         <v>25000</v>
       </c>
-      <c r="L110" t="n">
-        <v>26000</v>
-      </c>
       <c r="M110" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L111" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M111" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K112" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L112" t="n">
         <v>26000</v>
       </c>
-      <c r="L112" t="n">
-        <v>28000</v>
-      </c>
       <c r="M112" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K113" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L113" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M113" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K114" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L114" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M114" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L115" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M115" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K116" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L116" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M116" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K117" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L117" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M117" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K118" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L118" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M118" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K119" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L119" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M119" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K120" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L120" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M120" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9072,13 +9072,13 @@
         <v>700</v>
       </c>
       <c r="K121" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L121" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M121" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K122" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L122" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M122" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K123" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L123" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M123" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K124" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L124" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M124" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K125" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L125" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M125" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9432,13 +9432,13 @@
         <v>800</v>
       </c>
       <c r="K126" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L126" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M126" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K127" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L127" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M127" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,58 +9549,202 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>800</v>
+      </c>
+      <c r="K128" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L128" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M128" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>25</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E128" t="n">
-        <v>4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>300</v>
+      </c>
+      <c r="K129" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L129" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M129" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>25</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
         <v>300</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K130" t="n">
         <v>22000</v>
       </c>
-      <c r="L128" t="n">
+      <c r="L130" t="n">
         <v>24000</v>
       </c>
-      <c r="M128" t="n">
+      <c r="M130" t="n">
         <v>23000</v>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P128" t="n">
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
         <v>920</v>
       </c>
-      <c r="Q128" t="n">
-        <v>25</v>
-      </c>
-      <c r="R128" t="inlineStr">
+      <c r="Q130" t="n">
+        <v>25</v>
+      </c>
+      <c r="R130" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R130"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44336</v>
+        <v>44560</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L30" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M30" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44336</v>
+        <v>44560</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,17 +2589,17 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K31" t="n">
         <v>30000</v>
       </c>
       <c r="L31" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M31" t="n">
         <v>31000</v>
       </c>
-      <c r="M31" t="n">
-        <v>30500</v>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K32" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L32" t="n">
         <v>25000</v>
       </c>
-      <c r="L32" t="n">
-        <v>26000</v>
-      </c>
       <c r="M32" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K33" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L33" t="n">
         <v>31000</v>
       </c>
-      <c r="L33" t="n">
-        <v>33000</v>
-      </c>
       <c r="M33" t="n">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1280</v>
+        <v>1220</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M34" t="n">
-        <v>14000</v>
+        <v>25500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L35" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M35" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>840</v>
+        <v>1280</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K37" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L37" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M37" t="n">
-        <v>37500</v>
+        <v>21000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1500</v>
+        <v>840</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44216</v>
+        <v>44524</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="K38" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L38" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M38" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44216</v>
+        <v>44524</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1600</v>
+        <v>240</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L39" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M39" t="n">
-        <v>24000</v>
+        <v>37500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K40" t="n">
         <v>20000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K41" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L41" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>37500</v>
+        <v>24000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44363</v>
+        <v>44189</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K42" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M42" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>980</v>
+        <v>840</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44363</v>
+        <v>44189</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L43" t="n">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="M43" t="n">
-        <v>30500</v>
+        <v>37500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1220</v>
+        <v>1500</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44517</v>
+        <v>44363</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K44" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L44" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M44" t="n">
-        <v>41000</v>
+        <v>24500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1640</v>
+        <v>980</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44517</v>
+        <v>44363</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K45" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L45" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M45" t="n">
-        <v>39000</v>
+        <v>30500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1560</v>
+        <v>1220</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3672,17 +3672,17 @@
         <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L46" t="n">
-        <v>47000</v>
+        <v>42000</v>
       </c>
       <c r="M46" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L47" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M47" t="n">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L48" t="n">
-        <v>26000</v>
+        <v>47000</v>
       </c>
       <c r="M48" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44203</v>
+        <v>44300</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K49" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L49" t="n">
         <v>20000</v>
       </c>
-      <c r="L49" t="n">
-        <v>22000</v>
-      </c>
       <c r="M49" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44384</v>
+        <v>44300</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K50" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L50" t="n">
         <v>26000</v>
       </c>
       <c r="M50" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44294</v>
+        <v>44203</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4032,13 +4032,13 @@
         <v>500</v>
       </c>
       <c r="K51" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L51" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44294</v>
+        <v>44384</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K52" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L52" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M52" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K53" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M53" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44483</v>
+        <v>44294</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K54" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="L54" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M54" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1760</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44546</v>
+        <v>44315</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4320,13 +4320,13 @@
         <v>600</v>
       </c>
       <c r="K55" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L55" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M55" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44546</v>
+        <v>44483</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K56" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L56" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K57" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L57" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>760</v>
+        <v>540</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
         <v>22000</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K59" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L59" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M59" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4680,14 +4680,14 @@
         <v>1600</v>
       </c>
       <c r="K60" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M60" t="n">
         <v>23000</v>
       </c>
-      <c r="L60" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M60" t="n">
-        <v>24000</v>
-      </c>
       <c r="N60" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K61" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L61" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M61" t="n">
-        <v>29000</v>
+        <v>17500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K62" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L62" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M62" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K63" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L63" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M63" t="n">
-        <v>13500</v>
+        <v>29000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>540</v>
+        <v>1160</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44482</v>
+        <v>44349</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K64" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="L64" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M64" t="n">
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1760</v>
+        <v>1360</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44273</v>
+        <v>44181</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K65" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L65" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M65" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>740</v>
+        <v>540</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L66" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M66" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K67" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="L67" t="n">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="M67" t="n">
-        <v>48000</v>
+        <v>18500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1920</v>
+        <v>740</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K68" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L68" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M68" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K69" t="n">
-        <v>21000</v>
+        <v>47000</v>
       </c>
       <c r="L69" t="n">
-        <v>23000</v>
+        <v>49000</v>
       </c>
       <c r="M69" t="n">
-        <v>22000</v>
+        <v>48000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>880</v>
+        <v>1920</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K70" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L70" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M70" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5472,14 +5472,14 @@
         <v>700</v>
       </c>
       <c r="K71" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M71" t="n">
         <v>22000</v>
       </c>
-      <c r="L71" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M71" t="n">
-        <v>23000</v>
-      </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L72" t="n">
         <v>18000</v>
       </c>
-      <c r="L72" t="n">
-        <v>19000</v>
-      </c>
       <c r="M72" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K73" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L73" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M73" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K74" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L74" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M74" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L75" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M75" t="n">
-        <v>37500</v>
+        <v>21500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1500</v>
+        <v>860</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K76" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L76" t="n">
         <v>18000</v>
       </c>
-      <c r="L76" t="n">
-        <v>20000</v>
-      </c>
       <c r="M76" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K77" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L77" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M77" t="n">
-        <v>22000</v>
+        <v>37500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>880</v>
+        <v>1500</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44468</v>
+        <v>44266</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K78" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L78" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M78" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44532</v>
+        <v>44266</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K79" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L79" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M79" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K80" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L80" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M80" t="n">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1040</v>
+        <v>1760</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L81" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="M81" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1760</v>
+        <v>600</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6264,13 +6264,13 @@
         <v>500</v>
       </c>
       <c r="K82" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M82" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>740</v>
+        <v>1040</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K83" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L83" t="n">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="M83" t="n">
-        <v>20500</v>
+        <v>44000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>820</v>
+        <v>1760</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K84" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L84" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M84" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>520</v>
+        <v>740</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K85" t="n">
         <v>20000</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>540</v>
+        <v>2400</v>
       </c>
       <c r="K86" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L86" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M86" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>520</v>
+        <v>1700</v>
       </c>
       <c r="K87" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L87" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M87" t="n">
-        <v>31000</v>
+        <v>20500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1240</v>
+        <v>820</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="K88" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L88" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M88" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1100</v>
+        <v>520</v>
       </c>
       <c r="K89" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L89" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M89" t="n">
-        <v>21500</v>
+        <v>31000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>860</v>
+        <v>1240</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K90" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L90" t="n">
         <v>15000</v>
       </c>
-      <c r="L90" t="n">
-        <v>16000</v>
-      </c>
       <c r="M90" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6912,13 +6912,13 @@
         <v>1100</v>
       </c>
       <c r="K91" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L91" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M91" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K92" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L92" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M92" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K93" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L93" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M93" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L94" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M94" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K95" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L95" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M95" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K96" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L96" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M96" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7344,13 +7344,13 @@
         <v>600</v>
       </c>
       <c r="K97" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L97" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M97" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7416,13 +7416,13 @@
         <v>700</v>
       </c>
       <c r="K98" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L98" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M98" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K99" t="n">
         <v>17000</v>
       </c>
       <c r="L99" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M99" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44559</v>
+        <v>44259</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K100" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L100" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M100" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K101" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L101" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M101" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1160</v>
+        <v>720</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1300</v>
+        <v>640</v>
       </c>
       <c r="K102" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L102" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M102" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K103" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L103" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M103" t="n">
-        <v>26500</v>
+        <v>29000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1060</v>
+        <v>1160</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K104" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L104" t="n">
         <v>18000</v>
       </c>
-      <c r="L104" t="n">
-        <v>20000</v>
-      </c>
       <c r="M104" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K105" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L105" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M105" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7992,13 +7992,13 @@
         <v>1100</v>
       </c>
       <c r="K106" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L106" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M106" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,17 +8061,17 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K107" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M107" t="n">
         <v>25000</v>
       </c>
-      <c r="L107" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M107" t="n">
-        <v>26000</v>
-      </c>
       <c r="N107" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K108" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L108" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M108" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K109" t="n">
         <v>25000</v>
       </c>
       <c r="L109" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M109" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L110" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M110" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K111" t="n">
         <v>25000</v>
       </c>
       <c r="L111" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M111" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K112" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L112" t="n">
         <v>25000</v>
       </c>
-      <c r="L112" t="n">
-        <v>26000</v>
-      </c>
       <c r="M112" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K113" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L113" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M113" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K114" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L114" t="n">
         <v>26000</v>
       </c>
-      <c r="L114" t="n">
-        <v>28000</v>
-      </c>
       <c r="M114" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L115" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M115" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K116" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L116" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M116" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K117" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L117" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M117" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K118" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L118" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M118" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K119" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L119" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M119" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K120" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L120" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M120" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K121" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L121" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M121" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K122" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L122" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M122" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9216,13 +9216,13 @@
         <v>700</v>
       </c>
       <c r="K123" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L123" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M123" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K124" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L124" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M124" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K125" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L125" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M125" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K126" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L126" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M126" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K127" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L127" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M127" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9576,13 +9576,13 @@
         <v>800</v>
       </c>
       <c r="K128" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L128" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M128" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K129" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L129" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M129" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,58 +9693,202 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>800</v>
+      </c>
+      <c r="K130" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L130" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M130" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>25</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E130" t="n">
-        <v>4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>300</v>
+      </c>
+      <c r="K131" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L131" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M131" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>25</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
         <v>300</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K132" t="n">
         <v>22000</v>
       </c>
-      <c r="L130" t="n">
+      <c r="L132" t="n">
         <v>24000</v>
       </c>
-      <c r="M130" t="n">
+      <c r="M132" t="n">
         <v>23000</v>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P130" t="n">
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
         <v>920</v>
       </c>
-      <c r="Q130" t="n">
-        <v>25</v>
-      </c>
-      <c r="R130" t="inlineStr">
+      <c r="Q132" t="n">
+        <v>25</v>
+      </c>
+      <c r="R132" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44181</v>
+        <v>44566</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K65" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L65" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M65" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>540</v>
+        <v>740</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44482</v>
+        <v>44566</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="L66" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M66" t="n">
-        <v>44000</v>
+        <v>26500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1760</v>
+        <v>1060</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44273</v>
+        <v>44181</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K67" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L67" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M67" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>740</v>
+        <v>540</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L68" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M68" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>920</v>
+        <v>1760</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="L69" t="n">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="M69" t="n">
-        <v>48000</v>
+        <v>18500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1920</v>
+        <v>740</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K70" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L70" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M70" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K71" t="n">
-        <v>21000</v>
+        <v>47000</v>
       </c>
       <c r="L71" t="n">
-        <v>23000</v>
+        <v>49000</v>
       </c>
       <c r="M71" t="n">
-        <v>22000</v>
+        <v>48000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>880</v>
+        <v>1920</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K72" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L72" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M72" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5616,14 +5616,14 @@
         <v>700</v>
       </c>
       <c r="K73" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M73" t="n">
         <v>22000</v>
       </c>
-      <c r="L73" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M73" t="n">
-        <v>23000</v>
-      </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K74" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L74" t="n">
         <v>18000</v>
       </c>
-      <c r="L74" t="n">
-        <v>19000</v>
-      </c>
       <c r="M74" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L75" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M75" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K76" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L76" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M76" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K77" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L77" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M77" t="n">
-        <v>37500</v>
+        <v>21500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1500</v>
+        <v>860</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K78" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L78" t="n">
         <v>18000</v>
       </c>
-      <c r="L78" t="n">
-        <v>20000</v>
-      </c>
       <c r="M78" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K79" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L79" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M79" t="n">
-        <v>22000</v>
+        <v>37500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>880</v>
+        <v>1500</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44468</v>
+        <v>44266</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K80" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L80" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M80" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44532</v>
+        <v>44266</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K81" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L81" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M81" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K82" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L82" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M82" t="n">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1040</v>
+        <v>1760</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="M83" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1760</v>
+        <v>600</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6408,13 +6408,13 @@
         <v>500</v>
       </c>
       <c r="K84" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L84" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M84" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>740</v>
+        <v>1040</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K85" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L85" t="n">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="M85" t="n">
-        <v>20500</v>
+        <v>44000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>820</v>
+        <v>1760</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K86" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L86" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M86" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>520</v>
+        <v>740</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K87" t="n">
         <v>20000</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>540</v>
+        <v>2400</v>
       </c>
       <c r="K88" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L88" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M88" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>520</v>
+        <v>1700</v>
       </c>
       <c r="K89" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L89" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M89" t="n">
-        <v>31000</v>
+        <v>20500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1240</v>
+        <v>820</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="K90" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L90" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M90" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1100</v>
+        <v>520</v>
       </c>
       <c r="K91" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L91" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M91" t="n">
-        <v>21500</v>
+        <v>31000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>860</v>
+        <v>1240</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K92" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L92" t="n">
         <v>15000</v>
       </c>
-      <c r="L92" t="n">
-        <v>16000</v>
-      </c>
       <c r="M92" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7056,13 +7056,13 @@
         <v>1100</v>
       </c>
       <c r="K93" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L93" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M93" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K94" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L94" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M94" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K95" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L95" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M95" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L96" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M96" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K97" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L97" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M97" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K98" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L98" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M98" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7488,13 +7488,13 @@
         <v>600</v>
       </c>
       <c r="K99" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L99" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M99" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7560,13 +7560,13 @@
         <v>700</v>
       </c>
       <c r="K100" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L100" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M100" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K101" t="n">
         <v>17000</v>
       </c>
       <c r="L101" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M101" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44559</v>
+        <v>44259</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K102" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L102" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M102" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L103" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M103" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1160</v>
+        <v>720</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1300</v>
+        <v>640</v>
       </c>
       <c r="K104" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L104" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M104" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K105" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L105" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M105" t="n">
-        <v>26500</v>
+        <v>29000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1060</v>
+        <v>1160</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K106" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L106" t="n">
         <v>18000</v>
       </c>
-      <c r="L106" t="n">
-        <v>20000</v>
-      </c>
       <c r="M106" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K107" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L107" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M107" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8136,13 +8136,13 @@
         <v>1100</v>
       </c>
       <c r="K108" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L108" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M108" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,17 +8205,17 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K109" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L109" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M109" t="n">
         <v>25000</v>
       </c>
-      <c r="L109" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M109" t="n">
-        <v>26000</v>
-      </c>
       <c r="N109" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K110" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L110" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M110" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K111" t="n">
         <v>25000</v>
       </c>
       <c r="L111" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M111" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K112" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L112" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M112" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K113" t="n">
         <v>25000</v>
       </c>
       <c r="L113" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M113" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K114" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L114" t="n">
         <v>25000</v>
       </c>
-      <c r="L114" t="n">
-        <v>26000</v>
-      </c>
       <c r="M114" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K115" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L115" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M115" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K116" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L116" t="n">
         <v>26000</v>
       </c>
-      <c r="L116" t="n">
-        <v>28000</v>
-      </c>
       <c r="M116" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K117" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L117" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M117" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K118" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L118" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M118" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L119" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M119" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K120" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L120" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M120" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K121" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L121" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M121" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K122" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L122" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M122" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K123" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L123" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M123" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K124" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L124" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M124" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9360,13 +9360,13 @@
         <v>700</v>
       </c>
       <c r="K125" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L125" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M125" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K126" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L126" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M126" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K127" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L127" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M127" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K128" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L128" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M128" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K129" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L129" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M129" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9720,13 +9720,13 @@
         <v>800</v>
       </c>
       <c r="K130" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L130" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M130" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K131" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L131" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M131" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,58 +9837,202 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>800</v>
+      </c>
+      <c r="K132" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L132" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M132" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>25</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E132" t="n">
-        <v>4</v>
-      </c>
-      <c r="F132" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="E133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>300</v>
+      </c>
+      <c r="K133" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L133" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M133" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>25</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
         <v>300</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K134" t="n">
         <v>22000</v>
       </c>
-      <c r="L132" t="n">
+      <c r="L134" t="n">
         <v>24000</v>
       </c>
-      <c r="M132" t="n">
+      <c r="M134" t="n">
         <v>23000</v>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P132" t="n">
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
         <v>920</v>
       </c>
-      <c r="Q132" t="n">
-        <v>25</v>
-      </c>
-      <c r="R132" t="inlineStr">
+      <c r="Q134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R134" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R134"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44468</v>
+        <v>44567</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L82" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M82" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44532</v>
+        <v>44567</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K83" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L83" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M83" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>600</v>
+        <v>1160</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K84" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L84" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M84" t="n">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1040</v>
+        <v>1760</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K85" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L85" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="M85" t="n">
-        <v>44000</v>
+        <v>15000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1760</v>
+        <v>600</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6552,13 +6552,13 @@
         <v>500</v>
       </c>
       <c r="K86" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L86" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M86" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>740</v>
+        <v>1040</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K87" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L87" t="n">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="M87" t="n">
-        <v>20500</v>
+        <v>44000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>820</v>
+        <v>1760</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K88" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L88" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M88" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>520</v>
+        <v>740</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
         <v>20000</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>540</v>
+        <v>2400</v>
       </c>
       <c r="K90" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L90" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M90" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>520</v>
+        <v>1700</v>
       </c>
       <c r="K91" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L91" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M91" t="n">
-        <v>31000</v>
+        <v>20500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1240</v>
+        <v>820</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="K92" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L92" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M92" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1100</v>
+        <v>520</v>
       </c>
       <c r="K93" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L93" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M93" t="n">
-        <v>21500</v>
+        <v>31000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>860</v>
+        <v>1240</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K94" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L94" t="n">
         <v>15000</v>
       </c>
-      <c r="L94" t="n">
-        <v>16000</v>
-      </c>
       <c r="M94" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7200,13 +7200,13 @@
         <v>1100</v>
       </c>
       <c r="K95" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L95" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M95" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K96" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L96" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M96" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K97" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L97" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M97" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44231</v>
+        <v>44328</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K98" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L98" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M98" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K99" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L99" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M99" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K100" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L100" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M100" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7632,13 +7632,13 @@
         <v>600</v>
       </c>
       <c r="K101" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L101" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M101" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7704,13 +7704,13 @@
         <v>700</v>
       </c>
       <c r="K102" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L102" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M102" t="n">
-        <v>24000</v>
+        <v>41500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>960</v>
+        <v>1660</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
         <v>17000</v>
       </c>
       <c r="L103" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M103" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44559</v>
+        <v>44259</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K104" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L104" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M104" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K105" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L105" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M105" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1160</v>
+        <v>720</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1300</v>
+        <v>640</v>
       </c>
       <c r="K106" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L106" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M106" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K107" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L107" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M107" t="n">
-        <v>26500</v>
+        <v>29000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1060</v>
+        <v>1160</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K108" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L108" t="n">
         <v>18000</v>
       </c>
-      <c r="L108" t="n">
-        <v>20000</v>
-      </c>
       <c r="M108" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L109" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M109" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8280,13 +8280,13 @@
         <v>1100</v>
       </c>
       <c r="K110" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L110" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M110" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,17 +8349,17 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K111" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L111" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M111" t="n">
         <v>25000</v>
       </c>
-      <c r="L111" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M111" t="n">
-        <v>26000</v>
-      </c>
       <c r="N111" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K112" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L112" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M112" t="n">
-        <v>29500</v>
+        <v>23000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1180</v>
+        <v>920</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K113" t="n">
         <v>25000</v>
       </c>
       <c r="L113" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M113" t="n">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44321</v>
+        <v>44391</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L114" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M114" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K115" t="n">
         <v>25000</v>
       </c>
       <c r="L115" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M115" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K116" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L116" t="n">
         <v>25000</v>
       </c>
-      <c r="L116" t="n">
-        <v>26000</v>
-      </c>
       <c r="M116" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K117" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L117" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M117" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K118" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L118" t="n">
         <v>26000</v>
       </c>
-      <c r="L118" t="n">
-        <v>28000</v>
-      </c>
       <c r="M118" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K119" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L119" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M119" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K120" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L120" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M120" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1360</v>
+        <v>1080</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K121" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L121" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M121" t="n">
-        <v>19000</v>
+        <v>27500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>760</v>
+        <v>1100</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K122" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L122" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M122" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K123" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L123" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M123" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="K124" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L124" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M124" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K125" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L125" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M125" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="K126" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L126" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M126" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9504,13 +9504,13 @@
         <v>700</v>
       </c>
       <c r="K127" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L127" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M127" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44329</v>
+        <v>44258</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K128" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L128" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M128" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K129" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L129" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M129" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K130" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L130" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M130" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K131" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L131" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M131" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44357</v>
+        <v>44195</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9864,13 +9864,13 @@
         <v>800</v>
       </c>
       <c r="K132" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L132" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M132" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K133" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L133" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M133" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>740</v>
+        <v>1360</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,58 +9981,202 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>800</v>
+      </c>
+      <c r="K134" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L134" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M134" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E134" t="n">
-        <v>4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>300</v>
+      </c>
+      <c r="K135" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L135" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M135" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>25</v>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
         <v>300</v>
       </c>
-      <c r="K134" t="n">
+      <c r="K136" t="n">
         <v>22000</v>
       </c>
-      <c r="L134" t="n">
+      <c r="L136" t="n">
         <v>24000</v>
       </c>
-      <c r="M134" t="n">
+      <c r="M136" t="n">
         <v>23000</v>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P134" t="n">
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
         <v>920</v>
       </c>
-      <c r="Q134" t="n">
-        <v>25</v>
-      </c>
-      <c r="R134" t="inlineStr">
+      <c r="Q136" t="n">
+        <v>25</v>
+      </c>
+      <c r="R136" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44335</v>
+        <v>44224</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K2" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M2" t="n">
-        <v>26500</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>540</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44504</v>
+        <v>44203</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>34500</v>
+        <v>21000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1380</v>
+        <v>840</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44504</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L5" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="M5" t="n">
-        <v>41000</v>
+        <v>25500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1640</v>
+        <v>1020</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44307</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K6" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>880</v>
+        <v>620</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M7" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1080</v>
+        <v>1240</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44217</v>
+        <v>44252</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>840</v>
+        <v>700</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44301</v>
+        <v>44252</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M9" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44566</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,13 +1080,13 @@
         <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M10" t="n">
-        <v>27000</v>
+        <v>18500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1080</v>
+        <v>740</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44230</v>
+        <v>44566</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M11" t="n">
-        <v>19000</v>
+        <v>26500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>760</v>
+        <v>1060</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44552</v>
+        <v>44314</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>24000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>620</v>
+        <v>960</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44552</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1160</v>
+        <v>760</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44545</v>
+        <v>44238</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44545</v>
+        <v>44385</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L15" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M15" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44314</v>
+        <v>44245</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>960</v>
+        <v>560</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44503</v>
+        <v>44245</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K17" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M17" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1320</v>
+        <v>840</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44503</v>
+        <v>44497</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K18" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="M18" t="n">
-        <v>31000</v>
+        <v>37500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1240</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44503</v>
+        <v>44469</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,17 +1728,17 @@
         <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>40000</v>
+        <v>47000</v>
       </c>
       <c r="L19" t="n">
-        <v>42000</v>
+        <v>49000</v>
       </c>
       <c r="M19" t="n">
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1640</v>
+        <v>1920</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L20" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M20" t="n">
-        <v>25500</v>
+        <v>22500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44293</v>
+        <v>44559</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>29000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>700</v>
+        <v>1160</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44293</v>
+        <v>44363</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K22" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L22" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44497</v>
+        <v>44363</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L23" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M23" t="n">
-        <v>37500</v>
+        <v>30500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1500</v>
+        <v>1220</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44223</v>
+        <v>44195</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,17 +2085,17 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L24" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M24" t="n">
         <v>22000</v>
       </c>
-      <c r="M24" t="n">
-        <v>21000</v>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44223</v>
+        <v>44195</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K25" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L25" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M25" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>960</v>
+        <v>1360</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44356</v>
+        <v>44315</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44202</v>
+        <v>44217</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L29" t="n">
         <v>22000</v>
       </c>
-      <c r="L29" t="n">
-        <v>24000</v>
-      </c>
       <c r="M29" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44560</v>
+        <v>44504</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L30" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M30" t="n">
-        <v>22500</v>
+        <v>34500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>900</v>
+        <v>1380</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44560</v>
+        <v>44504</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="K31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L31" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="M31" t="n">
-        <v>31000</v>
+        <v>41000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1240</v>
+        <v>1640</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44336</v>
+        <v>44468</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M32" t="n">
-        <v>24500</v>
+        <v>44000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>980</v>
+        <v>1760</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44336</v>
+        <v>44258</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,13 +2736,13 @@
         <v>700</v>
       </c>
       <c r="K33" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>30500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1220</v>
+        <v>700</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44343</v>
+        <v>44258</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K34" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L34" t="n">
         <v>25000</v>
       </c>
-      <c r="L34" t="n">
-        <v>26000</v>
-      </c>
       <c r="M34" t="n">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44343</v>
+        <v>44223</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="K35" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L35" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M35" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1280</v>
+        <v>840</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44245</v>
+        <v>44223</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44245</v>
+        <v>44188</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="K37" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L37" t="n">
         <v>20000</v>
       </c>
-      <c r="L37" t="n">
-        <v>22000</v>
-      </c>
       <c r="M37" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44524</v>
+        <v>44189</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="K38" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L38" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M38" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44524</v>
+        <v>44189</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
         <v>35000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44216</v>
+        <v>44321</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K40" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M40" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44216</v>
+        <v>44321</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M41" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>960</v>
+        <v>1040</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44189</v>
+        <v>44336</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K42" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L42" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>840</v>
+        <v>980</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44189</v>
+        <v>44336</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K43" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L43" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M43" t="n">
-        <v>37500</v>
+        <v>30500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1500</v>
+        <v>1220</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44363</v>
+        <v>44307</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K44" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L44" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M44" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44363</v>
+        <v>44307</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K45" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L45" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M45" t="n">
-        <v>30500</v>
+        <v>27000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1220</v>
+        <v>1080</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44517</v>
+        <v>44231</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K46" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L46" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>41000</v>
+        <v>17000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1640</v>
+        <v>680</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44517</v>
+        <v>44231</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K47" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="L47" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>39000</v>
+        <v>22500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1560</v>
+        <v>900</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44517</v>
+        <v>44175</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K48" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>47000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>45000</v>
+        <v>12500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44300</v>
+        <v>44349</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K49" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M49" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>760</v>
+        <v>1160</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44300</v>
+        <v>44349</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L50" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M50" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1000</v>
+        <v>1360</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K51" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L51" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M51" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44384</v>
+        <v>44356</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K52" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L52" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M52" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44294</v>
+        <v>44259</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K53" t="n">
         <v>17000</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44294</v>
+        <v>44259</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,17 +4245,17 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L54" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M54" t="n">
         <v>24000</v>
       </c>
-      <c r="M54" t="n">
-        <v>23000</v>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K55" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L55" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>960</v>
+        <v>1180</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44483</v>
+        <v>44273</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K56" t="n">
-        <v>43000</v>
+        <v>17000</v>
       </c>
       <c r="L56" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>44000</v>
+        <v>18500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1760</v>
+        <v>740</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44546</v>
+        <v>44273</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M57" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44546</v>
+        <v>44567</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K58" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L58" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44237</v>
+        <v>44567</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K59" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>760</v>
+        <v>1160</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K60" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L60" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M60" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K61" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L61" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M61" t="n">
-        <v>17500</v>
+        <v>23000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>700</v>
+        <v>920</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44252</v>
+        <v>44300</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K62" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L62" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M62" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,29 +4893,29 @@
         </is>
       </c>
       <c r="J63" t="n">
+        <v>500</v>
+      </c>
+      <c r="K63" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M63" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
         <v>1000</v>
-      </c>
-      <c r="K63" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L63" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M63" t="n">
-        <v>29000</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P63" t="n">
-        <v>1160</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44349</v>
+        <v>44546</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M64" t="n">
-        <v>34000</v>
+        <v>13500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1360</v>
+        <v>540</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44566</v>
+        <v>44546</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K65" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L65" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M65" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>740</v>
+        <v>920</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44566</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K66" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L66" t="n">
         <v>28000</v>
       </c>
       <c r="M66" t="n">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1060</v>
+        <v>1100</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44181</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K67" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L67" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M67" t="n">
-        <v>13500</v>
+        <v>34000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>540</v>
+        <v>1360</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44482</v>
+        <v>44524</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K68" t="n">
-        <v>43000</v>
+        <v>16000</v>
       </c>
       <c r="L68" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M68" t="n">
-        <v>44000</v>
+        <v>17000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1760</v>
+        <v>680</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44273</v>
+        <v>44524</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K69" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L69" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M69" t="n">
-        <v>18500</v>
+        <v>37500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>740</v>
+        <v>1500</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44273</v>
+        <v>44573</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K70" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L70" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M70" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44469</v>
+        <v>44573</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K71" t="n">
-        <v>47000</v>
+        <v>25000</v>
       </c>
       <c r="L71" t="n">
-        <v>49000</v>
+        <v>27000</v>
       </c>
       <c r="M71" t="n">
-        <v>48000</v>
+        <v>26000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1920</v>
+        <v>1040</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44265</v>
+        <v>44168</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K72" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L72" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M72" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44265</v>
+        <v>44168</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K73" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L73" t="n">
         <v>21000</v>
       </c>
-      <c r="L73" t="n">
-        <v>23000</v>
-      </c>
       <c r="M73" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44280</v>
+        <v>44510</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K74" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L74" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M74" t="n">
-        <v>17000</v>
+        <v>27500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>680</v>
+        <v>1100</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K75" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L75" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M75" t="n">
-        <v>23000</v>
+        <v>15500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>920</v>
+        <v>620</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44209</v>
+        <v>44160</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K76" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L76" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M76" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44209</v>
+        <v>44308</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L77" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M77" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44525</v>
+        <v>44308</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5976,13 +5976,13 @@
         <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="L78" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M78" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>680</v>
+        <v>1080</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44525</v>
+        <v>44357</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K79" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L79" t="n">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="M79" t="n">
-        <v>37500</v>
+        <v>25000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44266</v>
+        <v>44335</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K80" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L80" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M80" t="n">
-        <v>19000</v>
+        <v>26500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>760</v>
+        <v>1060</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44266</v>
+        <v>44335</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K81" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L81" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M81" t="n">
-        <v>22000</v>
+        <v>30500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>880</v>
+        <v>1220</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44567</v>
+        <v>44251</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,17 +6261,17 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K82" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L82" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M82" t="n">
         <v>18000</v>
       </c>
-      <c r="L82" t="n">
-        <v>20000</v>
-      </c>
-      <c r="M82" t="n">
-        <v>19000</v>
-      </c>
       <c r="N82" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44567</v>
+        <v>44210</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K83" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L83" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M83" t="n">
-        <v>29000</v>
+        <v>18500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1160</v>
+        <v>740</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44468</v>
+        <v>44210</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6408,17 +6408,17 @@
         <v>400</v>
       </c>
       <c r="K84" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L84" t="n">
-        <v>45000</v>
+        <v>21000</v>
       </c>
       <c r="M84" t="n">
-        <v>44000</v>
+        <v>20500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1760</v>
+        <v>820</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44532</v>
+        <v>44343</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K85" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L85" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="M85" t="n">
-        <v>15000</v>
+        <v>25500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44532</v>
+        <v>44343</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L86" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M86" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1040</v>
+        <v>1280</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44489</v>
+        <v>44230</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K87" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L87" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M87" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44210</v>
+        <v>44265</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,17 +6693,17 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K88" t="n">
         <v>18000</v>
       </c>
       <c r="L88" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M88" t="n">
         <v>19000</v>
       </c>
-      <c r="M88" t="n">
-        <v>18500</v>
-      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44210</v>
+        <v>44265</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L89" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M89" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>820</v>
+        <v>880</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44168</v>
+        <v>44329</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="K90" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="L90" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M90" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>520</v>
+        <v>1080</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44168</v>
+        <v>44329</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K91" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L91" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M91" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>820</v>
+        <v>1200</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44553</v>
+        <v>44272</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K92" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L92" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M92" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>620</v>
+        <v>740</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44553</v>
+        <v>44272</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K93" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L93" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="M93" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1240</v>
+        <v>920</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44161</v>
+        <v>44489</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K96" t="n">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="L96" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="M96" t="n">
-        <v>15500</v>
+        <v>44000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>620</v>
+        <v>1760</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44328</v>
+        <v>44209</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7344,13 +7344,13 @@
         <v>1100</v>
       </c>
       <c r="K97" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L97" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M97" t="n">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44328</v>
+        <v>44209</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7416,13 +7416,13 @@
         <v>400</v>
       </c>
       <c r="K98" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L98" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M98" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1200</v>
+        <v>860</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44160</v>
+        <v>44517</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K99" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L99" t="n">
-        <v>17000</v>
+        <v>42000</v>
       </c>
       <c r="M99" t="n">
-        <v>16500</v>
+        <v>41000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>660</v>
+        <v>1640</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44231</v>
+        <v>44517</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K100" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="L100" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M100" t="n">
-        <v>17000</v>
+        <v>39000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>680</v>
+        <v>1560</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44231</v>
+        <v>44517</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L101" t="n">
-        <v>25000</v>
+        <v>47000</v>
       </c>
       <c r="M101" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44490</v>
+        <v>44280</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7704,13 +7704,13 @@
         <v>700</v>
       </c>
       <c r="K102" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L102" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M102" t="n">
-        <v>41500</v>
+        <v>17000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1660</v>
+        <v>680</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44259</v>
+        <v>44280</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K103" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L103" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M103" t="n">
-        <v>17500</v>
+        <v>23000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>700</v>
+        <v>920</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44259</v>
+        <v>44483</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7848,17 +7848,17 @@
         <v>700</v>
       </c>
       <c r="K104" t="n">
-        <v>23000</v>
+        <v>43000</v>
       </c>
       <c r="L104" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M104" t="n">
-        <v>24000</v>
+        <v>44000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>960</v>
+        <v>1760</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44251</v>
+        <v>44328</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,29 +7917,29 @@
         </is>
       </c>
       <c r="J105" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K105" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M105" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
         <v>1000</v>
-      </c>
-      <c r="K105" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L105" t="n">
-        <v>19000</v>
-      </c>
-      <c r="M105" t="n">
-        <v>18000</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>720</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44559</v>
+        <v>44328</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K106" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L106" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M106" t="n">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K107" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L107" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M107" t="n">
-        <v>29000</v>
+        <v>22500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1160</v>
+        <v>900</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44286</v>
+        <v>44560</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1300</v>
+        <v>520</v>
       </c>
       <c r="K108" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L108" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M108" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>680</v>
+        <v>1240</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8208,13 +8208,13 @@
         <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L109" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M109" t="n">
-        <v>26500</v>
+        <v>15500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1060</v>
+        <v>620</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44279</v>
+        <v>44552</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K110" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L110" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M110" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>760</v>
+        <v>1160</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44279</v>
+        <v>44216</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>240</v>
+        <v>1600</v>
       </c>
       <c r="K111" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L111" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M111" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44322</v>
+        <v>44216</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,17 +8421,17 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K112" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L112" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M112" t="n">
         <v>24000</v>
       </c>
-      <c r="M112" t="n">
-        <v>23000</v>
-      </c>
       <c r="N112" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44322</v>
+        <v>44286</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="K113" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L113" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M113" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44391</v>
+        <v>44286</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K114" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L114" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M114" t="n">
-        <v>29500</v>
+        <v>26500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1180</v>
+        <v>1060</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44510</v>
+        <v>44482</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,20 +8637,20 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L115" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M115" t="n">
-        <v>27500</v>
+        <v>44000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1100</v>
+        <v>1760</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44321</v>
+        <v>44294</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K116" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L116" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M116" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44321</v>
+        <v>44294</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K117" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L117" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M117" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44385</v>
+        <v>44545</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K118" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L118" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>25500</v>
+        <v>13500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1020</v>
+        <v>540</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44308</v>
+        <v>44545</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K119" t="n">
         <v>22000</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44308</v>
+        <v>44301</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K120" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L120" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M120" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44350</v>
+        <v>44301</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K121" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L121" t="n">
         <v>28000</v>
       </c>
       <c r="M121" t="n">
-        <v>27500</v>
+        <v>27000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44350</v>
+        <v>44322</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="K122" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L122" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M122" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1360</v>
+        <v>920</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44238</v>
+        <v>44322</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L123" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M123" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44238</v>
+        <v>44532</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K124" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L124" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M124" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>920</v>
+        <v>600</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44175</v>
+        <v>44532</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K125" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L125" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="M125" t="n">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44188</v>
+        <v>44490</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="K126" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L126" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="M126" t="n">
-        <v>19000</v>
+        <v>41500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>760</v>
+        <v>1660</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K127" t="n">
         <v>17000</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K128" t="n">
         <v>23000</v>
       </c>
       <c r="L128" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M128" t="n">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44224</v>
+        <v>44266</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,17 +9645,17 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K129" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L129" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M129" t="n">
         <v>19000</v>
       </c>
-      <c r="L129" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M129" t="n">
-        <v>20000</v>
-      </c>
       <c r="N129" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44329</v>
+        <v>44266</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K130" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L130" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M130" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44329</v>
+        <v>44279</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K131" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L131" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M131" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1200</v>
+        <v>760</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44195</v>
+        <v>44279</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K132" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L132" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M132" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44195</v>
+        <v>44525</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K133" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L133" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M133" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44357</v>
+        <v>44525</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K134" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L134" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="M134" t="n">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44272</v>
+        <v>44503</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K135" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L135" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M135" t="n">
-        <v>18500</v>
+        <v>33000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>740</v>
+        <v>1320</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44272</v>
+        <v>44503</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10140,43 +10140,187 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>500</v>
+      </c>
+      <c r="K136" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L136" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M136" t="n">
+        <v>31000</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>1240</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>25</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>300</v>
-      </c>
-      <c r="K136" t="n">
-        <v>22000</v>
-      </c>
-      <c r="L136" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M136" t="n">
-        <v>23000</v>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
-        <v>920</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>25</v>
-      </c>
-      <c r="R136" t="inlineStr">
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>400</v>
+      </c>
+      <c r="K137" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L137" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M137" t="n">
+        <v>41000</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>1640</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>25</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>200</v>
+      </c>
+      <c r="K138" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L138" t="n">
+        <v>26000</v>
+      </c>
+      <c r="M138" t="n">
+        <v>25500</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>1020</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>25</v>
+      </c>
+      <c r="R138" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L72" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M72" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K73" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L73" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M73" t="n">
-        <v>20500</v>
+        <v>26000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>820</v>
+        <v>1040</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44510</v>
+        <v>44168</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="K74" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L74" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M74" t="n">
-        <v>27500</v>
+        <v>13000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1100</v>
+        <v>520</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K75" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L75" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M75" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44160</v>
+        <v>44510</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K76" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L76" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M76" t="n">
-        <v>16500</v>
+        <v>27500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>660</v>
+        <v>1100</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44308</v>
+        <v>44161</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K77" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L77" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M77" t="n">
-        <v>23000</v>
+        <v>15500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>920</v>
+        <v>620</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K78" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="L78" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="M78" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K79" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L79" t="n">
         <v>24000</v>
       </c>
-      <c r="L79" t="n">
-        <v>26000</v>
-      </c>
       <c r="M79" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44335</v>
+        <v>44308</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,17 +6117,17 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
         <v>26000</v>
       </c>
       <c r="L80" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M80" t="n">
         <v>27000</v>
       </c>
-      <c r="M80" t="n">
-        <v>26500</v>
-      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6192,13 +6192,13 @@
         <v>800</v>
       </c>
       <c r="K81" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L81" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="M81" t="n">
-        <v>30500</v>
+        <v>25000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1220</v>
+        <v>1000</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44251</v>
+        <v>44335</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6264,13 +6264,13 @@
         <v>1000</v>
       </c>
       <c r="K82" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L82" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M82" t="n">
-        <v>18000</v>
+        <v>26500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>720</v>
+        <v>1060</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44210</v>
+        <v>44335</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K83" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L83" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="M83" t="n">
-        <v>18500</v>
+        <v>30500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>740</v>
+        <v>1220</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K84" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L84" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M84" t="n">
-        <v>20500</v>
+        <v>18000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>820</v>
+        <v>720</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K85" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L85" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M85" t="n">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1020</v>
+        <v>740</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L86" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="M86" t="n">
-        <v>32000</v>
+        <v>20500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1280</v>
+        <v>820</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L87" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M87" t="n">
-        <v>19000</v>
+        <v>25500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>760</v>
+        <v>1020</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44265</v>
+        <v>44343</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K88" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L88" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M88" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>760</v>
+        <v>1280</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K89" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L89" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M89" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44329</v>
+        <v>44265</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K90" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L90" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M90" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1080</v>
+        <v>760</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44329</v>
+        <v>44265</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K91" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L91" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="M91" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L92" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M92" t="n">
-        <v>18500</v>
+        <v>27000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>740</v>
+        <v>1080</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K93" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L93" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M93" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L94" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M94" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>580</v>
+        <v>740</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K95" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L95" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M95" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44489</v>
+        <v>44167</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K96" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="L96" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="M96" t="n">
-        <v>44000</v>
+        <v>14500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1760</v>
+        <v>580</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44209</v>
+        <v>44167</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7344,13 +7344,13 @@
         <v>1100</v>
       </c>
       <c r="K97" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L97" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M97" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>740</v>
+        <v>860</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44209</v>
+        <v>44489</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K98" t="n">
-        <v>21000</v>
+        <v>43000</v>
       </c>
       <c r="L98" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="M98" t="n">
-        <v>21500</v>
+        <v>44000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>860</v>
+        <v>1760</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44517</v>
+        <v>44209</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K99" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="L99" t="n">
-        <v>42000</v>
+        <v>19000</v>
       </c>
       <c r="M99" t="n">
-        <v>41000</v>
+        <v>18500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1640</v>
+        <v>740</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44517</v>
+        <v>44209</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K100" t="n">
-        <v>38000</v>
+        <v>21000</v>
       </c>
       <c r="L100" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M100" t="n">
-        <v>39000</v>
+        <v>21500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1560</v>
+        <v>860</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7632,17 +7632,17 @@
         <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L101" t="n">
-        <v>47000</v>
+        <v>42000</v>
       </c>
       <c r="M101" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44280</v>
+        <v>44517</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K102" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="L102" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M102" t="n">
-        <v>17000</v>
+        <v>39000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>680</v>
+        <v>1560</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44280</v>
+        <v>44517</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="L103" t="n">
-        <v>24000</v>
+        <v>47000</v>
       </c>
       <c r="M103" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>920</v>
+        <v>1800</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44483</v>
+        <v>44280</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7848,17 +7848,17 @@
         <v>700</v>
       </c>
       <c r="K104" t="n">
-        <v>43000</v>
+        <v>16000</v>
       </c>
       <c r="L104" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M104" t="n">
-        <v>44000</v>
+        <v>17000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1760</v>
+        <v>680</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44328</v>
+        <v>44280</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K105" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L105" t="n">
         <v>24000</v>
       </c>
-      <c r="L105" t="n">
-        <v>26000</v>
-      </c>
       <c r="M105" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44328</v>
+        <v>44483</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K106" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L106" t="n">
-        <v>31000</v>
+        <v>45000</v>
       </c>
       <c r="M106" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1200</v>
+        <v>1760</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44560</v>
+        <v>44328</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K107" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L107" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M107" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +81